--- a/我的创作/炒股/交易运行状态/同仁堂.xlsx
+++ b/我的创作/炒股/交易运行状态/同仁堂.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>日期</t>
   </si>
@@ -25,7 +28,10 @@
     <t>当前止损线</t>
   </si>
   <si>
-    <t>预期移动止损线</t>
+    <t>预期止损线</t>
+  </si>
+  <si>
+    <t>预期移动止损线股价</t>
   </si>
   <si>
     <t>当日收盘价是否小于20日均线
@@ -52,11 +58,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,22 +82,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -100,28 +92,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,8 +113,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,48 +212,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -226,19 +234,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,127 +270,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,19 +294,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,15 +419,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -434,15 +433,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,17 +452,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,13 +505,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,163 +524,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -733,6 +747,673 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="入场指标"/>
+      <sheetName val="账户动态"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>000001</v>
+          </cell>
+          <cell r="B4">
+            <v>44517</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>003040(楚天龙)</v>
+          </cell>
+          <cell r="D4">
+            <v>22.15</v>
+          </cell>
+          <cell r="E4">
+            <v>23.55</v>
+          </cell>
+          <cell r="F4">
+            <v>24.52</v>
+          </cell>
+          <cell r="G4">
+            <v>25.7</v>
+          </cell>
+          <cell r="H4">
+            <v>5.46</v>
+          </cell>
+          <cell r="I4">
+            <v>46.33</v>
+          </cell>
+          <cell r="J4">
+            <v>3.70695970695971</v>
+          </cell>
+          <cell r="K4">
+            <v>0.445283833369307</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="M4">
+            <v>20.79</v>
+          </cell>
+          <cell r="N4">
+            <v>29.8</v>
+          </cell>
+          <cell r="O4">
+            <v>21.88</v>
+          </cell>
+          <cell r="P4">
+            <v>25.14</v>
+          </cell>
+          <cell r="Q4">
+            <v>22.1</v>
+          </cell>
+          <cell r="R4">
+            <v>26.4</v>
+          </cell>
+          <cell r="S4">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="X4" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Y4">
+            <v>0.551262680768401</v>
+          </cell>
+          <cell r="Z4">
+            <v>0.265771812080537</v>
+          </cell>
+          <cell r="AA4">
+            <v>0.120922832140016</v>
+          </cell>
+          <cell r="AB4">
+            <v>0.0909090909090909</v>
+          </cell>
+          <cell r="AC4" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AE4" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AF4" t="str">
+            <v>减少不明显，空头依然较强</v>
+          </cell>
+          <cell r="AG4" t="str">
+            <v>形态清晰</v>
+          </cell>
+          <cell r="AH4" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AI4">
+            <v>28.15</v>
+          </cell>
+          <cell r="AJ4">
+            <v>21.87</v>
+          </cell>
+          <cell r="AK4">
+            <v>6.28</v>
+          </cell>
+          <cell r="AL4">
+            <v>26.2</v>
+          </cell>
+          <cell r="AM4">
+            <v>24.68</v>
+          </cell>
+          <cell r="AN4">
+            <v>32.49</v>
+          </cell>
+          <cell r="AO4">
+            <v>152</v>
+          </cell>
+          <cell r="AP4">
+            <v>100</v>
+          </cell>
+          <cell r="AQ4">
+            <v>4.13815789473685</v>
+          </cell>
+          <cell r="AR4">
+            <v>0.0580152671755725</v>
+          </cell>
+          <cell r="AS4">
+            <v>0.240076335877863</v>
+          </cell>
+          <cell r="AT4">
+            <v>150.88</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>000002</v>
+          </cell>
+          <cell r="B5">
+            <v>44517</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>600085(同仁堂)</v>
+          </cell>
+          <cell r="D5">
+            <v>31.92</v>
+          </cell>
+          <cell r="E5">
+            <v>32.63</v>
+          </cell>
+          <cell r="F5">
+            <v>33.17</v>
+          </cell>
+          <cell r="G5">
+            <v>33.73</v>
+          </cell>
+          <cell r="H5">
+            <v>22.98</v>
+          </cell>
+          <cell r="I5">
+            <v>44.42</v>
+          </cell>
+          <cell r="J5">
+            <v>0.467798085291558</v>
+          </cell>
+          <cell r="K5">
+            <v>0.240657361548852</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>30.78</v>
+          </cell>
+          <cell r="N5">
+            <v>35</v>
+          </cell>
+          <cell r="O5">
+            <v>31.27</v>
+          </cell>
+          <cell r="P5">
+            <v>34.82</v>
+          </cell>
+          <cell r="Q5">
+            <v>32.12</v>
+          </cell>
+          <cell r="R5">
+            <v>34.11</v>
+          </cell>
+          <cell r="S5">
+            <v>32.53</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="X5" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Y5">
+            <v>0.307068887888339</v>
+          </cell>
+          <cell r="Z5">
+            <v>0.106571428571429</v>
+          </cell>
+          <cell r="AA5">
+            <v>0.077541642734061</v>
+          </cell>
+          <cell r="AB5">
+            <v>0.0463207270595133</v>
+          </cell>
+          <cell r="AC5" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AE5" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AF5" t="str">
+            <v>减少一般，空头仍然较强</v>
+          </cell>
+          <cell r="AG5" t="str">
+            <v>不是很清晰</v>
+          </cell>
+          <cell r="AH5" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AI5">
+            <v>35.48</v>
+          </cell>
+          <cell r="AJ5">
+            <v>31.36</v>
+          </cell>
+          <cell r="AK5">
+            <v>4.12</v>
+          </cell>
+          <cell r="AL5">
+            <v>34.12</v>
+          </cell>
+          <cell r="AM5">
+            <v>32.53</v>
+          </cell>
+          <cell r="AN5">
+            <v>39.33</v>
+          </cell>
+          <cell r="AO5">
+            <v>159</v>
+          </cell>
+          <cell r="AP5">
+            <v>100</v>
+          </cell>
+          <cell r="AQ5">
+            <v>3.27672955974844</v>
+          </cell>
+          <cell r="AR5">
+            <v>0.0466002344665884</v>
+          </cell>
+          <cell r="AS5">
+            <v>0.152696365767878</v>
+          </cell>
+          <cell r="AT5">
+            <v>37.41</v>
+          </cell>
+          <cell r="AU5">
+            <v>44523</v>
+          </cell>
+          <cell r="AV5">
+            <v>33.73</v>
+          </cell>
+          <cell r="AW5">
+            <v>5</v>
+          </cell>
+          <cell r="AX5">
+            <v>0.06746</v>
+          </cell>
+          <cell r="AY5">
+            <v>3378.06746</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>000003</v>
+          </cell>
+          <cell r="B6">
+            <v>44519</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>603867(新化股份)</v>
+          </cell>
+          <cell r="D6">
+            <v>28.2</v>
+          </cell>
+          <cell r="E6">
+            <v>29.15</v>
+          </cell>
+          <cell r="F6">
+            <v>31.53</v>
+          </cell>
+          <cell r="G6">
+            <v>32.57</v>
+          </cell>
+          <cell r="H6">
+            <v>20.61</v>
+          </cell>
+          <cell r="I6">
+            <v>41.5</v>
+          </cell>
+          <cell r="J6">
+            <v>0.58030082484231</v>
+          </cell>
+          <cell r="K6">
+            <v>0.215180722891566</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>28.42</v>
+          </cell>
+          <cell r="N6">
+            <v>34.7</v>
+          </cell>
+          <cell r="O6">
+            <v>29</v>
+          </cell>
+          <cell r="P6">
+            <v>35.27</v>
+          </cell>
+          <cell r="Q6">
+            <v>30.89</v>
+          </cell>
+          <cell r="R6">
+            <v>32.65</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="X6" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Y6">
+            <v>0.315180722891566</v>
+          </cell>
+          <cell r="Z6">
+            <v>0.164265129682997</v>
+          </cell>
+          <cell r="AA6">
+            <v>0.124184859654097</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AC6" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AE6" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF6" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+          <cell r="AG6" t="str">
+            <v>不是很清晰</v>
+          </cell>
+          <cell r="AH6" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AI6">
+            <v>36.21</v>
+          </cell>
+          <cell r="AJ6">
+            <v>27.35</v>
+          </cell>
+          <cell r="AK6">
+            <v>8.86</v>
+          </cell>
+          <cell r="AL6">
+            <v>32.65</v>
+          </cell>
+          <cell r="AM6">
+            <v>30.89</v>
+          </cell>
+          <cell r="AN6">
+            <v>36.22</v>
+          </cell>
+          <cell r="AO6">
+            <v>176</v>
+          </cell>
+          <cell r="AP6">
+            <v>100</v>
+          </cell>
+          <cell r="AQ6">
+            <v>2.02840909090909</v>
+          </cell>
+          <cell r="AR6">
+            <v>0.0539050535987748</v>
+          </cell>
+          <cell r="AS6">
+            <v>0.109341500765697</v>
+          </cell>
+          <cell r="AT6">
+            <v>28.82</v>
+          </cell>
+          <cell r="AU6">
+            <v>44522</v>
+          </cell>
+          <cell r="AV6">
+            <v>32.7</v>
+          </cell>
+          <cell r="AW6">
+            <v>5</v>
+          </cell>
+          <cell r="AX6">
+            <v>0.0654</v>
+          </cell>
+          <cell r="AY6">
+            <v>3275.0654</v>
+          </cell>
+          <cell r="AZ6">
+            <v>33.9</v>
+          </cell>
+          <cell r="BA6">
+            <v>32.49</v>
+          </cell>
+          <cell r="BB6">
+            <v>0.851063829787233</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>000005</v>
+          </cell>
+          <cell r="B7">
+            <v>44522</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>605016(百农创园)</v>
+          </cell>
+          <cell r="D7">
+            <v>28.37</v>
+          </cell>
+          <cell r="E7">
+            <v>29.06</v>
+          </cell>
+          <cell r="F7">
+            <v>29.49</v>
+          </cell>
+          <cell r="G7">
+            <v>29.69</v>
+          </cell>
+          <cell r="H7">
+            <v>17.54</v>
+          </cell>
+          <cell r="I7">
+            <v>48.5</v>
+          </cell>
+          <cell r="J7">
+            <v>0.692702394526796</v>
+          </cell>
+          <cell r="K7">
+            <v>0.387835051546392</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="M7">
+            <v>24.11</v>
+          </cell>
+          <cell r="N7">
+            <v>38.16</v>
+          </cell>
+          <cell r="O7">
+            <v>25.12</v>
+          </cell>
+          <cell r="P7">
+            <v>30.9</v>
+          </cell>
+          <cell r="Q7">
+            <v>29.2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="X7" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Y7">
+            <v>0.502886597938144</v>
+          </cell>
+          <cell r="Z7">
+            <v>0.341719077568134</v>
+          </cell>
+          <cell r="AA7">
+            <v>0.0550161812297734</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AE7" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF7" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+          <cell r="AG7" t="str">
+            <v>清晰</v>
+          </cell>
+          <cell r="AH7" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AI7">
+            <v>32.43</v>
+          </cell>
+          <cell r="AJ7">
+            <v>26.16</v>
+          </cell>
+          <cell r="AK7">
+            <v>6.27</v>
+          </cell>
+          <cell r="AL7">
+            <v>30.9</v>
+          </cell>
+          <cell r="AM7">
+            <v>29.35</v>
+          </cell>
+          <cell r="AN7">
+            <v>38.71</v>
+          </cell>
+          <cell r="AO7">
+            <v>155</v>
+          </cell>
+          <cell r="AP7">
+            <v>200</v>
+          </cell>
+          <cell r="AQ7">
+            <v>5.03870967741937</v>
+          </cell>
+          <cell r="AR7">
+            <v>0.0501618122977345</v>
+          </cell>
+          <cell r="AS7">
+            <v>0.252750809061489</v>
+          </cell>
+          <cell r="AT7">
+            <v>38.46</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>000006</v>
+          </cell>
+          <cell r="B8">
+            <v>44522</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>000722(湖南发展)</v>
+          </cell>
+          <cell r="D8">
+            <v>7.01</v>
+          </cell>
+          <cell r="E8">
+            <v>7.12</v>
+          </cell>
+          <cell r="F8">
+            <v>7.44</v>
+          </cell>
+          <cell r="G8">
+            <v>7.74</v>
+          </cell>
+          <cell r="H8">
+            <v>5.47</v>
+          </cell>
+          <cell r="I8">
+            <v>9.59</v>
+          </cell>
+          <cell r="J8">
+            <v>0.414990859232176</v>
+          </cell>
+          <cell r="K8">
+            <v>0.192909280500521</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="M8">
+            <v>6.06</v>
+          </cell>
+          <cell r="N8">
+            <v>8.34</v>
+          </cell>
+          <cell r="O8">
+            <v>6.68</v>
+          </cell>
+          <cell r="P8">
+            <v>7.95</v>
+          </cell>
+          <cell r="Q8">
+            <v>7.31</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="X8" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Y8">
+            <v>0.368091762252346</v>
+          </cell>
+          <cell r="Z8">
+            <v>0.199040767386091</v>
+          </cell>
+          <cell r="AA8">
+            <v>0.0805031446540881</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AE8" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF8" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+          <cell r="AG8" t="str">
+            <v>略清晰</v>
+          </cell>
+          <cell r="AH8" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AI8">
+            <v>8.43</v>
+          </cell>
+          <cell r="AJ8">
+            <v>6.78</v>
+          </cell>
+          <cell r="AK8">
+            <v>1.65</v>
+          </cell>
+          <cell r="AL8">
+            <v>8.08</v>
+          </cell>
+          <cell r="AM8">
+            <v>7.66</v>
+          </cell>
+          <cell r="AN8">
+            <v>9.31</v>
+          </cell>
+          <cell r="AO8">
+            <v>42</v>
+          </cell>
+          <cell r="AP8">
+            <v>700</v>
+          </cell>
+          <cell r="AQ8">
+            <v>2.92857142857143</v>
+          </cell>
+          <cell r="AR8">
+            <v>0.051980198019802</v>
+          </cell>
+          <cell r="AS8">
+            <v>0.152227722772277</v>
+          </cell>
+          <cell r="AT8">
+            <v>32.3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -993,29 +1674,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P499"/>
+  <dimension ref="A1:Q499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="2" width="14.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="20.6785714285714" customWidth="1"/>
-    <col min="4" max="4" width="19.7857142857143" customWidth="1"/>
-    <col min="5" max="5" width="30.0625" customWidth="1"/>
-    <col min="6" max="6" width="40.4732142857143" customWidth="1"/>
-    <col min="7" max="7" width="25.4464285714286" customWidth="1"/>
-    <col min="8" max="8" width="28.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="30.0625" customWidth="1"/>
+    <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="16.2142857142857" customWidth="1"/>
+    <col min="3" max="4" width="20.6785714285714" customWidth="1"/>
+    <col min="5" max="5" width="23.3571428571429" customWidth="1"/>
+    <col min="6" max="6" width="30.0625" customWidth="1"/>
+    <col min="7" max="7" width="40.4732142857143" customWidth="1"/>
+    <col min="8" max="8" width="25.4464285714286" customWidth="1"/>
+    <col min="9" max="9" width="28.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="30.0625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" spans="1:16">
+    <row r="1" ht="36" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1024,37 +1706,48 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="2">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="3">
         <v>44523</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="1">
+        <v>32.53</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2/(1-VLOOKUP([1]入场指标!A5,[1]入场指标!A4:BL10000,44,FALSE))</f>
+        <v>34.12</v>
+      </c>
+      <c r="E2" s="5">
+        <f>D2+D2*VLOOKUP([1]入场指标!A5,[1]入场指标!A4:BL1000,44,FALSE)*2</f>
+        <v>37.3</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1066,9 +1759,10 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="2">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="3">
         <v>44524</v>
       </c>
       <c r="B3" s="1"/>
@@ -1086,9 +1780,10 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2">
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="3">
         <v>44525</v>
       </c>
       <c r="B4" s="1"/>
@@ -1106,9 +1801,10 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="2">
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="3">
         <v>44526</v>
       </c>
       <c r="B5" s="1"/>
@@ -1126,9 +1822,10 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="2">
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="3">
         <v>44527</v>
       </c>
       <c r="B6" s="1"/>
@@ -1146,9 +1843,10 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="2">
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="3">
         <v>44528</v>
       </c>
       <c r="B7" s="1"/>
@@ -1166,9 +1864,10 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="2">
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3">
         <v>44529</v>
       </c>
       <c r="B8" s="1"/>
@@ -1186,9 +1885,10 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="2">
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="3">
         <v>44530</v>
       </c>
       <c r="B9" s="1"/>
@@ -1206,9 +1906,10 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="2">
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="3">
         <v>44531</v>
       </c>
       <c r="B10" s="1"/>
@@ -1226,9 +1927,10 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="2">
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="3">
         <v>44532</v>
       </c>
       <c r="B11" s="1"/>
@@ -1246,9 +1948,10 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="2">
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="3">
         <v>44533</v>
       </c>
       <c r="B12" s="1"/>
@@ -1266,9 +1969,10 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="2">
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="3">
         <v>44534</v>
       </c>
       <c r="B13" s="1"/>
@@ -1286,9 +1990,10 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="2">
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="3">
         <v>44535</v>
       </c>
       <c r="B14" s="1"/>
@@ -1306,9 +2011,10 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="2">
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="3">
         <v>44536</v>
       </c>
       <c r="B15" s="1"/>
@@ -1326,9 +2032,10 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="2">
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="3">
         <v>44537</v>
       </c>
       <c r="B16" s="1"/>
@@ -1346,9 +2053,10 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="2">
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="3">
         <v>44538</v>
       </c>
       <c r="B17" s="1"/>
@@ -1366,9 +2074,10 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="2">
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="3">
         <v>44539</v>
       </c>
       <c r="B18" s="1"/>
@@ -1386,9 +2095,10 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="2">
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="3">
         <v>44540</v>
       </c>
       <c r="B19" s="1"/>
@@ -1406,9 +2116,10 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="2">
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="3">
         <v>44541</v>
       </c>
       <c r="B20" s="1"/>
@@ -1426,9 +2137,10 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="2">
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="3">
         <v>44542</v>
       </c>
       <c r="B21" s="1"/>
@@ -1446,9 +2158,10 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="2">
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="3">
         <v>44543</v>
       </c>
       <c r="B22" s="1"/>
@@ -1466,9 +2179,10 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="2">
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="3">
         <v>44544</v>
       </c>
       <c r="B23" s="1"/>
@@ -1486,9 +2200,10 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="2">
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="3">
         <v>44545</v>
       </c>
       <c r="B24" s="1"/>
@@ -1506,9 +2221,10 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="2">
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="3">
         <v>44546</v>
       </c>
       <c r="B25" s="1"/>
@@ -1526,9 +2242,10 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="2">
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="3">
         <v>44547</v>
       </c>
       <c r="B26" s="1"/>
@@ -1546,9 +2263,10 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="2">
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="3">
         <v>44548</v>
       </c>
       <c r="B27" s="1"/>
@@ -1566,9 +2284,10 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="2">
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="3">
         <v>44549</v>
       </c>
       <c r="B28" s="1"/>
@@ -1586,9 +2305,10 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="2">
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="3">
         <v>44550</v>
       </c>
       <c r="B29" s="1"/>
@@ -1606,9 +2326,10 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="2">
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="3">
         <v>44551</v>
       </c>
       <c r="B30" s="1"/>
@@ -1626,9 +2347,10 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="2">
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="3">
         <v>44552</v>
       </c>
       <c r="B31" s="1"/>
@@ -1646,9 +2368,10 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="2">
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="3">
         <v>44553</v>
       </c>
       <c r="B32" s="1"/>
@@ -1666,9 +2389,10 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="2">
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="3">
         <v>44554</v>
       </c>
       <c r="B33" s="1"/>
@@ -1686,9 +2410,10 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="2">
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="3">
         <v>44555</v>
       </c>
       <c r="B34" s="1"/>
@@ -1706,9 +2431,10 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="2">
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="3">
         <v>44556</v>
       </c>
       <c r="B35" s="1"/>
@@ -1726,9 +2452,10 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="2">
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="3">
         <v>44557</v>
       </c>
       <c r="B36" s="1"/>
@@ -1746,9 +2473,10 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="2">
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="3">
         <v>44558</v>
       </c>
       <c r="B37" s="1"/>
@@ -1766,8 +2494,9 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1784,8 +2513,9 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1802,8 +2532,9 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1820,8 +2551,9 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1838,8 +2570,9 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1856,8 +2589,9 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1874,8 +2608,9 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1892,8 +2627,9 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1910,8 +2646,9 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1928,8 +2665,9 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1946,8 +2684,9 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1964,8 +2703,9 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1982,8 +2722,9 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2000,8 +2741,9 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2018,8 +2760,9 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2036,8 +2779,9 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2054,8 +2798,9 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2072,8 +2817,9 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2090,8 +2836,9 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2108,8 +2855,9 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2126,8 +2874,9 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2144,8 +2893,9 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2162,8 +2912,9 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2180,8 +2931,9 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2198,8 +2950,9 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2216,8 +2969,9 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2234,8 +2988,9 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2252,8 +3007,9 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2270,8 +3026,9 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2288,8 +3045,9 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2306,8 +3064,9 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2324,8 +3083,9 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2342,8 +3102,9 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2360,8 +3121,9 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70" s="1"/>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2378,8 +3140,9 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71" s="1"/>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2396,8 +3159,9 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72" s="1"/>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2414,8 +3178,9 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73" s="1"/>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2432,8 +3197,9 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74" s="1"/>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2450,8 +3216,9 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75" s="1"/>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2468,8 +3235,9 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="Q76" s="1"/>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2486,8 +3254,9 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77" s="1"/>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2504,8 +3273,9 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q78" s="1"/>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2522,8 +3292,9 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="Q79" s="1"/>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2540,8 +3311,9 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="Q80" s="1"/>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2558,8 +3330,9 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2576,8 +3349,9 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="Q82" s="1"/>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2594,8 +3368,9 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="Q83" s="1"/>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2612,8 +3387,9 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="Q84" s="1"/>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2630,8 +3406,9 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="Q85" s="1"/>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2648,8 +3425,9 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="Q86" s="1"/>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2666,8 +3444,9 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="Q87" s="1"/>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2684,8 +3463,9 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="Q88" s="1"/>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2702,8 +3482,9 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="Q89" s="1"/>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2720,8 +3501,9 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="Q90" s="1"/>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2738,8 +3520,9 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="Q91" s="1"/>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2756,8 +3539,9 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="Q92" s="1"/>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2774,8 +3558,9 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="Q93" s="1"/>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2792,8 +3577,9 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="Q94" s="1"/>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2810,8 +3596,9 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="Q95" s="1"/>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2828,8 +3615,9 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="Q96" s="1"/>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2846,8 +3634,9 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="Q97" s="1"/>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2864,8 +3653,9 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
-    </row>
-    <row r="99" spans="1:16">
+      <c r="Q98" s="1"/>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2882,8 +3672,9 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
-    </row>
-    <row r="100" spans="1:16">
+      <c r="Q99" s="1"/>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2900,8 +3691,9 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
-    </row>
-    <row r="101" spans="1:16">
+      <c r="Q100" s="1"/>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2918,8 +3710,9 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
-    </row>
-    <row r="102" spans="1:16">
+      <c r="Q101" s="1"/>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2936,8 +3729,9 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="Q102" s="1"/>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2954,8 +3748,9 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="Q103" s="1"/>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2972,8 +3767,9 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
-    </row>
-    <row r="105" spans="1:16">
+      <c r="Q104" s="1"/>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2990,8 +3786,9 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
-    </row>
-    <row r="106" spans="1:16">
+      <c r="Q105" s="1"/>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3008,8 +3805,9 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
-    </row>
-    <row r="107" spans="1:16">
+      <c r="Q106" s="1"/>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3026,8 +3824,9 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
-    </row>
-    <row r="108" spans="1:16">
+      <c r="Q107" s="1"/>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3044,8 +3843,9 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
-    </row>
-    <row r="109" spans="1:16">
+      <c r="Q108" s="1"/>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3062,8 +3862,9 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
-    </row>
-    <row r="110" spans="1:16">
+      <c r="Q109" s="1"/>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3080,8 +3881,9 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
-    </row>
-    <row r="111" spans="1:16">
+      <c r="Q110" s="1"/>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3098,8 +3900,9 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
-    </row>
-    <row r="112" spans="1:16">
+      <c r="Q111" s="1"/>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3116,8 +3919,9 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
-    </row>
-    <row r="113" spans="1:16">
+      <c r="Q112" s="1"/>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3134,8 +3938,9 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
-    </row>
-    <row r="114" spans="1:16">
+      <c r="Q113" s="1"/>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3152,8 +3957,9 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
-    </row>
-    <row r="115" spans="1:16">
+      <c r="Q114" s="1"/>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3170,8 +3976,9 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
-    </row>
-    <row r="116" spans="1:16">
+      <c r="Q115" s="1"/>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3188,8 +3995,9 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
-    </row>
-    <row r="117" spans="1:16">
+      <c r="Q116" s="1"/>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3206,8 +4014,9 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
-    </row>
-    <row r="118" spans="1:16">
+      <c r="Q117" s="1"/>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3224,8 +4033,9 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
-    </row>
-    <row r="119" spans="1:16">
+      <c r="Q118" s="1"/>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3242,8 +4052,9 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
-    </row>
-    <row r="120" spans="1:16">
+      <c r="Q119" s="1"/>
+    </row>
+    <row r="120" spans="1:17">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3260,8 +4071,9 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
-    </row>
-    <row r="121" spans="1:16">
+      <c r="Q120" s="1"/>
+    </row>
+    <row r="121" spans="1:17">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3278,8 +4090,9 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
-    </row>
-    <row r="122" spans="1:16">
+      <c r="Q121" s="1"/>
+    </row>
+    <row r="122" spans="1:17">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3296,8 +4109,9 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
-    </row>
-    <row r="123" spans="1:16">
+      <c r="Q122" s="1"/>
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3314,8 +4128,9 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
-    </row>
-    <row r="124" spans="1:16">
+      <c r="Q123" s="1"/>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3332,8 +4147,9 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
-    </row>
-    <row r="125" spans="1:16">
+      <c r="Q124" s="1"/>
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3350,8 +4166,9 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
-    </row>
-    <row r="126" spans="1:16">
+      <c r="Q125" s="1"/>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3368,8 +4185,9 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
-    </row>
-    <row r="127" spans="1:16">
+      <c r="Q126" s="1"/>
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3386,8 +4204,9 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
-    </row>
-    <row r="128" spans="1:16">
+      <c r="Q127" s="1"/>
+    </row>
+    <row r="128" spans="1:17">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3404,8 +4223,9 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
-    </row>
-    <row r="129" spans="1:16">
+      <c r="Q128" s="1"/>
+    </row>
+    <row r="129" spans="1:17">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3422,8 +4242,9 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
-    </row>
-    <row r="130" spans="1:16">
+      <c r="Q129" s="1"/>
+    </row>
+    <row r="130" spans="1:17">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3440,8 +4261,9 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
-    </row>
-    <row r="131" spans="1:16">
+      <c r="Q130" s="1"/>
+    </row>
+    <row r="131" spans="1:17">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3458,8 +4280,9 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
-    </row>
-    <row r="132" spans="1:16">
+      <c r="Q131" s="1"/>
+    </row>
+    <row r="132" spans="1:17">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3476,8 +4299,9 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
-    </row>
-    <row r="133" spans="1:16">
+      <c r="Q132" s="1"/>
+    </row>
+    <row r="133" spans="1:17">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3494,8 +4318,9 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
-    </row>
-    <row r="134" spans="1:16">
+      <c r="Q133" s="1"/>
+    </row>
+    <row r="134" spans="1:17">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3512,8 +4337,9 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
-    </row>
-    <row r="135" spans="1:16">
+      <c r="Q134" s="1"/>
+    </row>
+    <row r="135" spans="1:17">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3530,8 +4356,9 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
-    </row>
-    <row r="136" spans="1:16">
+      <c r="Q135" s="1"/>
+    </row>
+    <row r="136" spans="1:17">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3548,8 +4375,9 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
-    </row>
-    <row r="137" spans="1:16">
+      <c r="Q136" s="1"/>
+    </row>
+    <row r="137" spans="1:17">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3566,8 +4394,9 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
-    </row>
-    <row r="138" spans="1:16">
+      <c r="Q137" s="1"/>
+    </row>
+    <row r="138" spans="1:17">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3584,8 +4413,9 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
-    </row>
-    <row r="139" spans="1:16">
+      <c r="Q138" s="1"/>
+    </row>
+    <row r="139" spans="1:17">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3602,8 +4432,9 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
-    </row>
-    <row r="140" spans="1:16">
+      <c r="Q139" s="1"/>
+    </row>
+    <row r="140" spans="1:17">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3620,8 +4451,9 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
-    </row>
-    <row r="141" spans="1:16">
+      <c r="Q140" s="1"/>
+    </row>
+    <row r="141" spans="1:17">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3638,8 +4470,9 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
-    </row>
-    <row r="142" spans="1:16">
+      <c r="Q141" s="1"/>
+    </row>
+    <row r="142" spans="1:17">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3656,8 +4489,9 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
-    </row>
-    <row r="143" spans="1:16">
+      <c r="Q142" s="1"/>
+    </row>
+    <row r="143" spans="1:17">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3674,8 +4508,9 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
-    </row>
-    <row r="144" spans="1:16">
+      <c r="Q143" s="1"/>
+    </row>
+    <row r="144" spans="1:17">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3692,8 +4527,9 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
-    </row>
-    <row r="145" spans="1:16">
+      <c r="Q144" s="1"/>
+    </row>
+    <row r="145" spans="1:17">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3710,8 +4546,9 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
-    </row>
-    <row r="146" spans="1:16">
+      <c r="Q145" s="1"/>
+    </row>
+    <row r="146" spans="1:17">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3728,8 +4565,9 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
-    </row>
-    <row r="147" spans="1:16">
+      <c r="Q146" s="1"/>
+    </row>
+    <row r="147" spans="1:17">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3746,8 +4584,9 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
-    </row>
-    <row r="148" spans="1:16">
+      <c r="Q147" s="1"/>
+    </row>
+    <row r="148" spans="1:17">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3764,8 +4603,9 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
-    </row>
-    <row r="149" spans="1:16">
+      <c r="Q148" s="1"/>
+    </row>
+    <row r="149" spans="1:17">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3782,8 +4622,9 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
-    </row>
-    <row r="150" spans="1:16">
+      <c r="Q149" s="1"/>
+    </row>
+    <row r="150" spans="1:17">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3800,8 +4641,9 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
-    </row>
-    <row r="151" spans="1:16">
+      <c r="Q150" s="1"/>
+    </row>
+    <row r="151" spans="1:17">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3818,8 +4660,9 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
-    </row>
-    <row r="152" spans="1:16">
+      <c r="Q151" s="1"/>
+    </row>
+    <row r="152" spans="1:17">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3836,8 +4679,9 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
-    </row>
-    <row r="153" spans="1:16">
+      <c r="Q152" s="1"/>
+    </row>
+    <row r="153" spans="1:17">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3854,8 +4698,9 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
-    </row>
-    <row r="154" spans="1:16">
+      <c r="Q153" s="1"/>
+    </row>
+    <row r="154" spans="1:17">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3872,8 +4717,9 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
-    </row>
-    <row r="155" spans="1:16">
+      <c r="Q154" s="1"/>
+    </row>
+    <row r="155" spans="1:17">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3890,8 +4736,9 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
-    </row>
-    <row r="156" spans="1:16">
+      <c r="Q155" s="1"/>
+    </row>
+    <row r="156" spans="1:17">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3908,8 +4755,9 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
-    </row>
-    <row r="157" spans="1:16">
+      <c r="Q156" s="1"/>
+    </row>
+    <row r="157" spans="1:17">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3926,8 +4774,9 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
-    </row>
-    <row r="158" spans="1:16">
+      <c r="Q157" s="1"/>
+    </row>
+    <row r="158" spans="1:17">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3944,8 +4793,9 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
-    </row>
-    <row r="159" spans="1:16">
+      <c r="Q158" s="1"/>
+    </row>
+    <row r="159" spans="1:17">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3962,8 +4812,9 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
-    </row>
-    <row r="160" spans="1:16">
+      <c r="Q159" s="1"/>
+    </row>
+    <row r="160" spans="1:17">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3980,8 +4831,9 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
-    </row>
-    <row r="161" spans="1:16">
+      <c r="Q160" s="1"/>
+    </row>
+    <row r="161" spans="1:17">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -3998,8 +4850,9 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
-    </row>
-    <row r="162" spans="1:16">
+      <c r="Q161" s="1"/>
+    </row>
+    <row r="162" spans="1:17">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4016,8 +4869,9 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
-    </row>
-    <row r="163" spans="1:16">
+      <c r="Q162" s="1"/>
+    </row>
+    <row r="163" spans="1:17">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4034,8 +4888,9 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
-    </row>
-    <row r="164" spans="1:16">
+      <c r="Q163" s="1"/>
+    </row>
+    <row r="164" spans="1:17">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4052,8 +4907,9 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
-    </row>
-    <row r="165" spans="1:16">
+      <c r="Q164" s="1"/>
+    </row>
+    <row r="165" spans="1:17">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4070,8 +4926,9 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
-    </row>
-    <row r="166" spans="1:16">
+      <c r="Q165" s="1"/>
+    </row>
+    <row r="166" spans="1:17">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4088,8 +4945,9 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
-    </row>
-    <row r="167" spans="1:16">
+      <c r="Q166" s="1"/>
+    </row>
+    <row r="167" spans="1:17">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4106,8 +4964,9 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
-    </row>
-    <row r="168" spans="1:16">
+      <c r="Q167" s="1"/>
+    </row>
+    <row r="168" spans="1:17">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4124,8 +4983,9 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
-    </row>
-    <row r="169" spans="1:16">
+      <c r="Q168" s="1"/>
+    </row>
+    <row r="169" spans="1:17">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4142,8 +5002,9 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
-    </row>
-    <row r="170" spans="1:16">
+      <c r="Q169" s="1"/>
+    </row>
+    <row r="170" spans="1:17">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4160,8 +5021,9 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
-    </row>
-    <row r="171" spans="1:16">
+      <c r="Q170" s="1"/>
+    </row>
+    <row r="171" spans="1:17">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4178,8 +5040,9 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
-    </row>
-    <row r="172" spans="1:16">
+      <c r="Q171" s="1"/>
+    </row>
+    <row r="172" spans="1:17">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4196,8 +5059,9 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
-    </row>
-    <row r="173" spans="1:16">
+      <c r="Q172" s="1"/>
+    </row>
+    <row r="173" spans="1:17">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4214,8 +5078,9 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
-    </row>
-    <row r="174" spans="1:16">
+      <c r="Q173" s="1"/>
+    </row>
+    <row r="174" spans="1:17">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4232,8 +5097,9 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
-    </row>
-    <row r="175" spans="1:16">
+      <c r="Q174" s="1"/>
+    </row>
+    <row r="175" spans="1:17">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4250,8 +5116,9 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
-    </row>
-    <row r="176" spans="1:16">
+      <c r="Q175" s="1"/>
+    </row>
+    <row r="176" spans="1:17">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4268,8 +5135,9 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
-    </row>
-    <row r="177" spans="1:16">
+      <c r="Q176" s="1"/>
+    </row>
+    <row r="177" spans="1:17">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4286,8 +5154,9 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
-    </row>
-    <row r="178" spans="1:16">
+      <c r="Q177" s="1"/>
+    </row>
+    <row r="178" spans="1:17">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4304,8 +5173,9 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
-    </row>
-    <row r="179" spans="1:16">
+      <c r="Q178" s="1"/>
+    </row>
+    <row r="179" spans="1:17">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4322,8 +5192,9 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
-    </row>
-    <row r="180" spans="1:16">
+      <c r="Q179" s="1"/>
+    </row>
+    <row r="180" spans="1:17">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4340,8 +5211,9 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
-    </row>
-    <row r="181" spans="1:16">
+      <c r="Q180" s="1"/>
+    </row>
+    <row r="181" spans="1:17">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4358,8 +5230,9 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
-    </row>
-    <row r="182" spans="1:16">
+      <c r="Q181" s="1"/>
+    </row>
+    <row r="182" spans="1:17">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4376,8 +5249,9 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
-    </row>
-    <row r="183" spans="1:16">
+      <c r="Q182" s="1"/>
+    </row>
+    <row r="183" spans="1:17">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4394,8 +5268,9 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
-    </row>
-    <row r="184" spans="1:16">
+      <c r="Q183" s="1"/>
+    </row>
+    <row r="184" spans="1:17">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4412,8 +5287,9 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
-    </row>
-    <row r="185" spans="1:16">
+      <c r="Q184" s="1"/>
+    </row>
+    <row r="185" spans="1:17">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4430,8 +5306,9 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
-    </row>
-    <row r="186" spans="1:16">
+      <c r="Q185" s="1"/>
+    </row>
+    <row r="186" spans="1:17">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4448,8 +5325,9 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
-    </row>
-    <row r="187" spans="1:16">
+      <c r="Q186" s="1"/>
+    </row>
+    <row r="187" spans="1:17">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4466,8 +5344,9 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
-    </row>
-    <row r="188" spans="1:16">
+      <c r="Q187" s="1"/>
+    </row>
+    <row r="188" spans="1:17">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4484,8 +5363,9 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
-    </row>
-    <row r="189" spans="1:16">
+      <c r="Q188" s="1"/>
+    </row>
+    <row r="189" spans="1:17">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4502,8 +5382,9 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
-    </row>
-    <row r="190" spans="1:16">
+      <c r="Q189" s="1"/>
+    </row>
+    <row r="190" spans="1:17">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4520,8 +5401,9 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
-    </row>
-    <row r="191" spans="1:16">
+      <c r="Q190" s="1"/>
+    </row>
+    <row r="191" spans="1:17">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4538,8 +5420,9 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
-    </row>
-    <row r="192" spans="1:16">
+      <c r="Q191" s="1"/>
+    </row>
+    <row r="192" spans="1:17">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4556,8 +5439,9 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
-    </row>
-    <row r="193" spans="1:16">
+      <c r="Q192" s="1"/>
+    </row>
+    <row r="193" spans="1:17">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4574,8 +5458,9 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
-    </row>
-    <row r="194" spans="1:16">
+      <c r="Q193" s="1"/>
+    </row>
+    <row r="194" spans="1:17">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -4592,8 +5477,9 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
-    </row>
-    <row r="195" spans="1:16">
+      <c r="Q194" s="1"/>
+    </row>
+    <row r="195" spans="1:17">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4610,8 +5496,9 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
-    </row>
-    <row r="196" spans="1:16">
+      <c r="Q195" s="1"/>
+    </row>
+    <row r="196" spans="1:17">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -4628,8 +5515,9 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
-    </row>
-    <row r="197" spans="1:16">
+      <c r="Q196" s="1"/>
+    </row>
+    <row r="197" spans="1:17">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -4646,8 +5534,9 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
-    </row>
-    <row r="198" spans="1:16">
+      <c r="Q197" s="1"/>
+    </row>
+    <row r="198" spans="1:17">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -4664,8 +5553,9 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
-    </row>
-    <row r="199" spans="1:16">
+      <c r="Q198" s="1"/>
+    </row>
+    <row r="199" spans="1:17">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -4682,8 +5572,9 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
-    </row>
-    <row r="200" spans="1:16">
+      <c r="Q199" s="1"/>
+    </row>
+    <row r="200" spans="1:17">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -4700,8 +5591,9 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
-    </row>
-    <row r="201" spans="1:16">
+      <c r="Q200" s="1"/>
+    </row>
+    <row r="201" spans="1:17">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -4718,8 +5610,9 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
-    </row>
-    <row r="202" spans="1:16">
+      <c r="Q201" s="1"/>
+    </row>
+    <row r="202" spans="1:17">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -4736,8 +5629,9 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
-    </row>
-    <row r="203" spans="1:16">
+      <c r="Q202" s="1"/>
+    </row>
+    <row r="203" spans="1:17">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -4754,8 +5648,9 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
-    </row>
-    <row r="204" spans="1:16">
+      <c r="Q203" s="1"/>
+    </row>
+    <row r="204" spans="1:17">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -4772,8 +5667,9 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
-    </row>
-    <row r="205" spans="1:16">
+      <c r="Q204" s="1"/>
+    </row>
+    <row r="205" spans="1:17">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -4790,8 +5686,9 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
-    </row>
-    <row r="206" spans="1:16">
+      <c r="Q205" s="1"/>
+    </row>
+    <row r="206" spans="1:17">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -4808,8 +5705,9 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
-    </row>
-    <row r="207" spans="1:16">
+      <c r="Q206" s="1"/>
+    </row>
+    <row r="207" spans="1:17">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -4826,8 +5724,9 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
-    </row>
-    <row r="208" spans="1:16">
+      <c r="Q207" s="1"/>
+    </row>
+    <row r="208" spans="1:17">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -4844,8 +5743,9 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
-    </row>
-    <row r="209" spans="1:16">
+      <c r="Q208" s="1"/>
+    </row>
+    <row r="209" spans="1:17">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -4862,8 +5762,9 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
-    </row>
-    <row r="210" spans="1:16">
+      <c r="Q209" s="1"/>
+    </row>
+    <row r="210" spans="1:17">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -4880,8 +5781,9 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
-    </row>
-    <row r="211" spans="1:16">
+      <c r="Q210" s="1"/>
+    </row>
+    <row r="211" spans="1:17">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -4898,8 +5800,9 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
-    </row>
-    <row r="212" spans="1:16">
+      <c r="Q211" s="1"/>
+    </row>
+    <row r="212" spans="1:17">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -4916,8 +5819,9 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
-    </row>
-    <row r="213" spans="1:16">
+      <c r="Q212" s="1"/>
+    </row>
+    <row r="213" spans="1:17">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -4934,8 +5838,9 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
-    </row>
-    <row r="214" spans="1:16">
+      <c r="Q213" s="1"/>
+    </row>
+    <row r="214" spans="1:17">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -4952,8 +5857,9 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
-    </row>
-    <row r="215" spans="1:16">
+      <c r="Q214" s="1"/>
+    </row>
+    <row r="215" spans="1:17">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -4970,8 +5876,9 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
-    </row>
-    <row r="216" spans="1:16">
+      <c r="Q215" s="1"/>
+    </row>
+    <row r="216" spans="1:17">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -4988,8 +5895,9 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
-    </row>
-    <row r="217" spans="1:16">
+      <c r="Q216" s="1"/>
+    </row>
+    <row r="217" spans="1:17">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -5006,8 +5914,9 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
-    </row>
-    <row r="218" spans="1:16">
+      <c r="Q217" s="1"/>
+    </row>
+    <row r="218" spans="1:17">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -5024,8 +5933,9 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
-    </row>
-    <row r="219" spans="1:16">
+      <c r="Q218" s="1"/>
+    </row>
+    <row r="219" spans="1:17">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -5042,8 +5952,9 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
-    </row>
-    <row r="220" spans="1:16">
+      <c r="Q219" s="1"/>
+    </row>
+    <row r="220" spans="1:17">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -5060,8 +5971,9 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
-    </row>
-    <row r="221" spans="1:16">
+      <c r="Q220" s="1"/>
+    </row>
+    <row r="221" spans="1:17">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -5078,8 +5990,9 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
-    </row>
-    <row r="222" spans="1:16">
+      <c r="Q221" s="1"/>
+    </row>
+    <row r="222" spans="1:17">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -5096,8 +6009,9 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
-    </row>
-    <row r="223" spans="1:16">
+      <c r="Q222" s="1"/>
+    </row>
+    <row r="223" spans="1:17">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -5114,8 +6028,9 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
-    </row>
-    <row r="224" spans="1:16">
+      <c r="Q223" s="1"/>
+    </row>
+    <row r="224" spans="1:17">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -5132,8 +6047,9 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
-    </row>
-    <row r="225" spans="1:16">
+      <c r="Q224" s="1"/>
+    </row>
+    <row r="225" spans="1:17">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -5150,8 +6066,9 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
-    </row>
-    <row r="226" spans="1:16">
+      <c r="Q225" s="1"/>
+    </row>
+    <row r="226" spans="1:17">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -5168,8 +6085,9 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
-    </row>
-    <row r="227" spans="1:16">
+      <c r="Q226" s="1"/>
+    </row>
+    <row r="227" spans="1:17">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -5186,8 +6104,9 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
-    </row>
-    <row r="228" spans="1:16">
+      <c r="Q227" s="1"/>
+    </row>
+    <row r="228" spans="1:17">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -5204,8 +6123,9 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
-    </row>
-    <row r="229" spans="1:16">
+      <c r="Q228" s="1"/>
+    </row>
+    <row r="229" spans="1:17">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -5222,8 +6142,9 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
-    </row>
-    <row r="230" spans="1:16">
+      <c r="Q229" s="1"/>
+    </row>
+    <row r="230" spans="1:17">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -5240,8 +6161,9 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
-    </row>
-    <row r="231" spans="1:16">
+      <c r="Q230" s="1"/>
+    </row>
+    <row r="231" spans="1:17">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -5258,8 +6180,9 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
-    </row>
-    <row r="232" spans="1:16">
+      <c r="Q231" s="1"/>
+    </row>
+    <row r="232" spans="1:17">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -5276,8 +6199,9 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
-    </row>
-    <row r="233" spans="1:16">
+      <c r="Q232" s="1"/>
+    </row>
+    <row r="233" spans="1:17">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -5294,8 +6218,9 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
-    </row>
-    <row r="234" spans="1:16">
+      <c r="Q233" s="1"/>
+    </row>
+    <row r="234" spans="1:17">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -5312,8 +6237,9 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
-    </row>
-    <row r="235" spans="1:16">
+      <c r="Q234" s="1"/>
+    </row>
+    <row r="235" spans="1:17">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -5330,8 +6256,9 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
-    </row>
-    <row r="236" spans="1:16">
+      <c r="Q235" s="1"/>
+    </row>
+    <row r="236" spans="1:17">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -5348,8 +6275,9 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
-    </row>
-    <row r="237" spans="1:16">
+      <c r="Q236" s="1"/>
+    </row>
+    <row r="237" spans="1:17">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -5366,8 +6294,9 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
-    </row>
-    <row r="238" spans="1:16">
+      <c r="Q237" s="1"/>
+    </row>
+    <row r="238" spans="1:17">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -5384,8 +6313,9 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
-    </row>
-    <row r="239" spans="1:16">
+      <c r="Q238" s="1"/>
+    </row>
+    <row r="239" spans="1:17">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -5402,8 +6332,9 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
-    </row>
-    <row r="240" spans="1:16">
+      <c r="Q239" s="1"/>
+    </row>
+    <row r="240" spans="1:17">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -5420,8 +6351,9 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
-    </row>
-    <row r="241" spans="1:16">
+      <c r="Q240" s="1"/>
+    </row>
+    <row r="241" spans="1:17">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -5438,8 +6370,9 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
-    </row>
-    <row r="242" spans="1:16">
+      <c r="Q241" s="1"/>
+    </row>
+    <row r="242" spans="1:17">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -5456,8 +6389,9 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
-    </row>
-    <row r="243" spans="1:16">
+      <c r="Q242" s="1"/>
+    </row>
+    <row r="243" spans="1:17">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -5474,8 +6408,9 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
-    </row>
-    <row r="244" spans="1:16">
+      <c r="Q243" s="1"/>
+    </row>
+    <row r="244" spans="1:17">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -5492,8 +6427,9 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
-    </row>
-    <row r="245" spans="1:16">
+      <c r="Q244" s="1"/>
+    </row>
+    <row r="245" spans="1:17">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -5510,8 +6446,9 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
-    </row>
-    <row r="246" spans="1:16">
+      <c r="Q245" s="1"/>
+    </row>
+    <row r="246" spans="1:17">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -5528,8 +6465,9 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
-    </row>
-    <row r="247" spans="1:16">
+      <c r="Q246" s="1"/>
+    </row>
+    <row r="247" spans="1:17">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -5546,8 +6484,9 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
-    </row>
-    <row r="248" spans="1:16">
+      <c r="Q247" s="1"/>
+    </row>
+    <row r="248" spans="1:17">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -5564,8 +6503,9 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
-    </row>
-    <row r="249" spans="1:16">
+      <c r="Q248" s="1"/>
+    </row>
+    <row r="249" spans="1:17">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -5582,8 +6522,9 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
-    </row>
-    <row r="250" spans="1:16">
+      <c r="Q249" s="1"/>
+    </row>
+    <row r="250" spans="1:17">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -5600,8 +6541,9 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
-    </row>
-    <row r="251" spans="1:16">
+      <c r="Q250" s="1"/>
+    </row>
+    <row r="251" spans="1:17">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -5618,8 +6560,9 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
-    </row>
-    <row r="252" spans="1:16">
+      <c r="Q251" s="1"/>
+    </row>
+    <row r="252" spans="1:17">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -5636,8 +6579,9 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
-    </row>
-    <row r="253" spans="1:16">
+      <c r="Q252" s="1"/>
+    </row>
+    <row r="253" spans="1:17">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -5654,8 +6598,9 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
-    </row>
-    <row r="254" spans="1:16">
+      <c r="Q253" s="1"/>
+    </row>
+    <row r="254" spans="1:17">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -5672,8 +6617,9 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
-    </row>
-    <row r="255" spans="1:16">
+      <c r="Q254" s="1"/>
+    </row>
+    <row r="255" spans="1:17">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -5690,8 +6636,9 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
-    </row>
-    <row r="256" spans="1:16">
+      <c r="Q255" s="1"/>
+    </row>
+    <row r="256" spans="1:17">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -5708,8 +6655,9 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
-    </row>
-    <row r="257" spans="1:16">
+      <c r="Q256" s="1"/>
+    </row>
+    <row r="257" spans="1:17">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -5726,8 +6674,9 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
-    </row>
-    <row r="258" spans="1:16">
+      <c r="Q257" s="1"/>
+    </row>
+    <row r="258" spans="1:17">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -5744,8 +6693,9 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
-    </row>
-    <row r="259" spans="1:16">
+      <c r="Q258" s="1"/>
+    </row>
+    <row r="259" spans="1:17">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -5762,8 +6712,9 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
-    </row>
-    <row r="260" spans="1:16">
+      <c r="Q259" s="1"/>
+    </row>
+    <row r="260" spans="1:17">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -5780,8 +6731,9 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
-    </row>
-    <row r="261" spans="1:16">
+      <c r="Q260" s="1"/>
+    </row>
+    <row r="261" spans="1:17">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -5798,8 +6750,9 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
-    </row>
-    <row r="262" spans="1:16">
+      <c r="Q261" s="1"/>
+    </row>
+    <row r="262" spans="1:17">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -5816,8 +6769,9 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
-    </row>
-    <row r="263" spans="1:16">
+      <c r="Q262" s="1"/>
+    </row>
+    <row r="263" spans="1:17">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -5834,8 +6788,9 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
-    </row>
-    <row r="264" spans="1:16">
+      <c r="Q263" s="1"/>
+    </row>
+    <row r="264" spans="1:17">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -5852,8 +6807,9 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
-    </row>
-    <row r="265" spans="1:16">
+      <c r="Q264" s="1"/>
+    </row>
+    <row r="265" spans="1:17">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -5870,8 +6826,9 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
-    </row>
-    <row r="266" spans="1:16">
+      <c r="Q265" s="1"/>
+    </row>
+    <row r="266" spans="1:17">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -5888,8 +6845,9 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
-    </row>
-    <row r="267" spans="1:16">
+      <c r="Q266" s="1"/>
+    </row>
+    <row r="267" spans="1:17">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -5906,8 +6864,9 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
-    </row>
-    <row r="268" spans="1:16">
+      <c r="Q267" s="1"/>
+    </row>
+    <row r="268" spans="1:17">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -5924,8 +6883,9 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
-    </row>
-    <row r="269" spans="1:16">
+      <c r="Q268" s="1"/>
+    </row>
+    <row r="269" spans="1:17">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -5942,8 +6902,9 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
-    </row>
-    <row r="270" spans="1:16">
+      <c r="Q269" s="1"/>
+    </row>
+    <row r="270" spans="1:17">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -5960,8 +6921,9 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
-    </row>
-    <row r="271" spans="1:16">
+      <c r="Q270" s="1"/>
+    </row>
+    <row r="271" spans="1:17">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -5978,8 +6940,9 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
       <c r="P271" s="1"/>
-    </row>
-    <row r="272" spans="1:16">
+      <c r="Q271" s="1"/>
+    </row>
+    <row r="272" spans="1:17">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -5996,8 +6959,9 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
       <c r="P272" s="1"/>
-    </row>
-    <row r="273" spans="1:16">
+      <c r="Q272" s="1"/>
+    </row>
+    <row r="273" spans="1:17">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -6014,8 +6978,9 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
-    </row>
-    <row r="274" spans="1:16">
+      <c r="Q273" s="1"/>
+    </row>
+    <row r="274" spans="1:17">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -6032,8 +6997,9 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
       <c r="P274" s="1"/>
-    </row>
-    <row r="275" spans="1:16">
+      <c r="Q274" s="1"/>
+    </row>
+    <row r="275" spans="1:17">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -6050,8 +7016,9 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
       <c r="P275" s="1"/>
-    </row>
-    <row r="276" spans="1:16">
+      <c r="Q275" s="1"/>
+    </row>
+    <row r="276" spans="1:17">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -6068,8 +7035,9 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
       <c r="P276" s="1"/>
-    </row>
-    <row r="277" spans="1:16">
+      <c r="Q276" s="1"/>
+    </row>
+    <row r="277" spans="1:17">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -6086,8 +7054,9 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
-    </row>
-    <row r="278" spans="1:16">
+      <c r="Q277" s="1"/>
+    </row>
+    <row r="278" spans="1:17">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -6104,8 +7073,9 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
       <c r="P278" s="1"/>
-    </row>
-    <row r="279" spans="1:16">
+      <c r="Q278" s="1"/>
+    </row>
+    <row r="279" spans="1:17">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -6122,8 +7092,9 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
-    </row>
-    <row r="280" spans="1:16">
+      <c r="Q279" s="1"/>
+    </row>
+    <row r="280" spans="1:17">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -6140,8 +7111,9 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
-    </row>
-    <row r="281" spans="1:16">
+      <c r="Q280" s="1"/>
+    </row>
+    <row r="281" spans="1:17">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -6158,8 +7130,9 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>
-    </row>
-    <row r="282" spans="1:16">
+      <c r="Q281" s="1"/>
+    </row>
+    <row r="282" spans="1:17">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -6176,8 +7149,9 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
-    </row>
-    <row r="283" spans="1:16">
+      <c r="Q282" s="1"/>
+    </row>
+    <row r="283" spans="1:17">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -6194,8 +7168,9 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
       <c r="P283" s="1"/>
-    </row>
-    <row r="284" spans="1:16">
+      <c r="Q283" s="1"/>
+    </row>
+    <row r="284" spans="1:17">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -6212,8 +7187,9 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
       <c r="P284" s="1"/>
-    </row>
-    <row r="285" spans="1:16">
+      <c r="Q284" s="1"/>
+    </row>
+    <row r="285" spans="1:17">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -6230,8 +7206,9 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
       <c r="P285" s="1"/>
-    </row>
-    <row r="286" spans="1:16">
+      <c r="Q285" s="1"/>
+    </row>
+    <row r="286" spans="1:17">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -6248,8 +7225,9 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
       <c r="P286" s="1"/>
-    </row>
-    <row r="287" spans="1:16">
+      <c r="Q286" s="1"/>
+    </row>
+    <row r="287" spans="1:17">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -6266,8 +7244,9 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
-    </row>
-    <row r="288" spans="1:16">
+      <c r="Q287" s="1"/>
+    </row>
+    <row r="288" spans="1:17">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -6284,8 +7263,9 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
-    </row>
-    <row r="289" spans="1:16">
+      <c r="Q288" s="1"/>
+    </row>
+    <row r="289" spans="1:17">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -6302,8 +7282,9 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
-    </row>
-    <row r="290" spans="1:16">
+      <c r="Q289" s="1"/>
+    </row>
+    <row r="290" spans="1:17">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -6320,8 +7301,9 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
-    </row>
-    <row r="291" spans="1:16">
+      <c r="Q290" s="1"/>
+    </row>
+    <row r="291" spans="1:17">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -6338,8 +7320,9 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
-    </row>
-    <row r="292" spans="1:16">
+      <c r="Q291" s="1"/>
+    </row>
+    <row r="292" spans="1:17">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -6356,8 +7339,9 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
-    </row>
-    <row r="293" spans="1:16">
+      <c r="Q292" s="1"/>
+    </row>
+    <row r="293" spans="1:17">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -6374,8 +7358,9 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
       <c r="P293" s="1"/>
-    </row>
-    <row r="294" spans="1:16">
+      <c r="Q293" s="1"/>
+    </row>
+    <row r="294" spans="1:17">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -6392,8 +7377,9 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
       <c r="P294" s="1"/>
-    </row>
-    <row r="295" spans="1:16">
+      <c r="Q294" s="1"/>
+    </row>
+    <row r="295" spans="1:17">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -6410,8 +7396,9 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
       <c r="P295" s="1"/>
-    </row>
-    <row r="296" spans="1:16">
+      <c r="Q295" s="1"/>
+    </row>
+    <row r="296" spans="1:17">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -6428,8 +7415,9 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
-    </row>
-    <row r="297" spans="1:16">
+      <c r="Q296" s="1"/>
+    </row>
+    <row r="297" spans="1:17">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -6446,8 +7434,9 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
-    </row>
-    <row r="298" spans="1:16">
+      <c r="Q297" s="1"/>
+    </row>
+    <row r="298" spans="1:17">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -6464,8 +7453,9 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
       <c r="P298" s="1"/>
-    </row>
-    <row r="299" spans="1:16">
+      <c r="Q298" s="1"/>
+    </row>
+    <row r="299" spans="1:17">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -6482,8 +7472,9 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
-    </row>
-    <row r="300" spans="1:16">
+      <c r="Q299" s="1"/>
+    </row>
+    <row r="300" spans="1:17">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -6500,8 +7491,9 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
-    </row>
-    <row r="301" spans="1:16">
+      <c r="Q300" s="1"/>
+    </row>
+    <row r="301" spans="1:17">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -6518,8 +7510,9 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
       <c r="P301" s="1"/>
-    </row>
-    <row r="302" spans="1:16">
+      <c r="Q301" s="1"/>
+    </row>
+    <row r="302" spans="1:17">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -6536,8 +7529,9 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
-    </row>
-    <row r="303" spans="1:16">
+      <c r="Q302" s="1"/>
+    </row>
+    <row r="303" spans="1:17">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -6554,8 +7548,9 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
-    </row>
-    <row r="304" spans="1:16">
+      <c r="Q303" s="1"/>
+    </row>
+    <row r="304" spans="1:17">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -6572,8 +7567,9 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
-    </row>
-    <row r="305" spans="1:16">
+      <c r="Q304" s="1"/>
+    </row>
+    <row r="305" spans="1:17">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -6590,8 +7586,9 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
-    </row>
-    <row r="306" spans="1:16">
+      <c r="Q305" s="1"/>
+    </row>
+    <row r="306" spans="1:17">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -6608,8 +7605,9 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
-    </row>
-    <row r="307" spans="1:16">
+      <c r="Q306" s="1"/>
+    </row>
+    <row r="307" spans="1:17">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -6626,8 +7624,9 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
-    </row>
-    <row r="308" spans="1:16">
+      <c r="Q307" s="1"/>
+    </row>
+    <row r="308" spans="1:17">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -6644,8 +7643,9 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
-    </row>
-    <row r="309" spans="1:16">
+      <c r="Q308" s="1"/>
+    </row>
+    <row r="309" spans="1:17">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -6662,8 +7662,9 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
-    </row>
-    <row r="310" spans="1:16">
+      <c r="Q309" s="1"/>
+    </row>
+    <row r="310" spans="1:17">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -6680,8 +7681,9 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
       <c r="P310" s="1"/>
-    </row>
-    <row r="311" spans="1:16">
+      <c r="Q310" s="1"/>
+    </row>
+    <row r="311" spans="1:17">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -6698,8 +7700,9 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
       <c r="P311" s="1"/>
-    </row>
-    <row r="312" spans="1:16">
+      <c r="Q311" s="1"/>
+    </row>
+    <row r="312" spans="1:17">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -6716,8 +7719,9 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
       <c r="P312" s="1"/>
-    </row>
-    <row r="313" spans="1:16">
+      <c r="Q312" s="1"/>
+    </row>
+    <row r="313" spans="1:17">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -6734,8 +7738,9 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
       <c r="P313" s="1"/>
-    </row>
-    <row r="314" spans="1:16">
+      <c r="Q313" s="1"/>
+    </row>
+    <row r="314" spans="1:17">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -6752,8 +7757,9 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
       <c r="P314" s="1"/>
-    </row>
-    <row r="315" spans="1:16">
+      <c r="Q314" s="1"/>
+    </row>
+    <row r="315" spans="1:17">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -6770,8 +7776,9 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
-    </row>
-    <row r="316" spans="1:16">
+      <c r="Q315" s="1"/>
+    </row>
+    <row r="316" spans="1:17">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -6788,8 +7795,9 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
-    </row>
-    <row r="317" spans="1:16">
+      <c r="Q316" s="1"/>
+    </row>
+    <row r="317" spans="1:17">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -6806,8 +7814,9 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
-    </row>
-    <row r="318" spans="1:16">
+      <c r="Q317" s="1"/>
+    </row>
+    <row r="318" spans="1:17">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -6824,8 +7833,9 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
-    </row>
-    <row r="319" spans="1:16">
+      <c r="Q318" s="1"/>
+    </row>
+    <row r="319" spans="1:17">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -6842,8 +7852,9 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
-    </row>
-    <row r="320" spans="1:16">
+      <c r="Q319" s="1"/>
+    </row>
+    <row r="320" spans="1:17">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -6860,8 +7871,9 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
-    </row>
-    <row r="321" spans="1:16">
+      <c r="Q320" s="1"/>
+    </row>
+    <row r="321" spans="1:17">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -6878,8 +7890,9 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
-    </row>
-    <row r="322" spans="1:16">
+      <c r="Q321" s="1"/>
+    </row>
+    <row r="322" spans="1:17">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -6896,8 +7909,9 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
-    </row>
-    <row r="323" spans="1:16">
+      <c r="Q322" s="1"/>
+    </row>
+    <row r="323" spans="1:17">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -6914,8 +7928,9 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
       <c r="P323" s="1"/>
-    </row>
-    <row r="324" spans="1:16">
+      <c r="Q323" s="1"/>
+    </row>
+    <row r="324" spans="1:17">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -6932,8 +7947,9 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
       <c r="P324" s="1"/>
-    </row>
-    <row r="325" spans="1:16">
+      <c r="Q324" s="1"/>
+    </row>
+    <row r="325" spans="1:17">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -6950,8 +7966,9 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
-    </row>
-    <row r="326" spans="1:16">
+      <c r="Q325" s="1"/>
+    </row>
+    <row r="326" spans="1:17">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -6968,8 +7985,9 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
       <c r="P326" s="1"/>
-    </row>
-    <row r="327" spans="1:16">
+      <c r="Q326" s="1"/>
+    </row>
+    <row r="327" spans="1:17">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -6986,8 +8004,9 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
       <c r="P327" s="1"/>
-    </row>
-    <row r="328" spans="1:16">
+      <c r="Q327" s="1"/>
+    </row>
+    <row r="328" spans="1:17">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -7004,8 +8023,9 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
       <c r="P328" s="1"/>
-    </row>
-    <row r="329" spans="1:16">
+      <c r="Q328" s="1"/>
+    </row>
+    <row r="329" spans="1:17">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -7022,8 +8042,9 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
       <c r="P329" s="1"/>
-    </row>
-    <row r="330" spans="1:16">
+      <c r="Q329" s="1"/>
+    </row>
+    <row r="330" spans="1:17">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -7040,8 +8061,9 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
       <c r="P330" s="1"/>
-    </row>
-    <row r="331" spans="1:16">
+      <c r="Q330" s="1"/>
+    </row>
+    <row r="331" spans="1:17">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -7058,8 +8080,9 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
       <c r="P331" s="1"/>
-    </row>
-    <row r="332" spans="1:16">
+      <c r="Q331" s="1"/>
+    </row>
+    <row r="332" spans="1:17">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -7076,8 +8099,9 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
-    </row>
-    <row r="333" spans="1:16">
+      <c r="Q332" s="1"/>
+    </row>
+    <row r="333" spans="1:17">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -7094,8 +8118,9 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
       <c r="P333" s="1"/>
-    </row>
-    <row r="334" spans="1:16">
+      <c r="Q333" s="1"/>
+    </row>
+    <row r="334" spans="1:17">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -7112,8 +8137,9 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
       <c r="P334" s="1"/>
-    </row>
-    <row r="335" spans="1:16">
+      <c r="Q334" s="1"/>
+    </row>
+    <row r="335" spans="1:17">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -7130,8 +8156,9 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
       <c r="P335" s="1"/>
-    </row>
-    <row r="336" spans="1:16">
+      <c r="Q335" s="1"/>
+    </row>
+    <row r="336" spans="1:17">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -7148,8 +8175,9 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
       <c r="P336" s="1"/>
-    </row>
-    <row r="337" spans="1:16">
+      <c r="Q336" s="1"/>
+    </row>
+    <row r="337" spans="1:17">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -7166,8 +8194,9 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
       <c r="P337" s="1"/>
-    </row>
-    <row r="338" spans="1:16">
+      <c r="Q337" s="1"/>
+    </row>
+    <row r="338" spans="1:17">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -7184,8 +8213,9 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
       <c r="P338" s="1"/>
-    </row>
-    <row r="339" spans="1:16">
+      <c r="Q338" s="1"/>
+    </row>
+    <row r="339" spans="1:17">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -7202,8 +8232,9 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
       <c r="P339" s="1"/>
-    </row>
-    <row r="340" spans="1:16">
+      <c r="Q339" s="1"/>
+    </row>
+    <row r="340" spans="1:17">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -7220,8 +8251,9 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
       <c r="P340" s="1"/>
-    </row>
-    <row r="341" spans="1:16">
+      <c r="Q340" s="1"/>
+    </row>
+    <row r="341" spans="1:17">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -7238,8 +8270,9 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
       <c r="P341" s="1"/>
-    </row>
-    <row r="342" spans="1:16">
+      <c r="Q341" s="1"/>
+    </row>
+    <row r="342" spans="1:17">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -7256,8 +8289,9 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
-    </row>
-    <row r="343" spans="1:16">
+      <c r="Q342" s="1"/>
+    </row>
+    <row r="343" spans="1:17">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -7274,8 +8308,9 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
-    </row>
-    <row r="344" spans="1:16">
+      <c r="Q343" s="1"/>
+    </row>
+    <row r="344" spans="1:17">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -7292,8 +8327,9 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
       <c r="P344" s="1"/>
-    </row>
-    <row r="345" spans="1:16">
+      <c r="Q344" s="1"/>
+    </row>
+    <row r="345" spans="1:17">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -7310,8 +8346,9 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
       <c r="P345" s="1"/>
-    </row>
-    <row r="346" spans="1:16">
+      <c r="Q345" s="1"/>
+    </row>
+    <row r="346" spans="1:17">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -7328,8 +8365,9 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
-    </row>
-    <row r="347" spans="1:16">
+      <c r="Q346" s="1"/>
+    </row>
+    <row r="347" spans="1:17">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -7346,8 +8384,9 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
-    </row>
-    <row r="348" spans="1:16">
+      <c r="Q347" s="1"/>
+    </row>
+    <row r="348" spans="1:17">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -7364,8 +8403,9 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
-    </row>
-    <row r="349" spans="1:16">
+      <c r="Q348" s="1"/>
+    </row>
+    <row r="349" spans="1:17">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -7382,8 +8422,9 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
-    </row>
-    <row r="350" spans="1:16">
+      <c r="Q349" s="1"/>
+    </row>
+    <row r="350" spans="1:17">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -7400,8 +8441,9 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
-    </row>
-    <row r="351" spans="1:16">
+      <c r="Q350" s="1"/>
+    </row>
+    <row r="351" spans="1:17">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -7418,8 +8460,9 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
       <c r="P351" s="1"/>
-    </row>
-    <row r="352" spans="1:16">
+      <c r="Q351" s="1"/>
+    </row>
+    <row r="352" spans="1:17">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -7436,8 +8479,9 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
-    </row>
-    <row r="353" spans="1:16">
+      <c r="Q352" s="1"/>
+    </row>
+    <row r="353" spans="1:17">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -7454,8 +8498,9 @@
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
       <c r="P353" s="1"/>
-    </row>
-    <row r="354" spans="1:16">
+      <c r="Q353" s="1"/>
+    </row>
+    <row r="354" spans="1:17">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -7472,8 +8517,9 @@
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
       <c r="P354" s="1"/>
-    </row>
-    <row r="355" spans="1:16">
+      <c r="Q354" s="1"/>
+    </row>
+    <row r="355" spans="1:17">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -7490,8 +8536,9 @@
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
-    </row>
-    <row r="356" spans="1:16">
+      <c r="Q355" s="1"/>
+    </row>
+    <row r="356" spans="1:17">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -7508,8 +8555,9 @@
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
       <c r="P356" s="1"/>
-    </row>
-    <row r="357" spans="1:16">
+      <c r="Q356" s="1"/>
+    </row>
+    <row r="357" spans="1:17">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -7526,8 +8574,9 @@
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
       <c r="P357" s="1"/>
-    </row>
-    <row r="358" spans="1:16">
+      <c r="Q357" s="1"/>
+    </row>
+    <row r="358" spans="1:17">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -7544,8 +8593,9 @@
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
       <c r="P358" s="1"/>
-    </row>
-    <row r="359" spans="1:16">
+      <c r="Q358" s="1"/>
+    </row>
+    <row r="359" spans="1:17">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -7562,8 +8612,9 @@
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
       <c r="P359" s="1"/>
-    </row>
-    <row r="360" spans="1:16">
+      <c r="Q359" s="1"/>
+    </row>
+    <row r="360" spans="1:17">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -7580,8 +8631,9 @@
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
       <c r="P360" s="1"/>
-    </row>
-    <row r="361" spans="1:16">
+      <c r="Q360" s="1"/>
+    </row>
+    <row r="361" spans="1:17">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -7598,8 +8650,9 @@
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
       <c r="P361" s="1"/>
-    </row>
-    <row r="362" spans="1:16">
+      <c r="Q361" s="1"/>
+    </row>
+    <row r="362" spans="1:17">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -7616,8 +8669,9 @@
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
       <c r="P362" s="1"/>
-    </row>
-    <row r="363" spans="1:16">
+      <c r="Q362" s="1"/>
+    </row>
+    <row r="363" spans="1:17">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -7634,8 +8688,9 @@
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
       <c r="P363" s="1"/>
-    </row>
-    <row r="364" spans="1:16">
+      <c r="Q363" s="1"/>
+    </row>
+    <row r="364" spans="1:17">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -7652,8 +8707,9 @@
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
       <c r="P364" s="1"/>
-    </row>
-    <row r="365" spans="1:16">
+      <c r="Q364" s="1"/>
+    </row>
+    <row r="365" spans="1:17">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -7670,8 +8726,9 @@
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
       <c r="P365" s="1"/>
-    </row>
-    <row r="366" spans="1:16">
+      <c r="Q365" s="1"/>
+    </row>
+    <row r="366" spans="1:17">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -7688,8 +8745,9 @@
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
       <c r="P366" s="1"/>
-    </row>
-    <row r="367" spans="1:16">
+      <c r="Q366" s="1"/>
+    </row>
+    <row r="367" spans="1:17">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -7706,8 +8764,9 @@
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
       <c r="P367" s="1"/>
-    </row>
-    <row r="368" spans="1:16">
+      <c r="Q367" s="1"/>
+    </row>
+    <row r="368" spans="1:17">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -7724,8 +8783,9 @@
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
       <c r="P368" s="1"/>
-    </row>
-    <row r="369" spans="1:16">
+      <c r="Q368" s="1"/>
+    </row>
+    <row r="369" spans="1:17">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -7742,8 +8802,9 @@
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
       <c r="P369" s="1"/>
-    </row>
-    <row r="370" spans="1:16">
+      <c r="Q369" s="1"/>
+    </row>
+    <row r="370" spans="1:17">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -7760,8 +8821,9 @@
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
       <c r="P370" s="1"/>
-    </row>
-    <row r="371" spans="1:16">
+      <c r="Q370" s="1"/>
+    </row>
+    <row r="371" spans="1:17">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -7778,8 +8840,9 @@
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
       <c r="P371" s="1"/>
-    </row>
-    <row r="372" spans="1:16">
+      <c r="Q371" s="1"/>
+    </row>
+    <row r="372" spans="1:17">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -7796,8 +8859,9 @@
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
       <c r="P372" s="1"/>
-    </row>
-    <row r="373" spans="1:16">
+      <c r="Q372" s="1"/>
+    </row>
+    <row r="373" spans="1:17">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -7814,8 +8878,9 @@
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
       <c r="P373" s="1"/>
-    </row>
-    <row r="374" spans="1:16">
+      <c r="Q373" s="1"/>
+    </row>
+    <row r="374" spans="1:17">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -7832,8 +8897,9 @@
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
       <c r="P374" s="1"/>
-    </row>
-    <row r="375" spans="1:16">
+      <c r="Q374" s="1"/>
+    </row>
+    <row r="375" spans="1:17">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -7850,8 +8916,9 @@
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
       <c r="P375" s="1"/>
-    </row>
-    <row r="376" spans="1:16">
+      <c r="Q375" s="1"/>
+    </row>
+    <row r="376" spans="1:17">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -7868,8 +8935,9 @@
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
       <c r="P376" s="1"/>
-    </row>
-    <row r="377" spans="1:16">
+      <c r="Q376" s="1"/>
+    </row>
+    <row r="377" spans="1:17">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -7886,8 +8954,9 @@
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
       <c r="P377" s="1"/>
-    </row>
-    <row r="378" spans="1:16">
+      <c r="Q377" s="1"/>
+    </row>
+    <row r="378" spans="1:17">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -7904,8 +8973,9 @@
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
       <c r="P378" s="1"/>
-    </row>
-    <row r="379" spans="1:16">
+      <c r="Q378" s="1"/>
+    </row>
+    <row r="379" spans="1:17">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -7922,8 +8992,9 @@
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
       <c r="P379" s="1"/>
-    </row>
-    <row r="380" spans="1:16">
+      <c r="Q379" s="1"/>
+    </row>
+    <row r="380" spans="1:17">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -7940,8 +9011,9 @@
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
       <c r="P380" s="1"/>
-    </row>
-    <row r="381" spans="1:16">
+      <c r="Q380" s="1"/>
+    </row>
+    <row r="381" spans="1:17">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -7958,8 +9030,9 @@
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
       <c r="P381" s="1"/>
-    </row>
-    <row r="382" spans="1:16">
+      <c r="Q381" s="1"/>
+    </row>
+    <row r="382" spans="1:17">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -7976,8 +9049,9 @@
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
       <c r="P382" s="1"/>
-    </row>
-    <row r="383" spans="1:16">
+      <c r="Q382" s="1"/>
+    </row>
+    <row r="383" spans="1:17">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -7994,8 +9068,9 @@
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
       <c r="P383" s="1"/>
-    </row>
-    <row r="384" spans="1:16">
+      <c r="Q383" s="1"/>
+    </row>
+    <row r="384" spans="1:17">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -8012,8 +9087,9 @@
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
       <c r="P384" s="1"/>
-    </row>
-    <row r="385" spans="1:16">
+      <c r="Q384" s="1"/>
+    </row>
+    <row r="385" spans="1:17">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -8030,8 +9106,9 @@
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
       <c r="P385" s="1"/>
-    </row>
-    <row r="386" spans="1:16">
+      <c r="Q385" s="1"/>
+    </row>
+    <row r="386" spans="1:17">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -8048,8 +9125,9 @@
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
       <c r="P386" s="1"/>
-    </row>
-    <row r="387" spans="1:16">
+      <c r="Q386" s="1"/>
+    </row>
+    <row r="387" spans="1:17">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -8066,8 +9144,9 @@
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
       <c r="P387" s="1"/>
-    </row>
-    <row r="388" spans="1:16">
+      <c r="Q387" s="1"/>
+    </row>
+    <row r="388" spans="1:17">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -8084,8 +9163,9 @@
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
       <c r="P388" s="1"/>
-    </row>
-    <row r="389" spans="1:16">
+      <c r="Q388" s="1"/>
+    </row>
+    <row r="389" spans="1:17">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -8102,8 +9182,9 @@
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
       <c r="P389" s="1"/>
-    </row>
-    <row r="390" spans="1:16">
+      <c r="Q389" s="1"/>
+    </row>
+    <row r="390" spans="1:17">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -8120,8 +9201,9 @@
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
       <c r="P390" s="1"/>
-    </row>
-    <row r="391" spans="1:16">
+      <c r="Q390" s="1"/>
+    </row>
+    <row r="391" spans="1:17">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -8138,8 +9220,9 @@
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
       <c r="P391" s="1"/>
-    </row>
-    <row r="392" spans="1:16">
+      <c r="Q391" s="1"/>
+    </row>
+    <row r="392" spans="1:17">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -8156,8 +9239,9 @@
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
       <c r="P392" s="1"/>
-    </row>
-    <row r="393" spans="1:16">
+      <c r="Q392" s="1"/>
+    </row>
+    <row r="393" spans="1:17">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -8174,8 +9258,9 @@
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
       <c r="P393" s="1"/>
-    </row>
-    <row r="394" spans="1:16">
+      <c r="Q393" s="1"/>
+    </row>
+    <row r="394" spans="1:17">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -8192,8 +9277,9 @@
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
       <c r="P394" s="1"/>
-    </row>
-    <row r="395" spans="1:16">
+      <c r="Q394" s="1"/>
+    </row>
+    <row r="395" spans="1:17">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -8210,8 +9296,9 @@
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
       <c r="P395" s="1"/>
-    </row>
-    <row r="396" spans="1:16">
+      <c r="Q395" s="1"/>
+    </row>
+    <row r="396" spans="1:17">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -8228,8 +9315,9 @@
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
       <c r="P396" s="1"/>
-    </row>
-    <row r="397" spans="1:16">
+      <c r="Q396" s="1"/>
+    </row>
+    <row r="397" spans="1:17">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -8246,8 +9334,9 @@
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
       <c r="P397" s="1"/>
-    </row>
-    <row r="398" spans="1:16">
+      <c r="Q397" s="1"/>
+    </row>
+    <row r="398" spans="1:17">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -8264,8 +9353,9 @@
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
       <c r="P398" s="1"/>
-    </row>
-    <row r="399" spans="1:16">
+      <c r="Q398" s="1"/>
+    </row>
+    <row r="399" spans="1:17">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -8282,8 +9372,9 @@
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
       <c r="P399" s="1"/>
-    </row>
-    <row r="400" spans="1:16">
+      <c r="Q399" s="1"/>
+    </row>
+    <row r="400" spans="1:17">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -8300,8 +9391,9 @@
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
       <c r="P400" s="1"/>
-    </row>
-    <row r="401" spans="1:16">
+      <c r="Q400" s="1"/>
+    </row>
+    <row r="401" spans="1:17">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -8318,8 +9410,9 @@
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
       <c r="P401" s="1"/>
-    </row>
-    <row r="402" spans="1:16">
+      <c r="Q401" s="1"/>
+    </row>
+    <row r="402" spans="1:17">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -8336,8 +9429,9 @@
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
       <c r="P402" s="1"/>
-    </row>
-    <row r="403" spans="1:16">
+      <c r="Q402" s="1"/>
+    </row>
+    <row r="403" spans="1:17">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -8354,8 +9448,9 @@
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
       <c r="P403" s="1"/>
-    </row>
-    <row r="404" spans="1:16">
+      <c r="Q403" s="1"/>
+    </row>
+    <row r="404" spans="1:17">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -8372,8 +9467,9 @@
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
       <c r="P404" s="1"/>
-    </row>
-    <row r="405" spans="1:16">
+      <c r="Q404" s="1"/>
+    </row>
+    <row r="405" spans="1:17">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -8390,8 +9486,9 @@
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
       <c r="P405" s="1"/>
-    </row>
-    <row r="406" spans="1:16">
+      <c r="Q405" s="1"/>
+    </row>
+    <row r="406" spans="1:17">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -8408,8 +9505,9 @@
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
       <c r="P406" s="1"/>
-    </row>
-    <row r="407" spans="1:16">
+      <c r="Q406" s="1"/>
+    </row>
+    <row r="407" spans="1:17">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -8426,8 +9524,9 @@
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
       <c r="P407" s="1"/>
-    </row>
-    <row r="408" spans="1:16">
+      <c r="Q407" s="1"/>
+    </row>
+    <row r="408" spans="1:17">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -8444,8 +9543,9 @@
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
       <c r="P408" s="1"/>
-    </row>
-    <row r="409" spans="1:16">
+      <c r="Q408" s="1"/>
+    </row>
+    <row r="409" spans="1:17">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -8462,8 +9562,9 @@
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
       <c r="P409" s="1"/>
-    </row>
-    <row r="410" spans="1:16">
+      <c r="Q409" s="1"/>
+    </row>
+    <row r="410" spans="1:17">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -8480,8 +9581,9 @@
       <c r="N410" s="1"/>
       <c r="O410" s="1"/>
       <c r="P410" s="1"/>
-    </row>
-    <row r="411" spans="1:16">
+      <c r="Q410" s="1"/>
+    </row>
+    <row r="411" spans="1:17">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -8498,8 +9600,9 @@
       <c r="N411" s="1"/>
       <c r="O411" s="1"/>
       <c r="P411" s="1"/>
-    </row>
-    <row r="412" spans="1:16">
+      <c r="Q411" s="1"/>
+    </row>
+    <row r="412" spans="1:17">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -8516,8 +9619,9 @@
       <c r="N412" s="1"/>
       <c r="O412" s="1"/>
       <c r="P412" s="1"/>
-    </row>
-    <row r="413" spans="1:16">
+      <c r="Q412" s="1"/>
+    </row>
+    <row r="413" spans="1:17">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -8534,8 +9638,9 @@
       <c r="N413" s="1"/>
       <c r="O413" s="1"/>
       <c r="P413" s="1"/>
-    </row>
-    <row r="414" spans="1:16">
+      <c r="Q413" s="1"/>
+    </row>
+    <row r="414" spans="1:17">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -8552,8 +9657,9 @@
       <c r="N414" s="1"/>
       <c r="O414" s="1"/>
       <c r="P414" s="1"/>
-    </row>
-    <row r="415" spans="1:16">
+      <c r="Q414" s="1"/>
+    </row>
+    <row r="415" spans="1:17">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -8570,8 +9676,9 @@
       <c r="N415" s="1"/>
       <c r="O415" s="1"/>
       <c r="P415" s="1"/>
-    </row>
-    <row r="416" spans="1:16">
+      <c r="Q415" s="1"/>
+    </row>
+    <row r="416" spans="1:17">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -8588,8 +9695,9 @@
       <c r="N416" s="1"/>
       <c r="O416" s="1"/>
       <c r="P416" s="1"/>
-    </row>
-    <row r="417" spans="1:16">
+      <c r="Q416" s="1"/>
+    </row>
+    <row r="417" spans="1:17">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -8606,8 +9714,9 @@
       <c r="N417" s="1"/>
       <c r="O417" s="1"/>
       <c r="P417" s="1"/>
-    </row>
-    <row r="418" spans="1:16">
+      <c r="Q417" s="1"/>
+    </row>
+    <row r="418" spans="1:17">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -8624,8 +9733,9 @@
       <c r="N418" s="1"/>
       <c r="O418" s="1"/>
       <c r="P418" s="1"/>
-    </row>
-    <row r="419" spans="1:16">
+      <c r="Q418" s="1"/>
+    </row>
+    <row r="419" spans="1:17">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -8642,8 +9752,9 @@
       <c r="N419" s="1"/>
       <c r="O419" s="1"/>
       <c r="P419" s="1"/>
-    </row>
-    <row r="420" spans="1:16">
+      <c r="Q419" s="1"/>
+    </row>
+    <row r="420" spans="1:17">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -8660,8 +9771,9 @@
       <c r="N420" s="1"/>
       <c r="O420" s="1"/>
       <c r="P420" s="1"/>
-    </row>
-    <row r="421" spans="1:16">
+      <c r="Q420" s="1"/>
+    </row>
+    <row r="421" spans="1:17">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -8678,8 +9790,9 @@
       <c r="N421" s="1"/>
       <c r="O421" s="1"/>
       <c r="P421" s="1"/>
-    </row>
-    <row r="422" spans="1:16">
+      <c r="Q421" s="1"/>
+    </row>
+    <row r="422" spans="1:17">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -8696,8 +9809,9 @@
       <c r="N422" s="1"/>
       <c r="O422" s="1"/>
       <c r="P422" s="1"/>
-    </row>
-    <row r="423" spans="1:16">
+      <c r="Q422" s="1"/>
+    </row>
+    <row r="423" spans="1:17">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -8714,8 +9828,9 @@
       <c r="N423" s="1"/>
       <c r="O423" s="1"/>
       <c r="P423" s="1"/>
-    </row>
-    <row r="424" spans="1:16">
+      <c r="Q423" s="1"/>
+    </row>
+    <row r="424" spans="1:17">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -8732,8 +9847,9 @@
       <c r="N424" s="1"/>
       <c r="O424" s="1"/>
       <c r="P424" s="1"/>
-    </row>
-    <row r="425" spans="1:16">
+      <c r="Q424" s="1"/>
+    </row>
+    <row r="425" spans="1:17">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -8750,8 +9866,9 @@
       <c r="N425" s="1"/>
       <c r="O425" s="1"/>
       <c r="P425" s="1"/>
-    </row>
-    <row r="426" spans="1:16">
+      <c r="Q425" s="1"/>
+    </row>
+    <row r="426" spans="1:17">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -8768,8 +9885,9 @@
       <c r="N426" s="1"/>
       <c r="O426" s="1"/>
       <c r="P426" s="1"/>
-    </row>
-    <row r="427" spans="1:16">
+      <c r="Q426" s="1"/>
+    </row>
+    <row r="427" spans="1:17">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -8786,8 +9904,9 @@
       <c r="N427" s="1"/>
       <c r="O427" s="1"/>
       <c r="P427" s="1"/>
-    </row>
-    <row r="428" spans="1:16">
+      <c r="Q427" s="1"/>
+    </row>
+    <row r="428" spans="1:17">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -8804,8 +9923,9 @@
       <c r="N428" s="1"/>
       <c r="O428" s="1"/>
       <c r="P428" s="1"/>
-    </row>
-    <row r="429" spans="1:16">
+      <c r="Q428" s="1"/>
+    </row>
+    <row r="429" spans="1:17">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -8822,8 +9942,9 @@
       <c r="N429" s="1"/>
       <c r="O429" s="1"/>
       <c r="P429" s="1"/>
-    </row>
-    <row r="430" spans="1:16">
+      <c r="Q429" s="1"/>
+    </row>
+    <row r="430" spans="1:17">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -8840,8 +9961,9 @@
       <c r="N430" s="1"/>
       <c r="O430" s="1"/>
       <c r="P430" s="1"/>
-    </row>
-    <row r="431" spans="1:16">
+      <c r="Q430" s="1"/>
+    </row>
+    <row r="431" spans="1:17">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -8858,8 +9980,9 @@
       <c r="N431" s="1"/>
       <c r="O431" s="1"/>
       <c r="P431" s="1"/>
-    </row>
-    <row r="432" spans="1:16">
+      <c r="Q431" s="1"/>
+    </row>
+    <row r="432" spans="1:17">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -8876,8 +9999,9 @@
       <c r="N432" s="1"/>
       <c r="O432" s="1"/>
       <c r="P432" s="1"/>
-    </row>
-    <row r="433" spans="1:16">
+      <c r="Q432" s="1"/>
+    </row>
+    <row r="433" spans="1:17">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -8894,8 +10018,9 @@
       <c r="N433" s="1"/>
       <c r="O433" s="1"/>
       <c r="P433" s="1"/>
-    </row>
-    <row r="434" spans="1:16">
+      <c r="Q433" s="1"/>
+    </row>
+    <row r="434" spans="1:17">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -8912,8 +10037,9 @@
       <c r="N434" s="1"/>
       <c r="O434" s="1"/>
       <c r="P434" s="1"/>
-    </row>
-    <row r="435" spans="1:16">
+      <c r="Q434" s="1"/>
+    </row>
+    <row r="435" spans="1:17">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -8930,8 +10056,9 @@
       <c r="N435" s="1"/>
       <c r="O435" s="1"/>
       <c r="P435" s="1"/>
-    </row>
-    <row r="436" spans="1:16">
+      <c r="Q435" s="1"/>
+    </row>
+    <row r="436" spans="1:17">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -8948,8 +10075,9 @@
       <c r="N436" s="1"/>
       <c r="O436" s="1"/>
       <c r="P436" s="1"/>
-    </row>
-    <row r="437" spans="1:16">
+      <c r="Q436" s="1"/>
+    </row>
+    <row r="437" spans="1:17">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -8966,8 +10094,9 @@
       <c r="N437" s="1"/>
       <c r="O437" s="1"/>
       <c r="P437" s="1"/>
-    </row>
-    <row r="438" spans="1:16">
+      <c r="Q437" s="1"/>
+    </row>
+    <row r="438" spans="1:17">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -8984,8 +10113,9 @@
       <c r="N438" s="1"/>
       <c r="O438" s="1"/>
       <c r="P438" s="1"/>
-    </row>
-    <row r="439" spans="1:16">
+      <c r="Q438" s="1"/>
+    </row>
+    <row r="439" spans="1:17">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -9002,8 +10132,9 @@
       <c r="N439" s="1"/>
       <c r="O439" s="1"/>
       <c r="P439" s="1"/>
-    </row>
-    <row r="440" spans="1:16">
+      <c r="Q439" s="1"/>
+    </row>
+    <row r="440" spans="1:17">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -9020,8 +10151,9 @@
       <c r="N440" s="1"/>
       <c r="O440" s="1"/>
       <c r="P440" s="1"/>
-    </row>
-    <row r="441" spans="1:16">
+      <c r="Q440" s="1"/>
+    </row>
+    <row r="441" spans="1:17">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -9038,8 +10170,9 @@
       <c r="N441" s="1"/>
       <c r="O441" s="1"/>
       <c r="P441" s="1"/>
-    </row>
-    <row r="442" spans="1:16">
+      <c r="Q441" s="1"/>
+    </row>
+    <row r="442" spans="1:17">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -9056,8 +10189,9 @@
       <c r="N442" s="1"/>
       <c r="O442" s="1"/>
       <c r="P442" s="1"/>
-    </row>
-    <row r="443" spans="1:16">
+      <c r="Q442" s="1"/>
+    </row>
+    <row r="443" spans="1:17">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -9074,8 +10208,9 @@
       <c r="N443" s="1"/>
       <c r="O443" s="1"/>
       <c r="P443" s="1"/>
-    </row>
-    <row r="444" spans="1:16">
+      <c r="Q443" s="1"/>
+    </row>
+    <row r="444" spans="1:17">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -9092,8 +10227,9 @@
       <c r="N444" s="1"/>
       <c r="O444" s="1"/>
       <c r="P444" s="1"/>
-    </row>
-    <row r="445" spans="1:16">
+      <c r="Q444" s="1"/>
+    </row>
+    <row r="445" spans="1:17">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -9110,8 +10246,9 @@
       <c r="N445" s="1"/>
       <c r="O445" s="1"/>
       <c r="P445" s="1"/>
-    </row>
-    <row r="446" spans="1:16">
+      <c r="Q445" s="1"/>
+    </row>
+    <row r="446" spans="1:17">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -9128,8 +10265,9 @@
       <c r="N446" s="1"/>
       <c r="O446" s="1"/>
       <c r="P446" s="1"/>
-    </row>
-    <row r="447" spans="1:16">
+      <c r="Q446" s="1"/>
+    </row>
+    <row r="447" spans="1:17">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -9146,8 +10284,9 @@
       <c r="N447" s="1"/>
       <c r="O447" s="1"/>
       <c r="P447" s="1"/>
-    </row>
-    <row r="448" spans="1:16">
+      <c r="Q447" s="1"/>
+    </row>
+    <row r="448" spans="1:17">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -9164,8 +10303,9 @@
       <c r="N448" s="1"/>
       <c r="O448" s="1"/>
       <c r="P448" s="1"/>
-    </row>
-    <row r="449" spans="1:16">
+      <c r="Q448" s="1"/>
+    </row>
+    <row r="449" spans="1:17">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -9182,8 +10322,9 @@
       <c r="N449" s="1"/>
       <c r="O449" s="1"/>
       <c r="P449" s="1"/>
-    </row>
-    <row r="450" spans="1:16">
+      <c r="Q449" s="1"/>
+    </row>
+    <row r="450" spans="1:17">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -9200,8 +10341,9 @@
       <c r="N450" s="1"/>
       <c r="O450" s="1"/>
       <c r="P450" s="1"/>
-    </row>
-    <row r="451" spans="1:16">
+      <c r="Q450" s="1"/>
+    </row>
+    <row r="451" spans="1:17">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -9218,8 +10360,9 @@
       <c r="N451" s="1"/>
       <c r="O451" s="1"/>
       <c r="P451" s="1"/>
-    </row>
-    <row r="452" spans="1:16">
+      <c r="Q451" s="1"/>
+    </row>
+    <row r="452" spans="1:17">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -9236,8 +10379,9 @@
       <c r="N452" s="1"/>
       <c r="O452" s="1"/>
       <c r="P452" s="1"/>
-    </row>
-    <row r="453" spans="1:16">
+      <c r="Q452" s="1"/>
+    </row>
+    <row r="453" spans="1:17">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -9254,8 +10398,9 @@
       <c r="N453" s="1"/>
       <c r="O453" s="1"/>
       <c r="P453" s="1"/>
-    </row>
-    <row r="454" spans="1:16">
+      <c r="Q453" s="1"/>
+    </row>
+    <row r="454" spans="1:17">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -9272,8 +10417,9 @@
       <c r="N454" s="1"/>
       <c r="O454" s="1"/>
       <c r="P454" s="1"/>
-    </row>
-    <row r="455" spans="1:16">
+      <c r="Q454" s="1"/>
+    </row>
+    <row r="455" spans="1:17">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -9290,8 +10436,9 @@
       <c r="N455" s="1"/>
       <c r="O455" s="1"/>
       <c r="P455" s="1"/>
-    </row>
-    <row r="456" spans="1:16">
+      <c r="Q455" s="1"/>
+    </row>
+    <row r="456" spans="1:17">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -9308,8 +10455,9 @@
       <c r="N456" s="1"/>
       <c r="O456" s="1"/>
       <c r="P456" s="1"/>
-    </row>
-    <row r="457" spans="1:16">
+      <c r="Q456" s="1"/>
+    </row>
+    <row r="457" spans="1:17">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -9326,8 +10474,9 @@
       <c r="N457" s="1"/>
       <c r="O457" s="1"/>
       <c r="P457" s="1"/>
-    </row>
-    <row r="458" spans="1:16">
+      <c r="Q457" s="1"/>
+    </row>
+    <row r="458" spans="1:17">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -9344,8 +10493,9 @@
       <c r="N458" s="1"/>
       <c r="O458" s="1"/>
       <c r="P458" s="1"/>
-    </row>
-    <row r="459" spans="1:16">
+      <c r="Q458" s="1"/>
+    </row>
+    <row r="459" spans="1:17">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -9362,8 +10512,9 @@
       <c r="N459" s="1"/>
       <c r="O459" s="1"/>
       <c r="P459" s="1"/>
-    </row>
-    <row r="460" spans="1:16">
+      <c r="Q459" s="1"/>
+    </row>
+    <row r="460" spans="1:17">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -9380,8 +10531,9 @@
       <c r="N460" s="1"/>
       <c r="O460" s="1"/>
       <c r="P460" s="1"/>
-    </row>
-    <row r="461" spans="1:16">
+      <c r="Q460" s="1"/>
+    </row>
+    <row r="461" spans="1:17">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -9398,8 +10550,9 @@
       <c r="N461" s="1"/>
       <c r="O461" s="1"/>
       <c r="P461" s="1"/>
-    </row>
-    <row r="462" spans="1:16">
+      <c r="Q461" s="1"/>
+    </row>
+    <row r="462" spans="1:17">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -9416,8 +10569,9 @@
       <c r="N462" s="1"/>
       <c r="O462" s="1"/>
       <c r="P462" s="1"/>
-    </row>
-    <row r="463" spans="1:16">
+      <c r="Q462" s="1"/>
+    </row>
+    <row r="463" spans="1:17">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -9434,8 +10588,9 @@
       <c r="N463" s="1"/>
       <c r="O463" s="1"/>
       <c r="P463" s="1"/>
-    </row>
-    <row r="464" spans="1:16">
+      <c r="Q463" s="1"/>
+    </row>
+    <row r="464" spans="1:17">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -9452,8 +10607,9 @@
       <c r="N464" s="1"/>
       <c r="O464" s="1"/>
       <c r="P464" s="1"/>
-    </row>
-    <row r="465" spans="1:16">
+      <c r="Q464" s="1"/>
+    </row>
+    <row r="465" spans="1:17">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -9470,8 +10626,9 @@
       <c r="N465" s="1"/>
       <c r="O465" s="1"/>
       <c r="P465" s="1"/>
-    </row>
-    <row r="466" spans="1:16">
+      <c r="Q465" s="1"/>
+    </row>
+    <row r="466" spans="1:17">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -9488,8 +10645,9 @@
       <c r="N466" s="1"/>
       <c r="O466" s="1"/>
       <c r="P466" s="1"/>
-    </row>
-    <row r="467" spans="1:16">
+      <c r="Q466" s="1"/>
+    </row>
+    <row r="467" spans="1:17">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -9506,8 +10664,9 @@
       <c r="N467" s="1"/>
       <c r="O467" s="1"/>
       <c r="P467" s="1"/>
-    </row>
-    <row r="468" spans="1:16">
+      <c r="Q467" s="1"/>
+    </row>
+    <row r="468" spans="1:17">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -9524,8 +10683,9 @@
       <c r="N468" s="1"/>
       <c r="O468" s="1"/>
       <c r="P468" s="1"/>
-    </row>
-    <row r="469" spans="1:16">
+      <c r="Q468" s="1"/>
+    </row>
+    <row r="469" spans="1:17">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -9542,8 +10702,9 @@
       <c r="N469" s="1"/>
       <c r="O469" s="1"/>
       <c r="P469" s="1"/>
-    </row>
-    <row r="470" spans="1:16">
+      <c r="Q469" s="1"/>
+    </row>
+    <row r="470" spans="1:17">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -9560,8 +10721,9 @@
       <c r="N470" s="1"/>
       <c r="O470" s="1"/>
       <c r="P470" s="1"/>
-    </row>
-    <row r="471" spans="1:16">
+      <c r="Q470" s="1"/>
+    </row>
+    <row r="471" spans="1:17">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -9578,8 +10740,9 @@
       <c r="N471" s="1"/>
       <c r="O471" s="1"/>
       <c r="P471" s="1"/>
-    </row>
-    <row r="472" spans="1:16">
+      <c r="Q471" s="1"/>
+    </row>
+    <row r="472" spans="1:17">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -9596,8 +10759,9 @@
       <c r="N472" s="1"/>
       <c r="O472" s="1"/>
       <c r="P472" s="1"/>
-    </row>
-    <row r="473" spans="1:16">
+      <c r="Q472" s="1"/>
+    </row>
+    <row r="473" spans="1:17">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -9614,8 +10778,9 @@
       <c r="N473" s="1"/>
       <c r="O473" s="1"/>
       <c r="P473" s="1"/>
-    </row>
-    <row r="474" spans="1:16">
+      <c r="Q473" s="1"/>
+    </row>
+    <row r="474" spans="1:17">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -9632,8 +10797,9 @@
       <c r="N474" s="1"/>
       <c r="O474" s="1"/>
       <c r="P474" s="1"/>
-    </row>
-    <row r="475" spans="1:16">
+      <c r="Q474" s="1"/>
+    </row>
+    <row r="475" spans="1:17">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -9650,8 +10816,9 @@
       <c r="N475" s="1"/>
       <c r="O475" s="1"/>
       <c r="P475" s="1"/>
-    </row>
-    <row r="476" spans="1:16">
+      <c r="Q475" s="1"/>
+    </row>
+    <row r="476" spans="1:17">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -9668,8 +10835,9 @@
       <c r="N476" s="1"/>
       <c r="O476" s="1"/>
       <c r="P476" s="1"/>
-    </row>
-    <row r="477" spans="1:16">
+      <c r="Q476" s="1"/>
+    </row>
+    <row r="477" spans="1:17">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -9686,8 +10854,9 @@
       <c r="N477" s="1"/>
       <c r="O477" s="1"/>
       <c r="P477" s="1"/>
-    </row>
-    <row r="478" spans="1:16">
+      <c r="Q477" s="1"/>
+    </row>
+    <row r="478" spans="1:17">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -9704,8 +10873,9 @@
       <c r="N478" s="1"/>
       <c r="O478" s="1"/>
       <c r="P478" s="1"/>
-    </row>
-    <row r="479" spans="1:16">
+      <c r="Q478" s="1"/>
+    </row>
+    <row r="479" spans="1:17">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -9722,8 +10892,9 @@
       <c r="N479" s="1"/>
       <c r="O479" s="1"/>
       <c r="P479" s="1"/>
-    </row>
-    <row r="480" spans="1:16">
+      <c r="Q479" s="1"/>
+    </row>
+    <row r="480" spans="1:17">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -9740,8 +10911,9 @@
       <c r="N480" s="1"/>
       <c r="O480" s="1"/>
       <c r="P480" s="1"/>
-    </row>
-    <row r="481" spans="1:16">
+      <c r="Q480" s="1"/>
+    </row>
+    <row r="481" spans="1:17">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -9758,8 +10930,9 @@
       <c r="N481" s="1"/>
       <c r="O481" s="1"/>
       <c r="P481" s="1"/>
-    </row>
-    <row r="482" spans="1:16">
+      <c r="Q481" s="1"/>
+    </row>
+    <row r="482" spans="1:17">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -9776,8 +10949,9 @@
       <c r="N482" s="1"/>
       <c r="O482" s="1"/>
       <c r="P482" s="1"/>
-    </row>
-    <row r="483" spans="1:16">
+      <c r="Q482" s="1"/>
+    </row>
+    <row r="483" spans="1:17">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -9794,8 +10968,9 @@
       <c r="N483" s="1"/>
       <c r="O483" s="1"/>
       <c r="P483" s="1"/>
-    </row>
-    <row r="484" spans="1:16">
+      <c r="Q483" s="1"/>
+    </row>
+    <row r="484" spans="1:17">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -9812,8 +10987,9 @@
       <c r="N484" s="1"/>
       <c r="O484" s="1"/>
       <c r="P484" s="1"/>
-    </row>
-    <row r="485" spans="1:16">
+      <c r="Q484" s="1"/>
+    </row>
+    <row r="485" spans="1:17">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -9830,8 +11006,9 @@
       <c r="N485" s="1"/>
       <c r="O485" s="1"/>
       <c r="P485" s="1"/>
-    </row>
-    <row r="486" spans="1:16">
+      <c r="Q485" s="1"/>
+    </row>
+    <row r="486" spans="1:17">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -9848,8 +11025,9 @@
       <c r="N486" s="1"/>
       <c r="O486" s="1"/>
       <c r="P486" s="1"/>
-    </row>
-    <row r="487" spans="1:16">
+      <c r="Q486" s="1"/>
+    </row>
+    <row r="487" spans="1:17">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -9866,8 +11044,9 @@
       <c r="N487" s="1"/>
       <c r="O487" s="1"/>
       <c r="P487" s="1"/>
-    </row>
-    <row r="488" spans="1:16">
+      <c r="Q487" s="1"/>
+    </row>
+    <row r="488" spans="1:17">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -9884,8 +11063,9 @@
       <c r="N488" s="1"/>
       <c r="O488" s="1"/>
       <c r="P488" s="1"/>
-    </row>
-    <row r="489" spans="1:16">
+      <c r="Q488" s="1"/>
+    </row>
+    <row r="489" spans="1:17">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -9902,8 +11082,9 @@
       <c r="N489" s="1"/>
       <c r="O489" s="1"/>
       <c r="P489" s="1"/>
-    </row>
-    <row r="490" spans="1:16">
+      <c r="Q489" s="1"/>
+    </row>
+    <row r="490" spans="1:17">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -9920,8 +11101,9 @@
       <c r="N490" s="1"/>
       <c r="O490" s="1"/>
       <c r="P490" s="1"/>
-    </row>
-    <row r="491" spans="1:16">
+      <c r="Q490" s="1"/>
+    </row>
+    <row r="491" spans="1:17">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -9938,8 +11120,9 @@
       <c r="N491" s="1"/>
       <c r="O491" s="1"/>
       <c r="P491" s="1"/>
-    </row>
-    <row r="492" spans="1:16">
+      <c r="Q491" s="1"/>
+    </row>
+    <row r="492" spans="1:17">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -9956,8 +11139,9 @@
       <c r="N492" s="1"/>
       <c r="O492" s="1"/>
       <c r="P492" s="1"/>
-    </row>
-    <row r="493" spans="1:16">
+      <c r="Q492" s="1"/>
+    </row>
+    <row r="493" spans="1:17">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -9974,8 +11158,9 @@
       <c r="N493" s="1"/>
       <c r="O493" s="1"/>
       <c r="P493" s="1"/>
-    </row>
-    <row r="494" spans="1:16">
+      <c r="Q493" s="1"/>
+    </row>
+    <row r="494" spans="1:17">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -9992,8 +11177,9 @@
       <c r="N494" s="1"/>
       <c r="O494" s="1"/>
       <c r="P494" s="1"/>
-    </row>
-    <row r="495" spans="1:16">
+      <c r="Q494" s="1"/>
+    </row>
+    <row r="495" spans="1:17">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -10010,8 +11196,9 @@
       <c r="N495" s="1"/>
       <c r="O495" s="1"/>
       <c r="P495" s="1"/>
-    </row>
-    <row r="496" spans="1:16">
+      <c r="Q495" s="1"/>
+    </row>
+    <row r="496" spans="1:17">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -10028,8 +11215,9 @@
       <c r="N496" s="1"/>
       <c r="O496" s="1"/>
       <c r="P496" s="1"/>
-    </row>
-    <row r="497" spans="1:16">
+      <c r="Q496" s="1"/>
+    </row>
+    <row r="497" spans="1:17">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -10046,8 +11234,9 @@
       <c r="N497" s="1"/>
       <c r="O497" s="1"/>
       <c r="P497" s="1"/>
-    </row>
-    <row r="498" spans="1:16">
+      <c r="Q497" s="1"/>
+    </row>
+    <row r="498" spans="1:17">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -10064,8 +11253,9 @@
       <c r="N498" s="1"/>
       <c r="O498" s="1"/>
       <c r="P498" s="1"/>
-    </row>
-    <row r="499" spans="1:16">
+      <c r="Q498" s="1"/>
+    </row>
+    <row r="499" spans="1:17">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -10082,6 +11272,7 @@
       <c r="N499" s="1"/>
       <c r="O499" s="1"/>
       <c r="P499" s="1"/>
+      <c r="Q499" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/炒股/交易运行状态/同仁堂.xlsx
+++ b/我的创作/炒股/交易运行状态/同仁堂.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>日期</t>
   </si>
@@ -53,18 +53,24 @@
     <t>收盘价处于波动范围的位置
 (处于下部应该警惕)</t>
   </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>上部</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,8 +96,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,10 +121,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,16 +136,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,36 +176,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -196,14 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -211,11 +196,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -234,7 +240,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,49 +276,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +324,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,55 +372,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,37 +402,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,17 +428,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,15 +463,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +487,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -495,153 +525,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,22 +656,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -682,10 +688,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -871,7 +877,7 @@
             <v>152</v>
           </cell>
           <cell r="AP4">
-            <v>100</v>
+            <v>200</v>
           </cell>
           <cell r="AQ4">
             <v>4.13815789473685</v>
@@ -884,6 +890,30 @@
           </cell>
           <cell r="AT4">
             <v>150.88</v>
+          </cell>
+          <cell r="AU4">
+            <v>44523</v>
+          </cell>
+          <cell r="AV4">
+            <v>26.2</v>
+          </cell>
+          <cell r="AW4">
+            <v>5</v>
+          </cell>
+          <cell r="AX4">
+            <v>0.1048</v>
+          </cell>
+          <cell r="AY4">
+            <v>5245.1048</v>
+          </cell>
+          <cell r="AZ4">
+            <v>26.5</v>
+          </cell>
+          <cell r="BA4">
+            <v>25.21</v>
+          </cell>
+          <cell r="BB4">
+            <v>0.232558139534884</v>
           </cell>
         </row>
         <row r="5">
@@ -1027,6 +1057,15 @@
           </cell>
           <cell r="AY5">
             <v>3378.06746</v>
+          </cell>
+          <cell r="AZ5">
+            <v>35.36</v>
+          </cell>
+          <cell r="BA5">
+            <v>33.1</v>
+          </cell>
+          <cell r="BB5">
+            <v>0.721238938053099</v>
           </cell>
         </row>
         <row r="6">
@@ -1677,7 +1716,7 @@
   <dimension ref="A1:Q499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1736,7 +1775,9 @@
       <c r="A2" s="3">
         <v>44523</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>35.04</v>
+      </c>
       <c r="C2" s="1">
         <v>32.53</v>
       </c>
@@ -1748,11 +1789,21 @@
         <f>D2+D2*VLOOKUP([1]入场指标!A5,[1]入场指标!A4:BL1000,44,FALSE)*2</f>
         <v>37.3</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>

--- a/我的创作/炒股/交易运行状态/同仁堂.xlsx
+++ b/我的创作/炒股/交易运行状态/同仁堂.xlsx
@@ -17,12 +17,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>日期</t>
   </si>
   <si>
     <t>收盘价</t>
+  </si>
+  <si>
+    <t>开盘价</t>
+  </si>
+  <si>
+    <t>最高价</t>
+  </si>
+  <si>
+    <t>最低价</t>
+  </si>
+  <si>
+    <t>上三分之一</t>
+  </si>
+  <si>
+    <t>下三分之一</t>
   </si>
   <si>
     <t>当前止损线</t>
@@ -59,18 +74,21 @@
   <si>
     <t>上部</t>
   </si>
+  <si>
+    <t>中部</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,8 +99,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,17 +144,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,6 +159,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -128,8 +213,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -144,80 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -234,7 +252,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +324,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,85 +384,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,37 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,31 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,22 +450,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,11 +520,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,183 +543,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -688,10 +706,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,7 +764,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -898,21 +916,27 @@
             <v>26.2</v>
           </cell>
           <cell r="AW4">
+            <v>200</v>
+          </cell>
+          <cell r="AX4">
             <v>5</v>
           </cell>
-          <cell r="AX4">
+          <cell r="AY4">
             <v>0.1048</v>
           </cell>
-          <cell r="AY4">
+          <cell r="AZ4">
             <v>5245.1048</v>
           </cell>
-          <cell r="AZ4">
+          <cell r="BA4">
+            <v>309.1048</v>
+          </cell>
+          <cell r="BB4">
             <v>26.5</v>
           </cell>
-          <cell r="BA4">
+          <cell r="BC4">
             <v>25.21</v>
           </cell>
-          <cell r="BB4">
+          <cell r="BD4">
             <v>0.232558139534884</v>
           </cell>
         </row>
@@ -1050,21 +1074,27 @@
             <v>33.73</v>
           </cell>
           <cell r="AW5">
+            <v>100</v>
+          </cell>
+          <cell r="AX5">
             <v>5</v>
           </cell>
-          <cell r="AX5">
+          <cell r="AY5">
             <v>0.06746</v>
           </cell>
-          <cell r="AY5">
+          <cell r="AZ5">
             <v>3378.06746</v>
           </cell>
-          <cell r="AZ5">
+          <cell r="BA5">
+            <v>125.06746</v>
+          </cell>
+          <cell r="BB5">
             <v>35.36</v>
           </cell>
-          <cell r="BA5">
+          <cell r="BC5">
             <v>33.1</v>
           </cell>
-          <cell r="BB5">
+          <cell r="BD5">
             <v>0.721238938053099</v>
           </cell>
         </row>
@@ -1198,21 +1228,27 @@
             <v>32.7</v>
           </cell>
           <cell r="AW6">
+            <v>100</v>
+          </cell>
+          <cell r="AX6">
             <v>5</v>
           </cell>
-          <cell r="AX6">
+          <cell r="AY6">
             <v>0.0654</v>
           </cell>
-          <cell r="AY6">
+          <cell r="AZ6">
             <v>3275.0654</v>
           </cell>
-          <cell r="AZ6">
+          <cell r="BA6">
+            <v>186.0654</v>
+          </cell>
+          <cell r="BB6">
             <v>33.9</v>
           </cell>
-          <cell r="BA6">
+          <cell r="BC6">
             <v>32.49</v>
           </cell>
-          <cell r="BB6">
+          <cell r="BD6">
             <v>0.851063829787233</v>
           </cell>
         </row>
@@ -1224,7 +1260,7 @@
             <v>44522</v>
           </cell>
           <cell r="C7" t="str">
-            <v>605016(百农创园)</v>
+            <v>605016(百龙创园)</v>
           </cell>
           <cell r="D7">
             <v>28.37</v>
@@ -1305,7 +1341,7 @@
             <v>6.27</v>
           </cell>
           <cell r="AL7">
-            <v>30.9</v>
+            <v>30.66</v>
           </cell>
           <cell r="AM7">
             <v>29.35</v>
@@ -1314,22 +1350,52 @@
             <v>38.71</v>
           </cell>
           <cell r="AO7">
-            <v>155</v>
+            <v>131</v>
           </cell>
           <cell r="AP7">
             <v>200</v>
           </cell>
           <cell r="AQ7">
-            <v>5.03870967741937</v>
+            <v>6.14503816793894</v>
           </cell>
           <cell r="AR7">
-            <v>0.0501618122977345</v>
+            <v>0.042726679712981</v>
           </cell>
           <cell r="AS7">
-            <v>0.252750809061489</v>
+            <v>0.262557077625571</v>
           </cell>
           <cell r="AT7">
             <v>38.46</v>
+          </cell>
+          <cell r="AU7">
+            <v>44524</v>
+          </cell>
+          <cell r="AV7">
+            <v>30.54</v>
+          </cell>
+          <cell r="AW7">
+            <v>100</v>
+          </cell>
+          <cell r="AX7">
+            <v>5</v>
+          </cell>
+          <cell r="AY7">
+            <v>0.06108</v>
+          </cell>
+          <cell r="AZ7">
+            <v>3059.06108</v>
+          </cell>
+          <cell r="BA7">
+            <v>124.06108</v>
+          </cell>
+          <cell r="BB7">
+            <v>30.72</v>
+          </cell>
+          <cell r="BC7">
+            <v>29.33</v>
+          </cell>
+          <cell r="BD7">
+            <v>0.129496402877698</v>
           </cell>
         </row>
         <row r="8">
@@ -1421,7 +1487,7 @@
             <v>1.65</v>
           </cell>
           <cell r="AL8">
-            <v>8.08</v>
+            <v>8.03</v>
           </cell>
           <cell r="AM8">
             <v>7.66</v>
@@ -1430,22 +1496,340 @@
             <v>9.31</v>
           </cell>
           <cell r="AO8">
-            <v>42</v>
+            <v>36.9999999999999</v>
           </cell>
           <cell r="AP8">
-            <v>700</v>
+            <v>800</v>
           </cell>
           <cell r="AQ8">
-            <v>2.92857142857143</v>
+            <v>3.45945945945947</v>
           </cell>
           <cell r="AR8">
-            <v>0.051980198019802</v>
+            <v>0.046077210460772</v>
           </cell>
           <cell r="AS8">
-            <v>0.152227722772277</v>
+            <v>0.159402241594023</v>
           </cell>
           <cell r="AT8">
             <v>32.3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>000007</v>
+          </cell>
+          <cell r="B9">
+            <v>44523</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>000008</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>000009</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>000010</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>000011</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>000012</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>000013</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>000014</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>000015</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>000016</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>000017</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>000018</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>000019</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>000020</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>000021</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>000022</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>000023</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>000024</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>000025</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>000026</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>000027</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>000028</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>000029</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>000030</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>000031</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>000032</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>000033</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>000034</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>000035</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>000036</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>000037</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>000038</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>000039</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>000040</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>000041</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>000042</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>000043</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>000044</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>000045</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>000046</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>000047</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>000048</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>000049</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>000050</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>000051</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>000052</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>000053</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>000054</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>000055</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>000056</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>000057</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>000058</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>000059</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>000060</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>000061</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>000062</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>000063</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>000064</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>000065</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>000066</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>000067</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>000068</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>000069</v>
           </cell>
         </row>
       </sheetData>
@@ -1713,39 +2097,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q499"/>
+  <dimension ref="A1:V499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="16.2142857142857" customWidth="1"/>
-    <col min="3" max="4" width="20.6785714285714" customWidth="1"/>
-    <col min="5" max="5" width="23.3571428571429" customWidth="1"/>
-    <col min="6" max="6" width="30.0625" customWidth="1"/>
-    <col min="7" max="7" width="40.4732142857143" customWidth="1"/>
-    <col min="8" max="8" width="25.4464285714286" customWidth="1"/>
-    <col min="9" max="9" width="28.7142857142857" customWidth="1"/>
-    <col min="10" max="10" width="30.0625" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="10.1071428571429" customWidth="1"/>
+    <col min="4" max="4" width="8.17857142857143" customWidth="1"/>
+    <col min="5" max="5" width="9.96428571428571" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="13.3928571428571" customWidth="1"/>
+    <col min="8" max="8" width="13.5357142857143" customWidth="1"/>
+    <col min="9" max="9" width="12.3392857142857" customWidth="1"/>
+    <col min="10" max="10" width="23.3571428571429" customWidth="1"/>
+    <col min="11" max="11" width="30.0625" customWidth="1"/>
+    <col min="12" max="12" width="40.4732142857143" customWidth="1"/>
+    <col min="13" max="13" width="25.4464285714286" customWidth="1"/>
+    <col min="14" max="14" width="28.7142857142857" customWidth="1"/>
+    <col min="15" max="15" width="30.0625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" spans="1:17">
+    <row r="1" ht="36" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1754,86 +2144,155 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="3">
         <v>44523</v>
       </c>
       <c r="B2" s="1">
-        <v>35.04</v>
+        <v>35.24</v>
       </c>
       <c r="C2" s="1">
+        <v>33.15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>35.36</v>
+      </c>
+      <c r="E2" s="1">
+        <v>33.1</v>
+      </c>
+      <c r="F2" s="4">
+        <f>D2-(D2-C2)/3</f>
+        <v>34.6233333333333</v>
+      </c>
+      <c r="G2" s="4">
+        <f>E2+(D2-C2)/3</f>
+        <v>33.8366666666667</v>
+      </c>
+      <c r="H2" s="1">
         <v>32.53</v>
       </c>
-      <c r="D2" s="4">
-        <f>C2/(1-VLOOKUP([1]入场指标!A5,[1]入场指标!A4:BL10000,44,FALSE))</f>
+      <c r="I2" s="5">
+        <f>H2/(1-VLOOKUP([1]入场指标!A5,[1]入场指标!A4:BL10000,44,FALSE))</f>
         <v>34.12</v>
       </c>
-      <c r="E2" s="5">
-        <f>D2+D2*VLOOKUP([1]入场指标!A5,[1]入场指标!A4:BL1000,44,FALSE)*2</f>
+      <c r="J2" s="4">
+        <f>I2+I2*VLOOKUP([1]入场指标!A5,[1]入场指标!A4:BL1000,44,FALSE)*2</f>
         <v>37.3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="3">
         <v>44524</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="B3" s="1">
+        <v>34.44</v>
+      </c>
+      <c r="C3" s="1">
+        <v>35.1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>35.13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>34.38</v>
+      </c>
+      <c r="F3" s="4">
+        <f>D3-(D3-C3)/3</f>
+        <v>35.12</v>
+      </c>
+      <c r="G3" s="4">
+        <f>E3+(D3-C3)/3</f>
+        <v>34.39</v>
+      </c>
+      <c r="H3" s="1">
+        <v>32.53</v>
+      </c>
+      <c r="I3" s="5">
+        <f>H3/(1-VLOOKUP([1]入场指标!A5,[1]入场指标!A5:BL10001,44,FALSE))</f>
+        <v>34.12</v>
+      </c>
+      <c r="J3" s="4">
+        <f>I3+I3*VLOOKUP([1]入场指标!A5,[1]入场指标!A5:BL1001,44,FALSE)*2</f>
+        <v>37.3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="3">
         <v>44525</v>
       </c>
@@ -1853,8 +2312,13 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="3">
         <v>44526</v>
       </c>
@@ -1874,8 +2338,13 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="3">
         <v>44527</v>
       </c>
@@ -1895,8 +2364,13 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="3">
         <v>44528</v>
       </c>
@@ -1916,8 +2390,13 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="3">
         <v>44529</v>
       </c>
@@ -1937,8 +2416,13 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="3">
         <v>44530</v>
       </c>
@@ -1958,8 +2442,13 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="3">
         <v>44531</v>
       </c>
@@ -1979,8 +2468,13 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="3">
         <v>44532</v>
       </c>
@@ -2000,8 +2494,13 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="3">
         <v>44533</v>
       </c>
@@ -2021,8 +2520,13 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="3">
         <v>44534</v>
       </c>
@@ -2042,8 +2546,13 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="3">
         <v>44535</v>
       </c>
@@ -2063,8 +2572,13 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="3">
         <v>44536</v>
       </c>
@@ -2084,8 +2598,13 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="3">
         <v>44537</v>
       </c>
@@ -2105,8 +2624,13 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="3">
         <v>44538</v>
       </c>
@@ -2126,8 +2650,13 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="3">
         <v>44539</v>
       </c>
@@ -2147,8 +2676,13 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="3">
         <v>44540</v>
       </c>
@@ -2168,8 +2702,13 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="3">
         <v>44541</v>
       </c>
@@ -2189,8 +2728,13 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="3">
         <v>44542</v>
       </c>
@@ -2210,8 +2754,13 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="3">
         <v>44543</v>
       </c>
@@ -2231,8 +2780,13 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="3">
         <v>44544</v>
       </c>
@@ -2252,8 +2806,13 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="3">
         <v>44545</v>
       </c>
@@ -2273,8 +2832,13 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="3">
         <v>44546</v>
       </c>
@@ -2294,8 +2858,13 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="3">
         <v>44547</v>
       </c>
@@ -2315,8 +2884,13 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="3">
         <v>44548</v>
       </c>
@@ -2336,8 +2910,13 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="3">
         <v>44549</v>
       </c>
@@ -2357,8 +2936,13 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="3">
         <v>44550</v>
       </c>
@@ -2378,8 +2962,13 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="3">
         <v>44551</v>
       </c>
@@ -2399,8 +2988,13 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="3">
         <v>44552</v>
       </c>
@@ -2420,8 +3014,13 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="3">
         <v>44553</v>
       </c>
@@ -2441,8 +3040,13 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="3">
         <v>44554</v>
       </c>
@@ -2462,8 +3066,13 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="3">
         <v>44555</v>
       </c>
@@ -2483,8 +3092,13 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="3">
         <v>44556</v>
       </c>
@@ -2504,8 +3118,13 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="3">
         <v>44557</v>
       </c>
@@ -2525,8 +3144,13 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="3">
         <v>44558</v>
       </c>
@@ -2546,8 +3170,13 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2565,8 +3194,13 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2584,8 +3218,13 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2603,8 +3242,13 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2622,8 +3266,13 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2641,8 +3290,13 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2660,8 +3314,13 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2679,8 +3338,13 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2698,8 +3362,13 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2717,8 +3386,13 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2736,8 +3410,13 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2755,8 +3434,13 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2774,8 +3458,13 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2793,8 +3482,13 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2812,8 +3506,13 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2831,8 +3530,13 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2850,8 +3554,13 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2869,8 +3578,13 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2888,8 +3602,13 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2907,8 +3626,13 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2926,8 +3650,13 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2945,8 +3674,13 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2964,8 +3698,13 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2983,8 +3722,13 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3002,8 +3746,13 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3021,8 +3770,13 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3040,8 +3794,13 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3059,8 +3818,13 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3078,8 +3842,13 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3097,8 +3866,13 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3116,8 +3890,13 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3135,8 +3914,13 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3154,8 +3938,13 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3173,8 +3962,13 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3192,8 +3986,13 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3211,8 +4010,13 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3230,8 +4034,13 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3249,8 +4058,13 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3268,8 +4082,13 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3287,8 +4106,13 @@
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3306,8 +4130,13 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3325,8 +4154,13 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3344,8 +4178,13 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3363,8 +4202,13 @@
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3382,8 +4226,13 @@
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3401,8 +4250,13 @@
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3420,8 +4274,13 @@
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3439,8 +4298,13 @@
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3458,8 +4322,13 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3477,8 +4346,13 @@
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3496,8 +4370,13 @@
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3515,8 +4394,13 @@
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3534,8 +4418,13 @@
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3553,8 +4442,13 @@
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3572,8 +4466,13 @@
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
-    </row>
-    <row r="92" spans="1:17">
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3591,8 +4490,13 @@
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3610,8 +4514,13 @@
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3629,8 +4538,13 @@
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3648,8 +4562,13 @@
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
-    </row>
-    <row r="96" spans="1:17">
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3667,8 +4586,13 @@
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
-    </row>
-    <row r="97" spans="1:17">
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3686,8 +4610,13 @@
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
-    </row>
-    <row r="98" spans="1:17">
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3705,8 +4634,13 @@
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
-    </row>
-    <row r="99" spans="1:17">
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3724,8 +4658,13 @@
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
-    </row>
-    <row r="100" spans="1:17">
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3743,8 +4682,13 @@
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
-    </row>
-    <row r="101" spans="1:17">
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3762,8 +4706,13 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
-    </row>
-    <row r="102" spans="1:17">
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+    </row>
+    <row r="102" spans="1:22">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3781,8 +4730,13 @@
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
-    </row>
-    <row r="103" spans="1:17">
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+    </row>
+    <row r="103" spans="1:22">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3800,8 +4754,13 @@
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
-    </row>
-    <row r="104" spans="1:17">
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+    </row>
+    <row r="104" spans="1:22">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3819,8 +4778,13 @@
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
-    </row>
-    <row r="105" spans="1:17">
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+    </row>
+    <row r="105" spans="1:22">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3838,8 +4802,13 @@
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
-    </row>
-    <row r="106" spans="1:17">
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+    </row>
+    <row r="106" spans="1:22">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3857,8 +4826,13 @@
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
-    </row>
-    <row r="107" spans="1:17">
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+    </row>
+    <row r="107" spans="1:22">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3876,8 +4850,13 @@
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
-    </row>
-    <row r="108" spans="1:17">
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+    </row>
+    <row r="108" spans="1:22">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3895,8 +4874,13 @@
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
-    </row>
-    <row r="109" spans="1:17">
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+    </row>
+    <row r="109" spans="1:22">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3914,8 +4898,13 @@
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
-    </row>
-    <row r="110" spans="1:17">
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+    </row>
+    <row r="110" spans="1:22">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3933,8 +4922,13 @@
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
-    </row>
-    <row r="111" spans="1:17">
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+    </row>
+    <row r="111" spans="1:22">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3952,8 +4946,13 @@
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
-    </row>
-    <row r="112" spans="1:17">
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+    </row>
+    <row r="112" spans="1:22">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3971,8 +4970,13 @@
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
-    </row>
-    <row r="113" spans="1:17">
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+    </row>
+    <row r="113" spans="1:22">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3990,8 +4994,13 @@
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
-    </row>
-    <row r="114" spans="1:17">
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+    </row>
+    <row r="114" spans="1:22">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4009,8 +5018,13 @@
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
-    </row>
-    <row r="115" spans="1:17">
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+    </row>
+    <row r="115" spans="1:22">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4028,8 +5042,13 @@
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
-    </row>
-    <row r="116" spans="1:17">
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+    </row>
+    <row r="116" spans="1:22">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4047,8 +5066,13 @@
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
-    </row>
-    <row r="117" spans="1:17">
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+    </row>
+    <row r="117" spans="1:22">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4066,8 +5090,13 @@
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
-    </row>
-    <row r="118" spans="1:17">
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+    </row>
+    <row r="118" spans="1:22">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4085,8 +5114,13 @@
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
-    </row>
-    <row r="119" spans="1:17">
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+    </row>
+    <row r="119" spans="1:22">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4104,8 +5138,13 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
-    </row>
-    <row r="120" spans="1:17">
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+    </row>
+    <row r="120" spans="1:22">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4123,8 +5162,13 @@
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
-    </row>
-    <row r="121" spans="1:17">
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+    </row>
+    <row r="121" spans="1:22">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4142,8 +5186,13 @@
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
-    </row>
-    <row r="122" spans="1:17">
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+    </row>
+    <row r="122" spans="1:22">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4161,8 +5210,13 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-    </row>
-    <row r="123" spans="1:17">
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+    </row>
+    <row r="123" spans="1:22">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4180,8 +5234,13 @@
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
-    </row>
-    <row r="124" spans="1:17">
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+    </row>
+    <row r="124" spans="1:22">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4199,8 +5258,13 @@
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
-    </row>
-    <row r="125" spans="1:17">
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+    </row>
+    <row r="125" spans="1:22">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4218,8 +5282,13 @@
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
-    </row>
-    <row r="126" spans="1:17">
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+    </row>
+    <row r="126" spans="1:22">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4237,8 +5306,13 @@
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
-    </row>
-    <row r="127" spans="1:17">
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+    </row>
+    <row r="127" spans="1:22">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4256,8 +5330,13 @@
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
-    </row>
-    <row r="128" spans="1:17">
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+    </row>
+    <row r="128" spans="1:22">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4275,8 +5354,13 @@
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
-    </row>
-    <row r="129" spans="1:17">
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+    </row>
+    <row r="129" spans="1:22">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4294,8 +5378,13 @@
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
-    </row>
-    <row r="130" spans="1:17">
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+    </row>
+    <row r="130" spans="1:22">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4313,8 +5402,13 @@
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
-    </row>
-    <row r="131" spans="1:17">
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="1"/>
+    </row>
+    <row r="131" spans="1:22">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4332,8 +5426,13 @@
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
-    </row>
-    <row r="132" spans="1:17">
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="1"/>
+    </row>
+    <row r="132" spans="1:22">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4351,8 +5450,13 @@
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
-    </row>
-    <row r="133" spans="1:17">
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
+      <c r="U132" s="1"/>
+      <c r="V132" s="1"/>
+    </row>
+    <row r="133" spans="1:22">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4370,8 +5474,13 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
-    </row>
-    <row r="134" spans="1:17">
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+    </row>
+    <row r="134" spans="1:22">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4389,8 +5498,13 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-    </row>
-    <row r="135" spans="1:17">
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+    </row>
+    <row r="135" spans="1:22">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4408,8 +5522,13 @@
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
-    </row>
-    <row r="136" spans="1:17">
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
+      <c r="U135" s="1"/>
+      <c r="V135" s="1"/>
+    </row>
+    <row r="136" spans="1:22">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4427,8 +5546,13 @@
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
-    </row>
-    <row r="137" spans="1:17">
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="1"/>
+      <c r="U136" s="1"/>
+      <c r="V136" s="1"/>
+    </row>
+    <row r="137" spans="1:22">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4446,8 +5570,13 @@
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
-    </row>
-    <row r="138" spans="1:17">
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
+    </row>
+    <row r="138" spans="1:22">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4465,8 +5594,13 @@
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
-    </row>
-    <row r="139" spans="1:17">
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
+    </row>
+    <row r="139" spans="1:22">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4484,8 +5618,13 @@
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
-    </row>
-    <row r="140" spans="1:17">
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="1"/>
+      <c r="U139" s="1"/>
+      <c r="V139" s="1"/>
+    </row>
+    <row r="140" spans="1:22">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4503,8 +5642,13 @@
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
-    </row>
-    <row r="141" spans="1:17">
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="1"/>
+      <c r="U140" s="1"/>
+      <c r="V140" s="1"/>
+    </row>
+    <row r="141" spans="1:22">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4522,8 +5666,13 @@
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
-    </row>
-    <row r="142" spans="1:17">
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="T141" s="1"/>
+      <c r="U141" s="1"/>
+      <c r="V141" s="1"/>
+    </row>
+    <row r="142" spans="1:22">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4541,8 +5690,13 @@
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
-    </row>
-    <row r="143" spans="1:17">
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142" s="1"/>
+      <c r="U142" s="1"/>
+      <c r="V142" s="1"/>
+    </row>
+    <row r="143" spans="1:22">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4560,8 +5714,13 @@
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
-    </row>
-    <row r="144" spans="1:17">
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="1"/>
+    </row>
+    <row r="144" spans="1:22">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4579,8 +5738,13 @@
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
-    </row>
-    <row r="145" spans="1:17">
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
+      <c r="U144" s="1"/>
+      <c r="V144" s="1"/>
+    </row>
+    <row r="145" spans="1:22">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4598,8 +5762,13 @@
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
-    </row>
-    <row r="146" spans="1:17">
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="1"/>
+    </row>
+    <row r="146" spans="1:22">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4617,8 +5786,13 @@
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
-    </row>
-    <row r="147" spans="1:17">
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
+    </row>
+    <row r="147" spans="1:22">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4636,8 +5810,13 @@
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
-    </row>
-    <row r="148" spans="1:17">
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+    </row>
+    <row r="148" spans="1:22">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4655,8 +5834,13 @@
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
-    </row>
-    <row r="149" spans="1:17">
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
+    </row>
+    <row r="149" spans="1:22">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4674,8 +5858,13 @@
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
-    </row>
-    <row r="150" spans="1:17">
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="1"/>
+    </row>
+    <row r="150" spans="1:22">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4693,8 +5882,13 @@
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
-    </row>
-    <row r="151" spans="1:17">
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+    </row>
+    <row r="151" spans="1:22">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4712,8 +5906,13 @@
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
-    </row>
-    <row r="152" spans="1:17">
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+    </row>
+    <row r="152" spans="1:22">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4731,8 +5930,13 @@
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
-    </row>
-    <row r="153" spans="1:17">
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
+    </row>
+    <row r="153" spans="1:22">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4750,8 +5954,13 @@
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
-    </row>
-    <row r="154" spans="1:17">
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+      <c r="V153" s="1"/>
+    </row>
+    <row r="154" spans="1:22">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4769,8 +5978,13 @@
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
-    </row>
-    <row r="155" spans="1:17">
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
+      <c r="U154" s="1"/>
+      <c r="V154" s="1"/>
+    </row>
+    <row r="155" spans="1:22">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4788,8 +6002,13 @@
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
-    </row>
-    <row r="156" spans="1:17">
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+      <c r="V155" s="1"/>
+    </row>
+    <row r="156" spans="1:22">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4807,8 +6026,13 @@
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
-    </row>
-    <row r="157" spans="1:17">
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="1"/>
+      <c r="V156" s="1"/>
+    </row>
+    <row r="157" spans="1:22">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4826,8 +6050,13 @@
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
-    </row>
-    <row r="158" spans="1:17">
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+    </row>
+    <row r="158" spans="1:22">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4845,8 +6074,13 @@
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
-    </row>
-    <row r="159" spans="1:17">
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158" s="1"/>
+      <c r="U158" s="1"/>
+      <c r="V158" s="1"/>
+    </row>
+    <row r="159" spans="1:22">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4864,8 +6098,13 @@
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
-    </row>
-    <row r="160" spans="1:17">
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="V159" s="1"/>
+    </row>
+    <row r="160" spans="1:22">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4883,8 +6122,13 @@
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
-    </row>
-    <row r="161" spans="1:17">
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
+      <c r="V160" s="1"/>
+    </row>
+    <row r="161" spans="1:22">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4902,8 +6146,13 @@
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
-    </row>
-    <row r="162" spans="1:17">
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
+      <c r="V161" s="1"/>
+    </row>
+    <row r="162" spans="1:22">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4921,8 +6170,13 @@
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
-    </row>
-    <row r="163" spans="1:17">
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+      <c r="U162" s="1"/>
+      <c r="V162" s="1"/>
+    </row>
+    <row r="163" spans="1:22">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4940,8 +6194,13 @@
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
-    </row>
-    <row r="164" spans="1:17">
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
+      <c r="U163" s="1"/>
+      <c r="V163" s="1"/>
+    </row>
+    <row r="164" spans="1:22">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4959,8 +6218,13 @@
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
-    </row>
-    <row r="165" spans="1:17">
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
+      <c r="U164" s="1"/>
+      <c r="V164" s="1"/>
+    </row>
+    <row r="165" spans="1:22">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4978,8 +6242,13 @@
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
-    </row>
-    <row r="166" spans="1:17">
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+      <c r="T165" s="1"/>
+      <c r="U165" s="1"/>
+      <c r="V165" s="1"/>
+    </row>
+    <row r="166" spans="1:22">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4997,8 +6266,13 @@
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
-    </row>
-    <row r="167" spans="1:17">
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166" s="1"/>
+      <c r="U166" s="1"/>
+      <c r="V166" s="1"/>
+    </row>
+    <row r="167" spans="1:22">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5016,8 +6290,13 @@
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
-    </row>
-    <row r="168" spans="1:17">
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167" s="1"/>
+      <c r="U167" s="1"/>
+      <c r="V167" s="1"/>
+    </row>
+    <row r="168" spans="1:22">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5035,8 +6314,13 @@
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
-    </row>
-    <row r="169" spans="1:17">
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="T168" s="1"/>
+      <c r="U168" s="1"/>
+      <c r="V168" s="1"/>
+    </row>
+    <row r="169" spans="1:22">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5054,8 +6338,13 @@
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
-    </row>
-    <row r="170" spans="1:17">
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+      <c r="T169" s="1"/>
+      <c r="U169" s="1"/>
+      <c r="V169" s="1"/>
+    </row>
+    <row r="170" spans="1:22">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5073,8 +6362,13 @@
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
-    </row>
-    <row r="171" spans="1:17">
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
+      <c r="U170" s="1"/>
+      <c r="V170" s="1"/>
+    </row>
+    <row r="171" spans="1:22">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5092,8 +6386,13 @@
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-    </row>
-    <row r="172" spans="1:17">
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="T171" s="1"/>
+      <c r="U171" s="1"/>
+      <c r="V171" s="1"/>
+    </row>
+    <row r="172" spans="1:22">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5111,8 +6410,13 @@
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
-    </row>
-    <row r="173" spans="1:17">
+      <c r="R172" s="1"/>
+      <c r="S172" s="1"/>
+      <c r="T172" s="1"/>
+      <c r="U172" s="1"/>
+      <c r="V172" s="1"/>
+    </row>
+    <row r="173" spans="1:22">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5130,8 +6434,13 @@
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
-    </row>
-    <row r="174" spans="1:17">
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1"/>
+      <c r="U173" s="1"/>
+      <c r="V173" s="1"/>
+    </row>
+    <row r="174" spans="1:22">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5149,8 +6458,13 @@
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
-    </row>
-    <row r="175" spans="1:17">
+      <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
+      <c r="T174" s="1"/>
+      <c r="U174" s="1"/>
+      <c r="V174" s="1"/>
+    </row>
+    <row r="175" spans="1:22">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5168,8 +6482,13 @@
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
-    </row>
-    <row r="176" spans="1:17">
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+      <c r="T175" s="1"/>
+      <c r="U175" s="1"/>
+      <c r="V175" s="1"/>
+    </row>
+    <row r="176" spans="1:22">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5187,8 +6506,13 @@
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
-    </row>
-    <row r="177" spans="1:17">
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="1"/>
+    </row>
+    <row r="177" spans="1:22">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5206,8 +6530,13 @@
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
-    </row>
-    <row r="178" spans="1:17">
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="1"/>
+    </row>
+    <row r="178" spans="1:22">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5225,8 +6554,13 @@
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
-    </row>
-    <row r="179" spans="1:17">
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="T178" s="1"/>
+      <c r="U178" s="1"/>
+      <c r="V178" s="1"/>
+    </row>
+    <row r="179" spans="1:22">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5244,8 +6578,13 @@
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
-    </row>
-    <row r="180" spans="1:17">
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1"/>
+      <c r="U179" s="1"/>
+      <c r="V179" s="1"/>
+    </row>
+    <row r="180" spans="1:22">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5263,8 +6602,13 @@
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
-    </row>
-    <row r="181" spans="1:17">
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+      <c r="T180" s="1"/>
+      <c r="U180" s="1"/>
+      <c r="V180" s="1"/>
+    </row>
+    <row r="181" spans="1:22">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5282,8 +6626,13 @@
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
-    </row>
-    <row r="182" spans="1:17">
+      <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
+      <c r="T181" s="1"/>
+      <c r="U181" s="1"/>
+      <c r="V181" s="1"/>
+    </row>
+    <row r="182" spans="1:22">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5301,8 +6650,13 @@
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
-    </row>
-    <row r="183" spans="1:17">
+      <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
+      <c r="T182" s="1"/>
+      <c r="U182" s="1"/>
+      <c r="V182" s="1"/>
+    </row>
+    <row r="183" spans="1:22">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5320,8 +6674,13 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
-    </row>
-    <row r="184" spans="1:17">
+      <c r="R183" s="1"/>
+      <c r="S183" s="1"/>
+      <c r="T183" s="1"/>
+      <c r="U183" s="1"/>
+      <c r="V183" s="1"/>
+    </row>
+    <row r="184" spans="1:22">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5339,8 +6698,13 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
-    </row>
-    <row r="185" spans="1:17">
+      <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
+      <c r="T184" s="1"/>
+      <c r="U184" s="1"/>
+      <c r="V184" s="1"/>
+    </row>
+    <row r="185" spans="1:22">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5358,8 +6722,13 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
-    </row>
-    <row r="186" spans="1:17">
+      <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
+      <c r="T185" s="1"/>
+      <c r="U185" s="1"/>
+      <c r="V185" s="1"/>
+    </row>
+    <row r="186" spans="1:22">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5377,8 +6746,13 @@
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
-    </row>
-    <row r="187" spans="1:17">
+      <c r="R186" s="1"/>
+      <c r="S186" s="1"/>
+      <c r="T186" s="1"/>
+      <c r="U186" s="1"/>
+      <c r="V186" s="1"/>
+    </row>
+    <row r="187" spans="1:22">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5396,8 +6770,13 @@
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
-    </row>
-    <row r="188" spans="1:17">
+      <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
+      <c r="T187" s="1"/>
+      <c r="U187" s="1"/>
+      <c r="V187" s="1"/>
+    </row>
+    <row r="188" spans="1:22">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5415,8 +6794,13 @@
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
-    </row>
-    <row r="189" spans="1:17">
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
+      <c r="U188" s="1"/>
+      <c r="V188" s="1"/>
+    </row>
+    <row r="189" spans="1:22">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5434,8 +6818,13 @@
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
-    </row>
-    <row r="190" spans="1:17">
+      <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
+      <c r="T189" s="1"/>
+      <c r="U189" s="1"/>
+      <c r="V189" s="1"/>
+    </row>
+    <row r="190" spans="1:22">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5453,8 +6842,13 @@
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
-    </row>
-    <row r="191" spans="1:17">
+      <c r="R190" s="1"/>
+      <c r="S190" s="1"/>
+      <c r="T190" s="1"/>
+      <c r="U190" s="1"/>
+      <c r="V190" s="1"/>
+    </row>
+    <row r="191" spans="1:22">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5472,8 +6866,13 @@
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
-    </row>
-    <row r="192" spans="1:17">
+      <c r="R191" s="1"/>
+      <c r="S191" s="1"/>
+      <c r="T191" s="1"/>
+      <c r="U191" s="1"/>
+      <c r="V191" s="1"/>
+    </row>
+    <row r="192" spans="1:22">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5491,8 +6890,13 @@
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
-    </row>
-    <row r="193" spans="1:17">
+      <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
+      <c r="T192" s="1"/>
+      <c r="U192" s="1"/>
+      <c r="V192" s="1"/>
+    </row>
+    <row r="193" spans="1:22">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5510,8 +6914,13 @@
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
-    </row>
-    <row r="194" spans="1:17">
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
+      <c r="U193" s="1"/>
+      <c r="V193" s="1"/>
+    </row>
+    <row r="194" spans="1:22">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5529,8 +6938,13 @@
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
-    </row>
-    <row r="195" spans="1:17">
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="1"/>
+    </row>
+    <row r="195" spans="1:22">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5548,8 +6962,13 @@
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
-    </row>
-    <row r="196" spans="1:17">
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="T195" s="1"/>
+      <c r="U195" s="1"/>
+      <c r="V195" s="1"/>
+    </row>
+    <row r="196" spans="1:22">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5567,8 +6986,13 @@
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
-    </row>
-    <row r="197" spans="1:17">
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="1"/>
+    </row>
+    <row r="197" spans="1:22">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5586,8 +7010,13 @@
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
-    </row>
-    <row r="198" spans="1:17">
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
+      <c r="U197" s="1"/>
+      <c r="V197" s="1"/>
+    </row>
+    <row r="198" spans="1:22">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5605,8 +7034,13 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
-    </row>
-    <row r="199" spans="1:17">
+      <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
+      <c r="T198" s="1"/>
+      <c r="U198" s="1"/>
+      <c r="V198" s="1"/>
+    </row>
+    <row r="199" spans="1:22">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5624,8 +7058,13 @@
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
-    </row>
-    <row r="200" spans="1:17">
+      <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="T199" s="1"/>
+      <c r="U199" s="1"/>
+      <c r="V199" s="1"/>
+    </row>
+    <row r="200" spans="1:22">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5643,8 +7082,13 @@
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
-    </row>
-    <row r="201" spans="1:17">
+      <c r="R200" s="1"/>
+      <c r="S200" s="1"/>
+      <c r="T200" s="1"/>
+      <c r="U200" s="1"/>
+      <c r="V200" s="1"/>
+    </row>
+    <row r="201" spans="1:22">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -5662,8 +7106,13 @@
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
-    </row>
-    <row r="202" spans="1:17">
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+      <c r="V201" s="1"/>
+    </row>
+    <row r="202" spans="1:22">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -5681,8 +7130,13 @@
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
-    </row>
-    <row r="203" spans="1:17">
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+      <c r="U202" s="1"/>
+      <c r="V202" s="1"/>
+    </row>
+    <row r="203" spans="1:22">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -5700,8 +7154,13 @@
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
-    </row>
-    <row r="204" spans="1:17">
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+      <c r="U203" s="1"/>
+      <c r="V203" s="1"/>
+    </row>
+    <row r="204" spans="1:22">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -5719,8 +7178,13 @@
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
-    </row>
-    <row r="205" spans="1:17">
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
+      <c r="V204" s="1"/>
+    </row>
+    <row r="205" spans="1:22">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -5738,8 +7202,13 @@
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
-    </row>
-    <row r="206" spans="1:17">
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
+      <c r="U205" s="1"/>
+      <c r="V205" s="1"/>
+    </row>
+    <row r="206" spans="1:22">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -5757,8 +7226,13 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
-    </row>
-    <row r="207" spans="1:17">
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+      <c r="U206" s="1"/>
+      <c r="V206" s="1"/>
+    </row>
+    <row r="207" spans="1:22">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -5776,8 +7250,13 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
-    </row>
-    <row r="208" spans="1:17">
+      <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
+      <c r="U207" s="1"/>
+      <c r="V207" s="1"/>
+    </row>
+    <row r="208" spans="1:22">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -5795,8 +7274,13 @@
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
-    </row>
-    <row r="209" spans="1:17">
+      <c r="R208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="T208" s="1"/>
+      <c r="U208" s="1"/>
+      <c r="V208" s="1"/>
+    </row>
+    <row r="209" spans="1:22">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -5814,8 +7298,13 @@
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
-    </row>
-    <row r="210" spans="1:17">
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+      <c r="U209" s="1"/>
+      <c r="V209" s="1"/>
+    </row>
+    <row r="210" spans="1:22">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -5833,8 +7322,13 @@
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
-    </row>
-    <row r="211" spans="1:17">
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+      <c r="U210" s="1"/>
+      <c r="V210" s="1"/>
+    </row>
+    <row r="211" spans="1:22">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -5852,8 +7346,13 @@
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
-    </row>
-    <row r="212" spans="1:17">
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+      <c r="U211" s="1"/>
+      <c r="V211" s="1"/>
+    </row>
+    <row r="212" spans="1:22">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -5871,8 +7370,13 @@
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
-    </row>
-    <row r="213" spans="1:17">
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+      <c r="U212" s="1"/>
+      <c r="V212" s="1"/>
+    </row>
+    <row r="213" spans="1:22">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -5890,8 +7394,13 @@
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
-    </row>
-    <row r="214" spans="1:17">
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+      <c r="U213" s="1"/>
+      <c r="V213" s="1"/>
+    </row>
+    <row r="214" spans="1:22">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -5909,8 +7418,13 @@
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
-    </row>
-    <row r="215" spans="1:17">
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+      <c r="U214" s="1"/>
+      <c r="V214" s="1"/>
+    </row>
+    <row r="215" spans="1:22">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -5928,8 +7442,13 @@
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
-    </row>
-    <row r="216" spans="1:17">
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+      <c r="U215" s="1"/>
+      <c r="V215" s="1"/>
+    </row>
+    <row r="216" spans="1:22">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -5947,8 +7466,13 @@
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
-    </row>
-    <row r="217" spans="1:17">
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+      <c r="U216" s="1"/>
+      <c r="V216" s="1"/>
+    </row>
+    <row r="217" spans="1:22">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -5966,8 +7490,13 @@
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
-    </row>
-    <row r="218" spans="1:17">
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+      <c r="U217" s="1"/>
+      <c r="V217" s="1"/>
+    </row>
+    <row r="218" spans="1:22">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -5985,8 +7514,13 @@
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
-    </row>
-    <row r="219" spans="1:17">
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+      <c r="U218" s="1"/>
+      <c r="V218" s="1"/>
+    </row>
+    <row r="219" spans="1:22">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6004,8 +7538,13 @@
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
-    </row>
-    <row r="220" spans="1:17">
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+      <c r="U219" s="1"/>
+      <c r="V219" s="1"/>
+    </row>
+    <row r="220" spans="1:22">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6023,8 +7562,13 @@
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
-    </row>
-    <row r="221" spans="1:17">
+      <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
+      <c r="U220" s="1"/>
+      <c r="V220" s="1"/>
+    </row>
+    <row r="221" spans="1:22">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6042,8 +7586,13 @@
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
-    </row>
-    <row r="222" spans="1:17">
+      <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
+      <c r="U221" s="1"/>
+      <c r="V221" s="1"/>
+    </row>
+    <row r="222" spans="1:22">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6061,8 +7610,13 @@
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
-    </row>
-    <row r="223" spans="1:17">
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+      <c r="U222" s="1"/>
+      <c r="V222" s="1"/>
+    </row>
+    <row r="223" spans="1:22">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6080,8 +7634,13 @@
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
-    </row>
-    <row r="224" spans="1:17">
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+      <c r="U223" s="1"/>
+      <c r="V223" s="1"/>
+    </row>
+    <row r="224" spans="1:22">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6099,8 +7658,13 @@
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
-    </row>
-    <row r="225" spans="1:17">
+      <c r="R224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
+      <c r="U224" s="1"/>
+      <c r="V224" s="1"/>
+    </row>
+    <row r="225" spans="1:22">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6118,8 +7682,13 @@
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
-    </row>
-    <row r="226" spans="1:17">
+      <c r="R225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
+      <c r="U225" s="1"/>
+      <c r="V225" s="1"/>
+    </row>
+    <row r="226" spans="1:22">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6137,8 +7706,13 @@
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
-    </row>
-    <row r="227" spans="1:17">
+      <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
+      <c r="U226" s="1"/>
+      <c r="V226" s="1"/>
+    </row>
+    <row r="227" spans="1:22">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6156,8 +7730,13 @@
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
-    </row>
-    <row r="228" spans="1:17">
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+      <c r="U227" s="1"/>
+      <c r="V227" s="1"/>
+    </row>
+    <row r="228" spans="1:22">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6175,8 +7754,13 @@
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
-    </row>
-    <row r="229" spans="1:17">
+      <c r="R228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="T228" s="1"/>
+      <c r="U228" s="1"/>
+      <c r="V228" s="1"/>
+    </row>
+    <row r="229" spans="1:22">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6194,8 +7778,13 @@
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
-    </row>
-    <row r="230" spans="1:17">
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
+      <c r="U229" s="1"/>
+      <c r="V229" s="1"/>
+    </row>
+    <row r="230" spans="1:22">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6213,8 +7802,13 @@
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
-    </row>
-    <row r="231" spans="1:17">
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+      <c r="U230" s="1"/>
+      <c r="V230" s="1"/>
+    </row>
+    <row r="231" spans="1:22">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6232,8 +7826,13 @@
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
-    </row>
-    <row r="232" spans="1:17">
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+      <c r="V231" s="1"/>
+    </row>
+    <row r="232" spans="1:22">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6251,8 +7850,13 @@
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
-    </row>
-    <row r="233" spans="1:17">
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="1"/>
+    </row>
+    <row r="233" spans="1:22">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6270,8 +7874,13 @@
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
-    </row>
-    <row r="234" spans="1:17">
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="1"/>
+    </row>
+    <row r="234" spans="1:22">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6289,8 +7898,13 @@
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
-    </row>
-    <row r="235" spans="1:17">
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+      <c r="U234" s="1"/>
+      <c r="V234" s="1"/>
+    </row>
+    <row r="235" spans="1:22">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -6308,8 +7922,13 @@
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
-    </row>
-    <row r="236" spans="1:17">
+      <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
+      <c r="U235" s="1"/>
+      <c r="V235" s="1"/>
+    </row>
+    <row r="236" spans="1:22">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -6327,8 +7946,13 @@
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
-    </row>
-    <row r="237" spans="1:17">
+      <c r="R236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="T236" s="1"/>
+      <c r="U236" s="1"/>
+      <c r="V236" s="1"/>
+    </row>
+    <row r="237" spans="1:22">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -6346,8 +7970,13 @@
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
-    </row>
-    <row r="238" spans="1:17">
+      <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
+      <c r="U237" s="1"/>
+      <c r="V237" s="1"/>
+    </row>
+    <row r="238" spans="1:22">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -6365,8 +7994,13 @@
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
-    </row>
-    <row r="239" spans="1:17">
+      <c r="R238" s="1"/>
+      <c r="S238" s="1"/>
+      <c r="T238" s="1"/>
+      <c r="U238" s="1"/>
+      <c r="V238" s="1"/>
+    </row>
+    <row r="239" spans="1:22">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -6384,8 +8018,13 @@
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
-    </row>
-    <row r="240" spans="1:17">
+      <c r="R239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="1"/>
+      <c r="U239" s="1"/>
+      <c r="V239" s="1"/>
+    </row>
+    <row r="240" spans="1:22">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -6403,8 +8042,13 @@
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
-    </row>
-    <row r="241" spans="1:17">
+      <c r="R240" s="1"/>
+      <c r="S240" s="1"/>
+      <c r="T240" s="1"/>
+      <c r="U240" s="1"/>
+      <c r="V240" s="1"/>
+    </row>
+    <row r="241" spans="1:22">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -6422,8 +8066,13 @@
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
-    </row>
-    <row r="242" spans="1:17">
+      <c r="R241" s="1"/>
+      <c r="S241" s="1"/>
+      <c r="T241" s="1"/>
+      <c r="U241" s="1"/>
+      <c r="V241" s="1"/>
+    </row>
+    <row r="242" spans="1:22">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -6441,8 +8090,13 @@
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
-    </row>
-    <row r="243" spans="1:17">
+      <c r="R242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="1"/>
+      <c r="U242" s="1"/>
+      <c r="V242" s="1"/>
+    </row>
+    <row r="243" spans="1:22">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -6460,8 +8114,13 @@
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
-    </row>
-    <row r="244" spans="1:17">
+      <c r="R243" s="1"/>
+      <c r="S243" s="1"/>
+      <c r="T243" s="1"/>
+      <c r="U243" s="1"/>
+      <c r="V243" s="1"/>
+    </row>
+    <row r="244" spans="1:22">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -6479,8 +8138,13 @@
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
-    </row>
-    <row r="245" spans="1:17">
+      <c r="R244" s="1"/>
+      <c r="S244" s="1"/>
+      <c r="T244" s="1"/>
+      <c r="U244" s="1"/>
+      <c r="V244" s="1"/>
+    </row>
+    <row r="245" spans="1:22">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -6498,8 +8162,13 @@
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
-    </row>
-    <row r="246" spans="1:17">
+      <c r="R245" s="1"/>
+      <c r="S245" s="1"/>
+      <c r="T245" s="1"/>
+      <c r="U245" s="1"/>
+      <c r="V245" s="1"/>
+    </row>
+    <row r="246" spans="1:22">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -6517,8 +8186,13 @@
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
-    </row>
-    <row r="247" spans="1:17">
+      <c r="R246" s="1"/>
+      <c r="S246" s="1"/>
+      <c r="T246" s="1"/>
+      <c r="U246" s="1"/>
+      <c r="V246" s="1"/>
+    </row>
+    <row r="247" spans="1:22">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -6536,8 +8210,13 @@
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
-    </row>
-    <row r="248" spans="1:17">
+      <c r="R247" s="1"/>
+      <c r="S247" s="1"/>
+      <c r="T247" s="1"/>
+      <c r="U247" s="1"/>
+      <c r="V247" s="1"/>
+    </row>
+    <row r="248" spans="1:22">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -6555,8 +8234,13 @@
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
-    </row>
-    <row r="249" spans="1:17">
+      <c r="R248" s="1"/>
+      <c r="S248" s="1"/>
+      <c r="T248" s="1"/>
+      <c r="U248" s="1"/>
+      <c r="V248" s="1"/>
+    </row>
+    <row r="249" spans="1:22">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -6574,8 +8258,13 @@
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
-    </row>
-    <row r="250" spans="1:17">
+      <c r="R249" s="1"/>
+      <c r="S249" s="1"/>
+      <c r="T249" s="1"/>
+      <c r="U249" s="1"/>
+      <c r="V249" s="1"/>
+    </row>
+    <row r="250" spans="1:22">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -6593,8 +8282,13 @@
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
-    </row>
-    <row r="251" spans="1:17">
+      <c r="R250" s="1"/>
+      <c r="S250" s="1"/>
+      <c r="T250" s="1"/>
+      <c r="U250" s="1"/>
+      <c r="V250" s="1"/>
+    </row>
+    <row r="251" spans="1:22">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -6612,8 +8306,13 @@
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
-    </row>
-    <row r="252" spans="1:17">
+      <c r="R251" s="1"/>
+      <c r="S251" s="1"/>
+      <c r="T251" s="1"/>
+      <c r="U251" s="1"/>
+      <c r="V251" s="1"/>
+    </row>
+    <row r="252" spans="1:22">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -6631,8 +8330,13 @@
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
-    </row>
-    <row r="253" spans="1:17">
+      <c r="R252" s="1"/>
+      <c r="S252" s="1"/>
+      <c r="T252" s="1"/>
+      <c r="U252" s="1"/>
+      <c r="V252" s="1"/>
+    </row>
+    <row r="253" spans="1:22">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -6650,8 +8354,13 @@
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
-    </row>
-    <row r="254" spans="1:17">
+      <c r="R253" s="1"/>
+      <c r="S253" s="1"/>
+      <c r="T253" s="1"/>
+      <c r="U253" s="1"/>
+      <c r="V253" s="1"/>
+    </row>
+    <row r="254" spans="1:22">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -6669,8 +8378,13 @@
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
-    </row>
-    <row r="255" spans="1:17">
+      <c r="R254" s="1"/>
+      <c r="S254" s="1"/>
+      <c r="T254" s="1"/>
+      <c r="U254" s="1"/>
+      <c r="V254" s="1"/>
+    </row>
+    <row r="255" spans="1:22">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -6688,8 +8402,13 @@
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
-    </row>
-    <row r="256" spans="1:17">
+      <c r="R255" s="1"/>
+      <c r="S255" s="1"/>
+      <c r="T255" s="1"/>
+      <c r="U255" s="1"/>
+      <c r="V255" s="1"/>
+    </row>
+    <row r="256" spans="1:22">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -6707,8 +8426,13 @@
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
-    </row>
-    <row r="257" spans="1:17">
+      <c r="R256" s="1"/>
+      <c r="S256" s="1"/>
+      <c r="T256" s="1"/>
+      <c r="U256" s="1"/>
+      <c r="V256" s="1"/>
+    </row>
+    <row r="257" spans="1:22">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -6726,8 +8450,13 @@
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
-    </row>
-    <row r="258" spans="1:17">
+      <c r="R257" s="1"/>
+      <c r="S257" s="1"/>
+      <c r="T257" s="1"/>
+      <c r="U257" s="1"/>
+      <c r="V257" s="1"/>
+    </row>
+    <row r="258" spans="1:22">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -6745,8 +8474,13 @@
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
-    </row>
-    <row r="259" spans="1:17">
+      <c r="R258" s="1"/>
+      <c r="S258" s="1"/>
+      <c r="T258" s="1"/>
+      <c r="U258" s="1"/>
+      <c r="V258" s="1"/>
+    </row>
+    <row r="259" spans="1:22">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -6764,8 +8498,13 @@
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
-    </row>
-    <row r="260" spans="1:17">
+      <c r="R259" s="1"/>
+      <c r="S259" s="1"/>
+      <c r="T259" s="1"/>
+      <c r="U259" s="1"/>
+      <c r="V259" s="1"/>
+    </row>
+    <row r="260" spans="1:22">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -6783,8 +8522,13 @@
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
-    </row>
-    <row r="261" spans="1:17">
+      <c r="R260" s="1"/>
+      <c r="S260" s="1"/>
+      <c r="T260" s="1"/>
+      <c r="U260" s="1"/>
+      <c r="V260" s="1"/>
+    </row>
+    <row r="261" spans="1:22">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -6802,8 +8546,13 @@
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
-    </row>
-    <row r="262" spans="1:17">
+      <c r="R261" s="1"/>
+      <c r="S261" s="1"/>
+      <c r="T261" s="1"/>
+      <c r="U261" s="1"/>
+      <c r="V261" s="1"/>
+    </row>
+    <row r="262" spans="1:22">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -6821,8 +8570,13 @@
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
-    </row>
-    <row r="263" spans="1:17">
+      <c r="R262" s="1"/>
+      <c r="S262" s="1"/>
+      <c r="T262" s="1"/>
+      <c r="U262" s="1"/>
+      <c r="V262" s="1"/>
+    </row>
+    <row r="263" spans="1:22">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -6840,8 +8594,13 @@
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
-    </row>
-    <row r="264" spans="1:17">
+      <c r="R263" s="1"/>
+      <c r="S263" s="1"/>
+      <c r="T263" s="1"/>
+      <c r="U263" s="1"/>
+      <c r="V263" s="1"/>
+    </row>
+    <row r="264" spans="1:22">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -6859,8 +8618,13 @@
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
-    </row>
-    <row r="265" spans="1:17">
+      <c r="R264" s="1"/>
+      <c r="S264" s="1"/>
+      <c r="T264" s="1"/>
+      <c r="U264" s="1"/>
+      <c r="V264" s="1"/>
+    </row>
+    <row r="265" spans="1:22">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -6878,8 +8642,13 @@
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
-    </row>
-    <row r="266" spans="1:17">
+      <c r="R265" s="1"/>
+      <c r="S265" s="1"/>
+      <c r="T265" s="1"/>
+      <c r="U265" s="1"/>
+      <c r="V265" s="1"/>
+    </row>
+    <row r="266" spans="1:22">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -6897,8 +8666,13 @@
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
-    </row>
-    <row r="267" spans="1:17">
+      <c r="R266" s="1"/>
+      <c r="S266" s="1"/>
+      <c r="T266" s="1"/>
+      <c r="U266" s="1"/>
+      <c r="V266" s="1"/>
+    </row>
+    <row r="267" spans="1:22">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -6916,8 +8690,13 @@
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
-    </row>
-    <row r="268" spans="1:17">
+      <c r="R267" s="1"/>
+      <c r="S267" s="1"/>
+      <c r="T267" s="1"/>
+      <c r="U267" s="1"/>
+      <c r="V267" s="1"/>
+    </row>
+    <row r="268" spans="1:22">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -6935,8 +8714,13 @@
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
-    </row>
-    <row r="269" spans="1:17">
+      <c r="R268" s="1"/>
+      <c r="S268" s="1"/>
+      <c r="T268" s="1"/>
+      <c r="U268" s="1"/>
+      <c r="V268" s="1"/>
+    </row>
+    <row r="269" spans="1:22">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -6954,8 +8738,13 @@
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
-    </row>
-    <row r="270" spans="1:17">
+      <c r="R269" s="1"/>
+      <c r="S269" s="1"/>
+      <c r="T269" s="1"/>
+      <c r="U269" s="1"/>
+      <c r="V269" s="1"/>
+    </row>
+    <row r="270" spans="1:22">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -6973,8 +8762,13 @@
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
-    </row>
-    <row r="271" spans="1:17">
+      <c r="R270" s="1"/>
+      <c r="S270" s="1"/>
+      <c r="T270" s="1"/>
+      <c r="U270" s="1"/>
+      <c r="V270" s="1"/>
+    </row>
+    <row r="271" spans="1:22">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -6992,8 +8786,13 @@
       <c r="O271" s="1"/>
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
-    </row>
-    <row r="272" spans="1:17">
+      <c r="R271" s="1"/>
+      <c r="S271" s="1"/>
+      <c r="T271" s="1"/>
+      <c r="U271" s="1"/>
+      <c r="V271" s="1"/>
+    </row>
+    <row r="272" spans="1:22">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -7011,8 +8810,13 @@
       <c r="O272" s="1"/>
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
-    </row>
-    <row r="273" spans="1:17">
+      <c r="R272" s="1"/>
+      <c r="S272" s="1"/>
+      <c r="T272" s="1"/>
+      <c r="U272" s="1"/>
+      <c r="V272" s="1"/>
+    </row>
+    <row r="273" spans="1:22">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -7030,8 +8834,13 @@
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
-    </row>
-    <row r="274" spans="1:17">
+      <c r="R273" s="1"/>
+      <c r="S273" s="1"/>
+      <c r="T273" s="1"/>
+      <c r="U273" s="1"/>
+      <c r="V273" s="1"/>
+    </row>
+    <row r="274" spans="1:22">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -7049,8 +8858,13 @@
       <c r="O274" s="1"/>
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
-    </row>
-    <row r="275" spans="1:17">
+      <c r="R274" s="1"/>
+      <c r="S274" s="1"/>
+      <c r="T274" s="1"/>
+      <c r="U274" s="1"/>
+      <c r="V274" s="1"/>
+    </row>
+    <row r="275" spans="1:22">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -7068,8 +8882,13 @@
       <c r="O275" s="1"/>
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
-    </row>
-    <row r="276" spans="1:17">
+      <c r="R275" s="1"/>
+      <c r="S275" s="1"/>
+      <c r="T275" s="1"/>
+      <c r="U275" s="1"/>
+      <c r="V275" s="1"/>
+    </row>
+    <row r="276" spans="1:22">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -7087,8 +8906,13 @@
       <c r="O276" s="1"/>
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
-    </row>
-    <row r="277" spans="1:17">
+      <c r="R276" s="1"/>
+      <c r="S276" s="1"/>
+      <c r="T276" s="1"/>
+      <c r="U276" s="1"/>
+      <c r="V276" s="1"/>
+    </row>
+    <row r="277" spans="1:22">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -7106,8 +8930,13 @@
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
-    </row>
-    <row r="278" spans="1:17">
+      <c r="R277" s="1"/>
+      <c r="S277" s="1"/>
+      <c r="T277" s="1"/>
+      <c r="U277" s="1"/>
+      <c r="V277" s="1"/>
+    </row>
+    <row r="278" spans="1:22">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -7125,8 +8954,13 @@
       <c r="O278" s="1"/>
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
-    </row>
-    <row r="279" spans="1:17">
+      <c r="R278" s="1"/>
+      <c r="S278" s="1"/>
+      <c r="T278" s="1"/>
+      <c r="U278" s="1"/>
+      <c r="V278" s="1"/>
+    </row>
+    <row r="279" spans="1:22">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -7144,8 +8978,13 @@
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
-    </row>
-    <row r="280" spans="1:17">
+      <c r="R279" s="1"/>
+      <c r="S279" s="1"/>
+      <c r="T279" s="1"/>
+      <c r="U279" s="1"/>
+      <c r="V279" s="1"/>
+    </row>
+    <row r="280" spans="1:22">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -7163,8 +9002,13 @@
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
-    </row>
-    <row r="281" spans="1:17">
+      <c r="R280" s="1"/>
+      <c r="S280" s="1"/>
+      <c r="T280" s="1"/>
+      <c r="U280" s="1"/>
+      <c r="V280" s="1"/>
+    </row>
+    <row r="281" spans="1:22">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -7182,8 +9026,13 @@
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
-    </row>
-    <row r="282" spans="1:17">
+      <c r="R281" s="1"/>
+      <c r="S281" s="1"/>
+      <c r="T281" s="1"/>
+      <c r="U281" s="1"/>
+      <c r="V281" s="1"/>
+    </row>
+    <row r="282" spans="1:22">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -7201,8 +9050,13 @@
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
-    </row>
-    <row r="283" spans="1:17">
+      <c r="R282" s="1"/>
+      <c r="S282" s="1"/>
+      <c r="T282" s="1"/>
+      <c r="U282" s="1"/>
+      <c r="V282" s="1"/>
+    </row>
+    <row r="283" spans="1:22">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -7220,8 +9074,13 @@
       <c r="O283" s="1"/>
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
-    </row>
-    <row r="284" spans="1:17">
+      <c r="R283" s="1"/>
+      <c r="S283" s="1"/>
+      <c r="T283" s="1"/>
+      <c r="U283" s="1"/>
+      <c r="V283" s="1"/>
+    </row>
+    <row r="284" spans="1:22">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -7239,8 +9098,13 @@
       <c r="O284" s="1"/>
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
-    </row>
-    <row r="285" spans="1:17">
+      <c r="R284" s="1"/>
+      <c r="S284" s="1"/>
+      <c r="T284" s="1"/>
+      <c r="U284" s="1"/>
+      <c r="V284" s="1"/>
+    </row>
+    <row r="285" spans="1:22">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -7258,8 +9122,13 @@
       <c r="O285" s="1"/>
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
-    </row>
-    <row r="286" spans="1:17">
+      <c r="R285" s="1"/>
+      <c r="S285" s="1"/>
+      <c r="T285" s="1"/>
+      <c r="U285" s="1"/>
+      <c r="V285" s="1"/>
+    </row>
+    <row r="286" spans="1:22">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -7277,8 +9146,13 @@
       <c r="O286" s="1"/>
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
-    </row>
-    <row r="287" spans="1:17">
+      <c r="R286" s="1"/>
+      <c r="S286" s="1"/>
+      <c r="T286" s="1"/>
+      <c r="U286" s="1"/>
+      <c r="V286" s="1"/>
+    </row>
+    <row r="287" spans="1:22">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -7296,8 +9170,13 @@
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
-    </row>
-    <row r="288" spans="1:17">
+      <c r="R287" s="1"/>
+      <c r="S287" s="1"/>
+      <c r="T287" s="1"/>
+      <c r="U287" s="1"/>
+      <c r="V287" s="1"/>
+    </row>
+    <row r="288" spans="1:22">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -7315,8 +9194,13 @@
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
-    </row>
-    <row r="289" spans="1:17">
+      <c r="R288" s="1"/>
+      <c r="S288" s="1"/>
+      <c r="T288" s="1"/>
+      <c r="U288" s="1"/>
+      <c r="V288" s="1"/>
+    </row>
+    <row r="289" spans="1:22">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -7334,8 +9218,13 @@
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
-    </row>
-    <row r="290" spans="1:17">
+      <c r="R289" s="1"/>
+      <c r="S289" s="1"/>
+      <c r="T289" s="1"/>
+      <c r="U289" s="1"/>
+      <c r="V289" s="1"/>
+    </row>
+    <row r="290" spans="1:22">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -7353,8 +9242,13 @@
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
-    </row>
-    <row r="291" spans="1:17">
+      <c r="R290" s="1"/>
+      <c r="S290" s="1"/>
+      <c r="T290" s="1"/>
+      <c r="U290" s="1"/>
+      <c r="V290" s="1"/>
+    </row>
+    <row r="291" spans="1:22">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -7372,8 +9266,13 @@
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
-    </row>
-    <row r="292" spans="1:17">
+      <c r="R291" s="1"/>
+      <c r="S291" s="1"/>
+      <c r="T291" s="1"/>
+      <c r="U291" s="1"/>
+      <c r="V291" s="1"/>
+    </row>
+    <row r="292" spans="1:22">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -7391,8 +9290,13 @@
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
-    </row>
-    <row r="293" spans="1:17">
+      <c r="R292" s="1"/>
+      <c r="S292" s="1"/>
+      <c r="T292" s="1"/>
+      <c r="U292" s="1"/>
+      <c r="V292" s="1"/>
+    </row>
+    <row r="293" spans="1:22">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -7410,8 +9314,13 @@
       <c r="O293" s="1"/>
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
-    </row>
-    <row r="294" spans="1:17">
+      <c r="R293" s="1"/>
+      <c r="S293" s="1"/>
+      <c r="T293" s="1"/>
+      <c r="U293" s="1"/>
+      <c r="V293" s="1"/>
+    </row>
+    <row r="294" spans="1:22">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -7429,8 +9338,13 @@
       <c r="O294" s="1"/>
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
-    </row>
-    <row r="295" spans="1:17">
+      <c r="R294" s="1"/>
+      <c r="S294" s="1"/>
+      <c r="T294" s="1"/>
+      <c r="U294" s="1"/>
+      <c r="V294" s="1"/>
+    </row>
+    <row r="295" spans="1:22">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -7448,8 +9362,13 @@
       <c r="O295" s="1"/>
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
-    </row>
-    <row r="296" spans="1:17">
+      <c r="R295" s="1"/>
+      <c r="S295" s="1"/>
+      <c r="T295" s="1"/>
+      <c r="U295" s="1"/>
+      <c r="V295" s="1"/>
+    </row>
+    <row r="296" spans="1:22">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -7467,8 +9386,13 @@
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
-    </row>
-    <row r="297" spans="1:17">
+      <c r="R296" s="1"/>
+      <c r="S296" s="1"/>
+      <c r="T296" s="1"/>
+      <c r="U296" s="1"/>
+      <c r="V296" s="1"/>
+    </row>
+    <row r="297" spans="1:22">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -7486,8 +9410,13 @@
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
-    </row>
-    <row r="298" spans="1:17">
+      <c r="R297" s="1"/>
+      <c r="S297" s="1"/>
+      <c r="T297" s="1"/>
+      <c r="U297" s="1"/>
+      <c r="V297" s="1"/>
+    </row>
+    <row r="298" spans="1:22">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -7505,8 +9434,13 @@
       <c r="O298" s="1"/>
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
-    </row>
-    <row r="299" spans="1:17">
+      <c r="R298" s="1"/>
+      <c r="S298" s="1"/>
+      <c r="T298" s="1"/>
+      <c r="U298" s="1"/>
+      <c r="V298" s="1"/>
+    </row>
+    <row r="299" spans="1:22">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -7524,8 +9458,13 @@
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
-    </row>
-    <row r="300" spans="1:17">
+      <c r="R299" s="1"/>
+      <c r="S299" s="1"/>
+      <c r="T299" s="1"/>
+      <c r="U299" s="1"/>
+      <c r="V299" s="1"/>
+    </row>
+    <row r="300" spans="1:22">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -7543,8 +9482,13 @@
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
-    </row>
-    <row r="301" spans="1:17">
+      <c r="R300" s="1"/>
+      <c r="S300" s="1"/>
+      <c r="T300" s="1"/>
+      <c r="U300" s="1"/>
+      <c r="V300" s="1"/>
+    </row>
+    <row r="301" spans="1:22">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -7562,8 +9506,13 @@
       <c r="O301" s="1"/>
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
-    </row>
-    <row r="302" spans="1:17">
+      <c r="R301" s="1"/>
+      <c r="S301" s="1"/>
+      <c r="T301" s="1"/>
+      <c r="U301" s="1"/>
+      <c r="V301" s="1"/>
+    </row>
+    <row r="302" spans="1:22">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -7581,8 +9530,13 @@
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
-    </row>
-    <row r="303" spans="1:17">
+      <c r="R302" s="1"/>
+      <c r="S302" s="1"/>
+      <c r="T302" s="1"/>
+      <c r="U302" s="1"/>
+      <c r="V302" s="1"/>
+    </row>
+    <row r="303" spans="1:22">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -7600,8 +9554,13 @@
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
-    </row>
-    <row r="304" spans="1:17">
+      <c r="R303" s="1"/>
+      <c r="S303" s="1"/>
+      <c r="T303" s="1"/>
+      <c r="U303" s="1"/>
+      <c r="V303" s="1"/>
+    </row>
+    <row r="304" spans="1:22">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -7619,8 +9578,13 @@
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
-    </row>
-    <row r="305" spans="1:17">
+      <c r="R304" s="1"/>
+      <c r="S304" s="1"/>
+      <c r="T304" s="1"/>
+      <c r="U304" s="1"/>
+      <c r="V304" s="1"/>
+    </row>
+    <row r="305" spans="1:22">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -7638,8 +9602,13 @@
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
-    </row>
-    <row r="306" spans="1:17">
+      <c r="R305" s="1"/>
+      <c r="S305" s="1"/>
+      <c r="T305" s="1"/>
+      <c r="U305" s="1"/>
+      <c r="V305" s="1"/>
+    </row>
+    <row r="306" spans="1:22">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -7657,8 +9626,13 @@
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
       <c r="Q306" s="1"/>
-    </row>
-    <row r="307" spans="1:17">
+      <c r="R306" s="1"/>
+      <c r="S306" s="1"/>
+      <c r="T306" s="1"/>
+      <c r="U306" s="1"/>
+      <c r="V306" s="1"/>
+    </row>
+    <row r="307" spans="1:22">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -7676,8 +9650,13 @@
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
-    </row>
-    <row r="308" spans="1:17">
+      <c r="R307" s="1"/>
+      <c r="S307" s="1"/>
+      <c r="T307" s="1"/>
+      <c r="U307" s="1"/>
+      <c r="V307" s="1"/>
+    </row>
+    <row r="308" spans="1:22">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -7695,8 +9674,13 @@
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
-    </row>
-    <row r="309" spans="1:17">
+      <c r="R308" s="1"/>
+      <c r="S308" s="1"/>
+      <c r="T308" s="1"/>
+      <c r="U308" s="1"/>
+      <c r="V308" s="1"/>
+    </row>
+    <row r="309" spans="1:22">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -7714,8 +9698,13 @@
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
-    </row>
-    <row r="310" spans="1:17">
+      <c r="R309" s="1"/>
+      <c r="S309" s="1"/>
+      <c r="T309" s="1"/>
+      <c r="U309" s="1"/>
+      <c r="V309" s="1"/>
+    </row>
+    <row r="310" spans="1:22">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -7733,8 +9722,13 @@
       <c r="O310" s="1"/>
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
-    </row>
-    <row r="311" spans="1:17">
+      <c r="R310" s="1"/>
+      <c r="S310" s="1"/>
+      <c r="T310" s="1"/>
+      <c r="U310" s="1"/>
+      <c r="V310" s="1"/>
+    </row>
+    <row r="311" spans="1:22">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -7752,8 +9746,13 @@
       <c r="O311" s="1"/>
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
-    </row>
-    <row r="312" spans="1:17">
+      <c r="R311" s="1"/>
+      <c r="S311" s="1"/>
+      <c r="T311" s="1"/>
+      <c r="U311" s="1"/>
+      <c r="V311" s="1"/>
+    </row>
+    <row r="312" spans="1:22">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -7771,8 +9770,13 @@
       <c r="O312" s="1"/>
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
-    </row>
-    <row r="313" spans="1:17">
+      <c r="R312" s="1"/>
+      <c r="S312" s="1"/>
+      <c r="T312" s="1"/>
+      <c r="U312" s="1"/>
+      <c r="V312" s="1"/>
+    </row>
+    <row r="313" spans="1:22">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -7790,8 +9794,13 @@
       <c r="O313" s="1"/>
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
-    </row>
-    <row r="314" spans="1:17">
+      <c r="R313" s="1"/>
+      <c r="S313" s="1"/>
+      <c r="T313" s="1"/>
+      <c r="U313" s="1"/>
+      <c r="V313" s="1"/>
+    </row>
+    <row r="314" spans="1:22">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -7809,8 +9818,13 @@
       <c r="O314" s="1"/>
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
-    </row>
-    <row r="315" spans="1:17">
+      <c r="R314" s="1"/>
+      <c r="S314" s="1"/>
+      <c r="T314" s="1"/>
+      <c r="U314" s="1"/>
+      <c r="V314" s="1"/>
+    </row>
+    <row r="315" spans="1:22">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -7828,8 +9842,13 @@
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
-    </row>
-    <row r="316" spans="1:17">
+      <c r="R315" s="1"/>
+      <c r="S315" s="1"/>
+      <c r="T315" s="1"/>
+      <c r="U315" s="1"/>
+      <c r="V315" s="1"/>
+    </row>
+    <row r="316" spans="1:22">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -7847,8 +9866,13 @@
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
-    </row>
-    <row r="317" spans="1:17">
+      <c r="R316" s="1"/>
+      <c r="S316" s="1"/>
+      <c r="T316" s="1"/>
+      <c r="U316" s="1"/>
+      <c r="V316" s="1"/>
+    </row>
+    <row r="317" spans="1:22">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -7866,8 +9890,13 @@
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
-    </row>
-    <row r="318" spans="1:17">
+      <c r="R317" s="1"/>
+      <c r="S317" s="1"/>
+      <c r="T317" s="1"/>
+      <c r="U317" s="1"/>
+      <c r="V317" s="1"/>
+    </row>
+    <row r="318" spans="1:22">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -7885,8 +9914,13 @@
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
-    </row>
-    <row r="319" spans="1:17">
+      <c r="R318" s="1"/>
+      <c r="S318" s="1"/>
+      <c r="T318" s="1"/>
+      <c r="U318" s="1"/>
+      <c r="V318" s="1"/>
+    </row>
+    <row r="319" spans="1:22">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -7904,8 +9938,13 @@
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
-    </row>
-    <row r="320" spans="1:17">
+      <c r="R319" s="1"/>
+      <c r="S319" s="1"/>
+      <c r="T319" s="1"/>
+      <c r="U319" s="1"/>
+      <c r="V319" s="1"/>
+    </row>
+    <row r="320" spans="1:22">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -7923,8 +9962,13 @@
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
-    </row>
-    <row r="321" spans="1:17">
+      <c r="R320" s="1"/>
+      <c r="S320" s="1"/>
+      <c r="T320" s="1"/>
+      <c r="U320" s="1"/>
+      <c r="V320" s="1"/>
+    </row>
+    <row r="321" spans="1:22">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -7942,8 +9986,13 @@
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
-    </row>
-    <row r="322" spans="1:17">
+      <c r="R321" s="1"/>
+      <c r="S321" s="1"/>
+      <c r="T321" s="1"/>
+      <c r="U321" s="1"/>
+      <c r="V321" s="1"/>
+    </row>
+    <row r="322" spans="1:22">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -7961,8 +10010,13 @@
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
       <c r="Q322" s="1"/>
-    </row>
-    <row r="323" spans="1:17">
+      <c r="R322" s="1"/>
+      <c r="S322" s="1"/>
+      <c r="T322" s="1"/>
+      <c r="U322" s="1"/>
+      <c r="V322" s="1"/>
+    </row>
+    <row r="323" spans="1:22">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -7980,8 +10034,13 @@
       <c r="O323" s="1"/>
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
-    </row>
-    <row r="324" spans="1:17">
+      <c r="R323" s="1"/>
+      <c r="S323" s="1"/>
+      <c r="T323" s="1"/>
+      <c r="U323" s="1"/>
+      <c r="V323" s="1"/>
+    </row>
+    <row r="324" spans="1:22">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -7999,8 +10058,13 @@
       <c r="O324" s="1"/>
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
-    </row>
-    <row r="325" spans="1:17">
+      <c r="R324" s="1"/>
+      <c r="S324" s="1"/>
+      <c r="T324" s="1"/>
+      <c r="U324" s="1"/>
+      <c r="V324" s="1"/>
+    </row>
+    <row r="325" spans="1:22">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -8018,8 +10082,13 @@
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
-    </row>
-    <row r="326" spans="1:17">
+      <c r="R325" s="1"/>
+      <c r="S325" s="1"/>
+      <c r="T325" s="1"/>
+      <c r="U325" s="1"/>
+      <c r="V325" s="1"/>
+    </row>
+    <row r="326" spans="1:22">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -8037,8 +10106,13 @@
       <c r="O326" s="1"/>
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
-    </row>
-    <row r="327" spans="1:17">
+      <c r="R326" s="1"/>
+      <c r="S326" s="1"/>
+      <c r="T326" s="1"/>
+      <c r="U326" s="1"/>
+      <c r="V326" s="1"/>
+    </row>
+    <row r="327" spans="1:22">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -8056,8 +10130,13 @@
       <c r="O327" s="1"/>
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
-    </row>
-    <row r="328" spans="1:17">
+      <c r="R327" s="1"/>
+      <c r="S327" s="1"/>
+      <c r="T327" s="1"/>
+      <c r="U327" s="1"/>
+      <c r="V327" s="1"/>
+    </row>
+    <row r="328" spans="1:22">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -8075,8 +10154,13 @@
       <c r="O328" s="1"/>
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
-    </row>
-    <row r="329" spans="1:17">
+      <c r="R328" s="1"/>
+      <c r="S328" s="1"/>
+      <c r="T328" s="1"/>
+      <c r="U328" s="1"/>
+      <c r="V328" s="1"/>
+    </row>
+    <row r="329" spans="1:22">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -8094,8 +10178,13 @@
       <c r="O329" s="1"/>
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
-    </row>
-    <row r="330" spans="1:17">
+      <c r="R329" s="1"/>
+      <c r="S329" s="1"/>
+      <c r="T329" s="1"/>
+      <c r="U329" s="1"/>
+      <c r="V329" s="1"/>
+    </row>
+    <row r="330" spans="1:22">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -8113,8 +10202,13 @@
       <c r="O330" s="1"/>
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
-    </row>
-    <row r="331" spans="1:17">
+      <c r="R330" s="1"/>
+      <c r="S330" s="1"/>
+      <c r="T330" s="1"/>
+      <c r="U330" s="1"/>
+      <c r="V330" s="1"/>
+    </row>
+    <row r="331" spans="1:22">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -8132,8 +10226,13 @@
       <c r="O331" s="1"/>
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
-    </row>
-    <row r="332" spans="1:17">
+      <c r="R331" s="1"/>
+      <c r="S331" s="1"/>
+      <c r="T331" s="1"/>
+      <c r="U331" s="1"/>
+      <c r="V331" s="1"/>
+    </row>
+    <row r="332" spans="1:22">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -8151,8 +10250,13 @@
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
-    </row>
-    <row r="333" spans="1:17">
+      <c r="R332" s="1"/>
+      <c r="S332" s="1"/>
+      <c r="T332" s="1"/>
+      <c r="U332" s="1"/>
+      <c r="V332" s="1"/>
+    </row>
+    <row r="333" spans="1:22">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -8170,8 +10274,13 @@
       <c r="O333" s="1"/>
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
-    </row>
-    <row r="334" spans="1:17">
+      <c r="R333" s="1"/>
+      <c r="S333" s="1"/>
+      <c r="T333" s="1"/>
+      <c r="U333" s="1"/>
+      <c r="V333" s="1"/>
+    </row>
+    <row r="334" spans="1:22">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -8189,8 +10298,13 @@
       <c r="O334" s="1"/>
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
-    </row>
-    <row r="335" spans="1:17">
+      <c r="R334" s="1"/>
+      <c r="S334" s="1"/>
+      <c r="T334" s="1"/>
+      <c r="U334" s="1"/>
+      <c r="V334" s="1"/>
+    </row>
+    <row r="335" spans="1:22">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -8208,8 +10322,13 @@
       <c r="O335" s="1"/>
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
-    </row>
-    <row r="336" spans="1:17">
+      <c r="R335" s="1"/>
+      <c r="S335" s="1"/>
+      <c r="T335" s="1"/>
+      <c r="U335" s="1"/>
+      <c r="V335" s="1"/>
+    </row>
+    <row r="336" spans="1:22">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -8227,8 +10346,13 @@
       <c r="O336" s="1"/>
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
-    </row>
-    <row r="337" spans="1:17">
+      <c r="R336" s="1"/>
+      <c r="S336" s="1"/>
+      <c r="T336" s="1"/>
+      <c r="U336" s="1"/>
+      <c r="V336" s="1"/>
+    </row>
+    <row r="337" spans="1:22">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -8246,8 +10370,13 @@
       <c r="O337" s="1"/>
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
-    </row>
-    <row r="338" spans="1:17">
+      <c r="R337" s="1"/>
+      <c r="S337" s="1"/>
+      <c r="T337" s="1"/>
+      <c r="U337" s="1"/>
+      <c r="V337" s="1"/>
+    </row>
+    <row r="338" spans="1:22">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -8265,8 +10394,13 @@
       <c r="O338" s="1"/>
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
-    </row>
-    <row r="339" spans="1:17">
+      <c r="R338" s="1"/>
+      <c r="S338" s="1"/>
+      <c r="T338" s="1"/>
+      <c r="U338" s="1"/>
+      <c r="V338" s="1"/>
+    </row>
+    <row r="339" spans="1:22">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -8284,8 +10418,13 @@
       <c r="O339" s="1"/>
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
-    </row>
-    <row r="340" spans="1:17">
+      <c r="R339" s="1"/>
+      <c r="S339" s="1"/>
+      <c r="T339" s="1"/>
+      <c r="U339" s="1"/>
+      <c r="V339" s="1"/>
+    </row>
+    <row r="340" spans="1:22">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -8303,8 +10442,13 @@
       <c r="O340" s="1"/>
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
-    </row>
-    <row r="341" spans="1:17">
+      <c r="R340" s="1"/>
+      <c r="S340" s="1"/>
+      <c r="T340" s="1"/>
+      <c r="U340" s="1"/>
+      <c r="V340" s="1"/>
+    </row>
+    <row r="341" spans="1:22">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -8322,8 +10466,13 @@
       <c r="O341" s="1"/>
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
-    </row>
-    <row r="342" spans="1:17">
+      <c r="R341" s="1"/>
+      <c r="S341" s="1"/>
+      <c r="T341" s="1"/>
+      <c r="U341" s="1"/>
+      <c r="V341" s="1"/>
+    </row>
+    <row r="342" spans="1:22">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -8341,8 +10490,13 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
-    </row>
-    <row r="343" spans="1:17">
+      <c r="R342" s="1"/>
+      <c r="S342" s="1"/>
+      <c r="T342" s="1"/>
+      <c r="U342" s="1"/>
+      <c r="V342" s="1"/>
+    </row>
+    <row r="343" spans="1:22">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -8360,8 +10514,13 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
-    </row>
-    <row r="344" spans="1:17">
+      <c r="R343" s="1"/>
+      <c r="S343" s="1"/>
+      <c r="T343" s="1"/>
+      <c r="U343" s="1"/>
+      <c r="V343" s="1"/>
+    </row>
+    <row r="344" spans="1:22">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -8379,8 +10538,13 @@
       <c r="O344" s="1"/>
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
-    </row>
-    <row r="345" spans="1:17">
+      <c r="R344" s="1"/>
+      <c r="S344" s="1"/>
+      <c r="T344" s="1"/>
+      <c r="U344" s="1"/>
+      <c r="V344" s="1"/>
+    </row>
+    <row r="345" spans="1:22">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -8398,8 +10562,13 @@
       <c r="O345" s="1"/>
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
-    </row>
-    <row r="346" spans="1:17">
+      <c r="R345" s="1"/>
+      <c r="S345" s="1"/>
+      <c r="T345" s="1"/>
+      <c r="U345" s="1"/>
+      <c r="V345" s="1"/>
+    </row>
+    <row r="346" spans="1:22">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -8417,8 +10586,13 @@
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
-    </row>
-    <row r="347" spans="1:17">
+      <c r="R346" s="1"/>
+      <c r="S346" s="1"/>
+      <c r="T346" s="1"/>
+      <c r="U346" s="1"/>
+      <c r="V346" s="1"/>
+    </row>
+    <row r="347" spans="1:22">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -8436,8 +10610,13 @@
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
-    </row>
-    <row r="348" spans="1:17">
+      <c r="R347" s="1"/>
+      <c r="S347" s="1"/>
+      <c r="T347" s="1"/>
+      <c r="U347" s="1"/>
+      <c r="V347" s="1"/>
+    </row>
+    <row r="348" spans="1:22">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -8455,8 +10634,13 @@
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
-    </row>
-    <row r="349" spans="1:17">
+      <c r="R348" s="1"/>
+      <c r="S348" s="1"/>
+      <c r="T348" s="1"/>
+      <c r="U348" s="1"/>
+      <c r="V348" s="1"/>
+    </row>
+    <row r="349" spans="1:22">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -8474,8 +10658,13 @@
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
-    </row>
-    <row r="350" spans="1:17">
+      <c r="R349" s="1"/>
+      <c r="S349" s="1"/>
+      <c r="T349" s="1"/>
+      <c r="U349" s="1"/>
+      <c r="V349" s="1"/>
+    </row>
+    <row r="350" spans="1:22">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -8493,8 +10682,13 @@
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
-    </row>
-    <row r="351" spans="1:17">
+      <c r="R350" s="1"/>
+      <c r="S350" s="1"/>
+      <c r="T350" s="1"/>
+      <c r="U350" s="1"/>
+      <c r="V350" s="1"/>
+    </row>
+    <row r="351" spans="1:22">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -8512,8 +10706,13 @@
       <c r="O351" s="1"/>
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
-    </row>
-    <row r="352" spans="1:17">
+      <c r="R351" s="1"/>
+      <c r="S351" s="1"/>
+      <c r="T351" s="1"/>
+      <c r="U351" s="1"/>
+      <c r="V351" s="1"/>
+    </row>
+    <row r="352" spans="1:22">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -8531,8 +10730,13 @@
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
-    </row>
-    <row r="353" spans="1:17">
+      <c r="R352" s="1"/>
+      <c r="S352" s="1"/>
+      <c r="T352" s="1"/>
+      <c r="U352" s="1"/>
+      <c r="V352" s="1"/>
+    </row>
+    <row r="353" spans="1:22">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -8550,8 +10754,13 @@
       <c r="O353" s="1"/>
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
-    </row>
-    <row r="354" spans="1:17">
+      <c r="R353" s="1"/>
+      <c r="S353" s="1"/>
+      <c r="T353" s="1"/>
+      <c r="U353" s="1"/>
+      <c r="V353" s="1"/>
+    </row>
+    <row r="354" spans="1:22">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -8569,8 +10778,13 @@
       <c r="O354" s="1"/>
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
-    </row>
-    <row r="355" spans="1:17">
+      <c r="R354" s="1"/>
+      <c r="S354" s="1"/>
+      <c r="T354" s="1"/>
+      <c r="U354" s="1"/>
+      <c r="V354" s="1"/>
+    </row>
+    <row r="355" spans="1:22">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -8588,8 +10802,13 @@
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
-    </row>
-    <row r="356" spans="1:17">
+      <c r="R355" s="1"/>
+      <c r="S355" s="1"/>
+      <c r="T355" s="1"/>
+      <c r="U355" s="1"/>
+      <c r="V355" s="1"/>
+    </row>
+    <row r="356" spans="1:22">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -8607,8 +10826,13 @@
       <c r="O356" s="1"/>
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
-    </row>
-    <row r="357" spans="1:17">
+      <c r="R356" s="1"/>
+      <c r="S356" s="1"/>
+      <c r="T356" s="1"/>
+      <c r="U356" s="1"/>
+      <c r="V356" s="1"/>
+    </row>
+    <row r="357" spans="1:22">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -8626,8 +10850,13 @@
       <c r="O357" s="1"/>
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
-    </row>
-    <row r="358" spans="1:17">
+      <c r="R357" s="1"/>
+      <c r="S357" s="1"/>
+      <c r="T357" s="1"/>
+      <c r="U357" s="1"/>
+      <c r="V357" s="1"/>
+    </row>
+    <row r="358" spans="1:22">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -8645,8 +10874,13 @@
       <c r="O358" s="1"/>
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
-    </row>
-    <row r="359" spans="1:17">
+      <c r="R358" s="1"/>
+      <c r="S358" s="1"/>
+      <c r="T358" s="1"/>
+      <c r="U358" s="1"/>
+      <c r="V358" s="1"/>
+    </row>
+    <row r="359" spans="1:22">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -8664,8 +10898,13 @@
       <c r="O359" s="1"/>
       <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
-    </row>
-    <row r="360" spans="1:17">
+      <c r="R359" s="1"/>
+      <c r="S359" s="1"/>
+      <c r="T359" s="1"/>
+      <c r="U359" s="1"/>
+      <c r="V359" s="1"/>
+    </row>
+    <row r="360" spans="1:22">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -8683,8 +10922,13 @@
       <c r="O360" s="1"/>
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
-    </row>
-    <row r="361" spans="1:17">
+      <c r="R360" s="1"/>
+      <c r="S360" s="1"/>
+      <c r="T360" s="1"/>
+      <c r="U360" s="1"/>
+      <c r="V360" s="1"/>
+    </row>
+    <row r="361" spans="1:22">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -8702,8 +10946,13 @@
       <c r="O361" s="1"/>
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
-    </row>
-    <row r="362" spans="1:17">
+      <c r="R361" s="1"/>
+      <c r="S361" s="1"/>
+      <c r="T361" s="1"/>
+      <c r="U361" s="1"/>
+      <c r="V361" s="1"/>
+    </row>
+    <row r="362" spans="1:22">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -8721,8 +10970,13 @@
       <c r="O362" s="1"/>
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
-    </row>
-    <row r="363" spans="1:17">
+      <c r="R362" s="1"/>
+      <c r="S362" s="1"/>
+      <c r="T362" s="1"/>
+      <c r="U362" s="1"/>
+      <c r="V362" s="1"/>
+    </row>
+    <row r="363" spans="1:22">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -8740,8 +10994,13 @@
       <c r="O363" s="1"/>
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
-    </row>
-    <row r="364" spans="1:17">
+      <c r="R363" s="1"/>
+      <c r="S363" s="1"/>
+      <c r="T363" s="1"/>
+      <c r="U363" s="1"/>
+      <c r="V363" s="1"/>
+    </row>
+    <row r="364" spans="1:22">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -8759,8 +11018,13 @@
       <c r="O364" s="1"/>
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
-    </row>
-    <row r="365" spans="1:17">
+      <c r="R364" s="1"/>
+      <c r="S364" s="1"/>
+      <c r="T364" s="1"/>
+      <c r="U364" s="1"/>
+      <c r="V364" s="1"/>
+    </row>
+    <row r="365" spans="1:22">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -8778,8 +11042,13 @@
       <c r="O365" s="1"/>
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
-    </row>
-    <row r="366" spans="1:17">
+      <c r="R365" s="1"/>
+      <c r="S365" s="1"/>
+      <c r="T365" s="1"/>
+      <c r="U365" s="1"/>
+      <c r="V365" s="1"/>
+    </row>
+    <row r="366" spans="1:22">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -8797,8 +11066,13 @@
       <c r="O366" s="1"/>
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
-    </row>
-    <row r="367" spans="1:17">
+      <c r="R366" s="1"/>
+      <c r="S366" s="1"/>
+      <c r="T366" s="1"/>
+      <c r="U366" s="1"/>
+      <c r="V366" s="1"/>
+    </row>
+    <row r="367" spans="1:22">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -8816,8 +11090,13 @@
       <c r="O367" s="1"/>
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
-    </row>
-    <row r="368" spans="1:17">
+      <c r="R367" s="1"/>
+      <c r="S367" s="1"/>
+      <c r="T367" s="1"/>
+      <c r="U367" s="1"/>
+      <c r="V367" s="1"/>
+    </row>
+    <row r="368" spans="1:22">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -8835,8 +11114,13 @@
       <c r="O368" s="1"/>
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
-    </row>
-    <row r="369" spans="1:17">
+      <c r="R368" s="1"/>
+      <c r="S368" s="1"/>
+      <c r="T368" s="1"/>
+      <c r="U368" s="1"/>
+      <c r="V368" s="1"/>
+    </row>
+    <row r="369" spans="1:22">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -8854,8 +11138,13 @@
       <c r="O369" s="1"/>
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
-    </row>
-    <row r="370" spans="1:17">
+      <c r="R369" s="1"/>
+      <c r="S369" s="1"/>
+      <c r="T369" s="1"/>
+      <c r="U369" s="1"/>
+      <c r="V369" s="1"/>
+    </row>
+    <row r="370" spans="1:22">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -8873,8 +11162,13 @@
       <c r="O370" s="1"/>
       <c r="P370" s="1"/>
       <c r="Q370" s="1"/>
-    </row>
-    <row r="371" spans="1:17">
+      <c r="R370" s="1"/>
+      <c r="S370" s="1"/>
+      <c r="T370" s="1"/>
+      <c r="U370" s="1"/>
+      <c r="V370" s="1"/>
+    </row>
+    <row r="371" spans="1:22">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -8892,8 +11186,13 @@
       <c r="O371" s="1"/>
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
-    </row>
-    <row r="372" spans="1:17">
+      <c r="R371" s="1"/>
+      <c r="S371" s="1"/>
+      <c r="T371" s="1"/>
+      <c r="U371" s="1"/>
+      <c r="V371" s="1"/>
+    </row>
+    <row r="372" spans="1:22">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -8911,8 +11210,13 @@
       <c r="O372" s="1"/>
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
-    </row>
-    <row r="373" spans="1:17">
+      <c r="R372" s="1"/>
+      <c r="S372" s="1"/>
+      <c r="T372" s="1"/>
+      <c r="U372" s="1"/>
+      <c r="V372" s="1"/>
+    </row>
+    <row r="373" spans="1:22">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -8930,8 +11234,13 @@
       <c r="O373" s="1"/>
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
-    </row>
-    <row r="374" spans="1:17">
+      <c r="R373" s="1"/>
+      <c r="S373" s="1"/>
+      <c r="T373" s="1"/>
+      <c r="U373" s="1"/>
+      <c r="V373" s="1"/>
+    </row>
+    <row r="374" spans="1:22">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -8949,8 +11258,13 @@
       <c r="O374" s="1"/>
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
-    </row>
-    <row r="375" spans="1:17">
+      <c r="R374" s="1"/>
+      <c r="S374" s="1"/>
+      <c r="T374" s="1"/>
+      <c r="U374" s="1"/>
+      <c r="V374" s="1"/>
+    </row>
+    <row r="375" spans="1:22">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -8968,8 +11282,13 @@
       <c r="O375" s="1"/>
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
-    </row>
-    <row r="376" spans="1:17">
+      <c r="R375" s="1"/>
+      <c r="S375" s="1"/>
+      <c r="T375" s="1"/>
+      <c r="U375" s="1"/>
+      <c r="V375" s="1"/>
+    </row>
+    <row r="376" spans="1:22">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -8987,8 +11306,13 @@
       <c r="O376" s="1"/>
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
-    </row>
-    <row r="377" spans="1:17">
+      <c r="R376" s="1"/>
+      <c r="S376" s="1"/>
+      <c r="T376" s="1"/>
+      <c r="U376" s="1"/>
+      <c r="V376" s="1"/>
+    </row>
+    <row r="377" spans="1:22">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -9006,8 +11330,13 @@
       <c r="O377" s="1"/>
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
-    </row>
-    <row r="378" spans="1:17">
+      <c r="R377" s="1"/>
+      <c r="S377" s="1"/>
+      <c r="T377" s="1"/>
+      <c r="U377" s="1"/>
+      <c r="V377" s="1"/>
+    </row>
+    <row r="378" spans="1:22">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -9025,8 +11354,13 @@
       <c r="O378" s="1"/>
       <c r="P378" s="1"/>
       <c r="Q378" s="1"/>
-    </row>
-    <row r="379" spans="1:17">
+      <c r="R378" s="1"/>
+      <c r="S378" s="1"/>
+      <c r="T378" s="1"/>
+      <c r="U378" s="1"/>
+      <c r="V378" s="1"/>
+    </row>
+    <row r="379" spans="1:22">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -9044,8 +11378,13 @@
       <c r="O379" s="1"/>
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
-    </row>
-    <row r="380" spans="1:17">
+      <c r="R379" s="1"/>
+      <c r="S379" s="1"/>
+      <c r="T379" s="1"/>
+      <c r="U379" s="1"/>
+      <c r="V379" s="1"/>
+    </row>
+    <row r="380" spans="1:22">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -9063,8 +11402,13 @@
       <c r="O380" s="1"/>
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
-    </row>
-    <row r="381" spans="1:17">
+      <c r="R380" s="1"/>
+      <c r="S380" s="1"/>
+      <c r="T380" s="1"/>
+      <c r="U380" s="1"/>
+      <c r="V380" s="1"/>
+    </row>
+    <row r="381" spans="1:22">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -9082,8 +11426,13 @@
       <c r="O381" s="1"/>
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
-    </row>
-    <row r="382" spans="1:17">
+      <c r="R381" s="1"/>
+      <c r="S381" s="1"/>
+      <c r="T381" s="1"/>
+      <c r="U381" s="1"/>
+      <c r="V381" s="1"/>
+    </row>
+    <row r="382" spans="1:22">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -9101,8 +11450,13 @@
       <c r="O382" s="1"/>
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
-    </row>
-    <row r="383" spans="1:17">
+      <c r="R382" s="1"/>
+      <c r="S382" s="1"/>
+      <c r="T382" s="1"/>
+      <c r="U382" s="1"/>
+      <c r="V382" s="1"/>
+    </row>
+    <row r="383" spans="1:22">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -9120,8 +11474,13 @@
       <c r="O383" s="1"/>
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
-    </row>
-    <row r="384" spans="1:17">
+      <c r="R383" s="1"/>
+      <c r="S383" s="1"/>
+      <c r="T383" s="1"/>
+      <c r="U383" s="1"/>
+      <c r="V383" s="1"/>
+    </row>
+    <row r="384" spans="1:22">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -9139,8 +11498,13 @@
       <c r="O384" s="1"/>
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
-    </row>
-    <row r="385" spans="1:17">
+      <c r="R384" s="1"/>
+      <c r="S384" s="1"/>
+      <c r="T384" s="1"/>
+      <c r="U384" s="1"/>
+      <c r="V384" s="1"/>
+    </row>
+    <row r="385" spans="1:22">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -9158,8 +11522,13 @@
       <c r="O385" s="1"/>
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
-    </row>
-    <row r="386" spans="1:17">
+      <c r="R385" s="1"/>
+      <c r="S385" s="1"/>
+      <c r="T385" s="1"/>
+      <c r="U385" s="1"/>
+      <c r="V385" s="1"/>
+    </row>
+    <row r="386" spans="1:22">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -9177,8 +11546,13 @@
       <c r="O386" s="1"/>
       <c r="P386" s="1"/>
       <c r="Q386" s="1"/>
-    </row>
-    <row r="387" spans="1:17">
+      <c r="R386" s="1"/>
+      <c r="S386" s="1"/>
+      <c r="T386" s="1"/>
+      <c r="U386" s="1"/>
+      <c r="V386" s="1"/>
+    </row>
+    <row r="387" spans="1:22">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -9196,8 +11570,13 @@
       <c r="O387" s="1"/>
       <c r="P387" s="1"/>
       <c r="Q387" s="1"/>
-    </row>
-    <row r="388" spans="1:17">
+      <c r="R387" s="1"/>
+      <c r="S387" s="1"/>
+      <c r="T387" s="1"/>
+      <c r="U387" s="1"/>
+      <c r="V387" s="1"/>
+    </row>
+    <row r="388" spans="1:22">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -9215,8 +11594,13 @@
       <c r="O388" s="1"/>
       <c r="P388" s="1"/>
       <c r="Q388" s="1"/>
-    </row>
-    <row r="389" spans="1:17">
+      <c r="R388" s="1"/>
+      <c r="S388" s="1"/>
+      <c r="T388" s="1"/>
+      <c r="U388" s="1"/>
+      <c r="V388" s="1"/>
+    </row>
+    <row r="389" spans="1:22">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -9234,8 +11618,13 @@
       <c r="O389" s="1"/>
       <c r="P389" s="1"/>
       <c r="Q389" s="1"/>
-    </row>
-    <row r="390" spans="1:17">
+      <c r="R389" s="1"/>
+      <c r="S389" s="1"/>
+      <c r="T389" s="1"/>
+      <c r="U389" s="1"/>
+      <c r="V389" s="1"/>
+    </row>
+    <row r="390" spans="1:22">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -9253,8 +11642,13 @@
       <c r="O390" s="1"/>
       <c r="P390" s="1"/>
       <c r="Q390" s="1"/>
-    </row>
-    <row r="391" spans="1:17">
+      <c r="R390" s="1"/>
+      <c r="S390" s="1"/>
+      <c r="T390" s="1"/>
+      <c r="U390" s="1"/>
+      <c r="V390" s="1"/>
+    </row>
+    <row r="391" spans="1:22">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -9272,8 +11666,13 @@
       <c r="O391" s="1"/>
       <c r="P391" s="1"/>
       <c r="Q391" s="1"/>
-    </row>
-    <row r="392" spans="1:17">
+      <c r="R391" s="1"/>
+      <c r="S391" s="1"/>
+      <c r="T391" s="1"/>
+      <c r="U391" s="1"/>
+      <c r="V391" s="1"/>
+    </row>
+    <row r="392" spans="1:22">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -9291,8 +11690,13 @@
       <c r="O392" s="1"/>
       <c r="P392" s="1"/>
       <c r="Q392" s="1"/>
-    </row>
-    <row r="393" spans="1:17">
+      <c r="R392" s="1"/>
+      <c r="S392" s="1"/>
+      <c r="T392" s="1"/>
+      <c r="U392" s="1"/>
+      <c r="V392" s="1"/>
+    </row>
+    <row r="393" spans="1:22">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -9310,8 +11714,13 @@
       <c r="O393" s="1"/>
       <c r="P393" s="1"/>
       <c r="Q393" s="1"/>
-    </row>
-    <row r="394" spans="1:17">
+      <c r="R393" s="1"/>
+      <c r="S393" s="1"/>
+      <c r="T393" s="1"/>
+      <c r="U393" s="1"/>
+      <c r="V393" s="1"/>
+    </row>
+    <row r="394" spans="1:22">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -9329,8 +11738,13 @@
       <c r="O394" s="1"/>
       <c r="P394" s="1"/>
       <c r="Q394" s="1"/>
-    </row>
-    <row r="395" spans="1:17">
+      <c r="R394" s="1"/>
+      <c r="S394" s="1"/>
+      <c r="T394" s="1"/>
+      <c r="U394" s="1"/>
+      <c r="V394" s="1"/>
+    </row>
+    <row r="395" spans="1:22">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -9348,8 +11762,13 @@
       <c r="O395" s="1"/>
       <c r="P395" s="1"/>
       <c r="Q395" s="1"/>
-    </row>
-    <row r="396" spans="1:17">
+      <c r="R395" s="1"/>
+      <c r="S395" s="1"/>
+      <c r="T395" s="1"/>
+      <c r="U395" s="1"/>
+      <c r="V395" s="1"/>
+    </row>
+    <row r="396" spans="1:22">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -9367,8 +11786,13 @@
       <c r="O396" s="1"/>
       <c r="P396" s="1"/>
       <c r="Q396" s="1"/>
-    </row>
-    <row r="397" spans="1:17">
+      <c r="R396" s="1"/>
+      <c r="S396" s="1"/>
+      <c r="T396" s="1"/>
+      <c r="U396" s="1"/>
+      <c r="V396" s="1"/>
+    </row>
+    <row r="397" spans="1:22">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -9386,8 +11810,13 @@
       <c r="O397" s="1"/>
       <c r="P397" s="1"/>
       <c r="Q397" s="1"/>
-    </row>
-    <row r="398" spans="1:17">
+      <c r="R397" s="1"/>
+      <c r="S397" s="1"/>
+      <c r="T397" s="1"/>
+      <c r="U397" s="1"/>
+      <c r="V397" s="1"/>
+    </row>
+    <row r="398" spans="1:22">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -9405,8 +11834,13 @@
       <c r="O398" s="1"/>
       <c r="P398" s="1"/>
       <c r="Q398" s="1"/>
-    </row>
-    <row r="399" spans="1:17">
+      <c r="R398" s="1"/>
+      <c r="S398" s="1"/>
+      <c r="T398" s="1"/>
+      <c r="U398" s="1"/>
+      <c r="V398" s="1"/>
+    </row>
+    <row r="399" spans="1:22">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -9424,8 +11858,13 @@
       <c r="O399" s="1"/>
       <c r="P399" s="1"/>
       <c r="Q399" s="1"/>
-    </row>
-    <row r="400" spans="1:17">
+      <c r="R399" s="1"/>
+      <c r="S399" s="1"/>
+      <c r="T399" s="1"/>
+      <c r="U399" s="1"/>
+      <c r="V399" s="1"/>
+    </row>
+    <row r="400" spans="1:22">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -9443,8 +11882,13 @@
       <c r="O400" s="1"/>
       <c r="P400" s="1"/>
       <c r="Q400" s="1"/>
-    </row>
-    <row r="401" spans="1:17">
+      <c r="R400" s="1"/>
+      <c r="S400" s="1"/>
+      <c r="T400" s="1"/>
+      <c r="U400" s="1"/>
+      <c r="V400" s="1"/>
+    </row>
+    <row r="401" spans="1:22">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -9462,8 +11906,13 @@
       <c r="O401" s="1"/>
       <c r="P401" s="1"/>
       <c r="Q401" s="1"/>
-    </row>
-    <row r="402" spans="1:17">
+      <c r="R401" s="1"/>
+      <c r="S401" s="1"/>
+      <c r="T401" s="1"/>
+      <c r="U401" s="1"/>
+      <c r="V401" s="1"/>
+    </row>
+    <row r="402" spans="1:22">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -9481,8 +11930,13 @@
       <c r="O402" s="1"/>
       <c r="P402" s="1"/>
       <c r="Q402" s="1"/>
-    </row>
-    <row r="403" spans="1:17">
+      <c r="R402" s="1"/>
+      <c r="S402" s="1"/>
+      <c r="T402" s="1"/>
+      <c r="U402" s="1"/>
+      <c r="V402" s="1"/>
+    </row>
+    <row r="403" spans="1:22">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -9500,8 +11954,13 @@
       <c r="O403" s="1"/>
       <c r="P403" s="1"/>
       <c r="Q403" s="1"/>
-    </row>
-    <row r="404" spans="1:17">
+      <c r="R403" s="1"/>
+      <c r="S403" s="1"/>
+      <c r="T403" s="1"/>
+      <c r="U403" s="1"/>
+      <c r="V403" s="1"/>
+    </row>
+    <row r="404" spans="1:22">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -9519,8 +11978,13 @@
       <c r="O404" s="1"/>
       <c r="P404" s="1"/>
       <c r="Q404" s="1"/>
-    </row>
-    <row r="405" spans="1:17">
+      <c r="R404" s="1"/>
+      <c r="S404" s="1"/>
+      <c r="T404" s="1"/>
+      <c r="U404" s="1"/>
+      <c r="V404" s="1"/>
+    </row>
+    <row r="405" spans="1:22">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -9538,8 +12002,13 @@
       <c r="O405" s="1"/>
       <c r="P405" s="1"/>
       <c r="Q405" s="1"/>
-    </row>
-    <row r="406" spans="1:17">
+      <c r="R405" s="1"/>
+      <c r="S405" s="1"/>
+      <c r="T405" s="1"/>
+      <c r="U405" s="1"/>
+      <c r="V405" s="1"/>
+    </row>
+    <row r="406" spans="1:22">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -9557,8 +12026,13 @@
       <c r="O406" s="1"/>
       <c r="P406" s="1"/>
       <c r="Q406" s="1"/>
-    </row>
-    <row r="407" spans="1:17">
+      <c r="R406" s="1"/>
+      <c r="S406" s="1"/>
+      <c r="T406" s="1"/>
+      <c r="U406" s="1"/>
+      <c r="V406" s="1"/>
+    </row>
+    <row r="407" spans="1:22">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -9576,8 +12050,13 @@
       <c r="O407" s="1"/>
       <c r="P407" s="1"/>
       <c r="Q407" s="1"/>
-    </row>
-    <row r="408" spans="1:17">
+      <c r="R407" s="1"/>
+      <c r="S407" s="1"/>
+      <c r="T407" s="1"/>
+      <c r="U407" s="1"/>
+      <c r="V407" s="1"/>
+    </row>
+    <row r="408" spans="1:22">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -9595,8 +12074,13 @@
       <c r="O408" s="1"/>
       <c r="P408" s="1"/>
       <c r="Q408" s="1"/>
-    </row>
-    <row r="409" spans="1:17">
+      <c r="R408" s="1"/>
+      <c r="S408" s="1"/>
+      <c r="T408" s="1"/>
+      <c r="U408" s="1"/>
+      <c r="V408" s="1"/>
+    </row>
+    <row r="409" spans="1:22">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -9614,8 +12098,13 @@
       <c r="O409" s="1"/>
       <c r="P409" s="1"/>
       <c r="Q409" s="1"/>
-    </row>
-    <row r="410" spans="1:17">
+      <c r="R409" s="1"/>
+      <c r="S409" s="1"/>
+      <c r="T409" s="1"/>
+      <c r="U409" s="1"/>
+      <c r="V409" s="1"/>
+    </row>
+    <row r="410" spans="1:22">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -9633,8 +12122,13 @@
       <c r="O410" s="1"/>
       <c r="P410" s="1"/>
       <c r="Q410" s="1"/>
-    </row>
-    <row r="411" spans="1:17">
+      <c r="R410" s="1"/>
+      <c r="S410" s="1"/>
+      <c r="T410" s="1"/>
+      <c r="U410" s="1"/>
+      <c r="V410" s="1"/>
+    </row>
+    <row r="411" spans="1:22">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -9652,8 +12146,13 @@
       <c r="O411" s="1"/>
       <c r="P411" s="1"/>
       <c r="Q411" s="1"/>
-    </row>
-    <row r="412" spans="1:17">
+      <c r="R411" s="1"/>
+      <c r="S411" s="1"/>
+      <c r="T411" s="1"/>
+      <c r="U411" s="1"/>
+      <c r="V411" s="1"/>
+    </row>
+    <row r="412" spans="1:22">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -9671,8 +12170,13 @@
       <c r="O412" s="1"/>
       <c r="P412" s="1"/>
       <c r="Q412" s="1"/>
-    </row>
-    <row r="413" spans="1:17">
+      <c r="R412" s="1"/>
+      <c r="S412" s="1"/>
+      <c r="T412" s="1"/>
+      <c r="U412" s="1"/>
+      <c r="V412" s="1"/>
+    </row>
+    <row r="413" spans="1:22">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -9690,8 +12194,13 @@
       <c r="O413" s="1"/>
       <c r="P413" s="1"/>
       <c r="Q413" s="1"/>
-    </row>
-    <row r="414" spans="1:17">
+      <c r="R413" s="1"/>
+      <c r="S413" s="1"/>
+      <c r="T413" s="1"/>
+      <c r="U413" s="1"/>
+      <c r="V413" s="1"/>
+    </row>
+    <row r="414" spans="1:22">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -9709,8 +12218,13 @@
       <c r="O414" s="1"/>
       <c r="P414" s="1"/>
       <c r="Q414" s="1"/>
-    </row>
-    <row r="415" spans="1:17">
+      <c r="R414" s="1"/>
+      <c r="S414" s="1"/>
+      <c r="T414" s="1"/>
+      <c r="U414" s="1"/>
+      <c r="V414" s="1"/>
+    </row>
+    <row r="415" spans="1:22">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -9728,8 +12242,13 @@
       <c r="O415" s="1"/>
       <c r="P415" s="1"/>
       <c r="Q415" s="1"/>
-    </row>
-    <row r="416" spans="1:17">
+      <c r="R415" s="1"/>
+      <c r="S415" s="1"/>
+      <c r="T415" s="1"/>
+      <c r="U415" s="1"/>
+      <c r="V415" s="1"/>
+    </row>
+    <row r="416" spans="1:22">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -9747,8 +12266,13 @@
       <c r="O416" s="1"/>
       <c r="P416" s="1"/>
       <c r="Q416" s="1"/>
-    </row>
-    <row r="417" spans="1:17">
+      <c r="R416" s="1"/>
+      <c r="S416" s="1"/>
+      <c r="T416" s="1"/>
+      <c r="U416" s="1"/>
+      <c r="V416" s="1"/>
+    </row>
+    <row r="417" spans="1:22">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -9766,8 +12290,13 @@
       <c r="O417" s="1"/>
       <c r="P417" s="1"/>
       <c r="Q417" s="1"/>
-    </row>
-    <row r="418" spans="1:17">
+      <c r="R417" s="1"/>
+      <c r="S417" s="1"/>
+      <c r="T417" s="1"/>
+      <c r="U417" s="1"/>
+      <c r="V417" s="1"/>
+    </row>
+    <row r="418" spans="1:22">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -9785,8 +12314,13 @@
       <c r="O418" s="1"/>
       <c r="P418" s="1"/>
       <c r="Q418" s="1"/>
-    </row>
-    <row r="419" spans="1:17">
+      <c r="R418" s="1"/>
+      <c r="S418" s="1"/>
+      <c r="T418" s="1"/>
+      <c r="U418" s="1"/>
+      <c r="V418" s="1"/>
+    </row>
+    <row r="419" spans="1:22">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -9804,8 +12338,13 @@
       <c r="O419" s="1"/>
       <c r="P419" s="1"/>
       <c r="Q419" s="1"/>
-    </row>
-    <row r="420" spans="1:17">
+      <c r="R419" s="1"/>
+      <c r="S419" s="1"/>
+      <c r="T419" s="1"/>
+      <c r="U419" s="1"/>
+      <c r="V419" s="1"/>
+    </row>
+    <row r="420" spans="1:22">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -9823,8 +12362,13 @@
       <c r="O420" s="1"/>
       <c r="P420" s="1"/>
       <c r="Q420" s="1"/>
-    </row>
-    <row r="421" spans="1:17">
+      <c r="R420" s="1"/>
+      <c r="S420" s="1"/>
+      <c r="T420" s="1"/>
+      <c r="U420" s="1"/>
+      <c r="V420" s="1"/>
+    </row>
+    <row r="421" spans="1:22">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -9842,8 +12386,13 @@
       <c r="O421" s="1"/>
       <c r="P421" s="1"/>
       <c r="Q421" s="1"/>
-    </row>
-    <row r="422" spans="1:17">
+      <c r="R421" s="1"/>
+      <c r="S421" s="1"/>
+      <c r="T421" s="1"/>
+      <c r="U421" s="1"/>
+      <c r="V421" s="1"/>
+    </row>
+    <row r="422" spans="1:22">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -9861,8 +12410,13 @@
       <c r="O422" s="1"/>
       <c r="P422" s="1"/>
       <c r="Q422" s="1"/>
-    </row>
-    <row r="423" spans="1:17">
+      <c r="R422" s="1"/>
+      <c r="S422" s="1"/>
+      <c r="T422" s="1"/>
+      <c r="U422" s="1"/>
+      <c r="V422" s="1"/>
+    </row>
+    <row r="423" spans="1:22">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -9880,8 +12434,13 @@
       <c r="O423" s="1"/>
       <c r="P423" s="1"/>
       <c r="Q423" s="1"/>
-    </row>
-    <row r="424" spans="1:17">
+      <c r="R423" s="1"/>
+      <c r="S423" s="1"/>
+      <c r="T423" s="1"/>
+      <c r="U423" s="1"/>
+      <c r="V423" s="1"/>
+    </row>
+    <row r="424" spans="1:22">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -9899,8 +12458,13 @@
       <c r="O424" s="1"/>
       <c r="P424" s="1"/>
       <c r="Q424" s="1"/>
-    </row>
-    <row r="425" spans="1:17">
+      <c r="R424" s="1"/>
+      <c r="S424" s="1"/>
+      <c r="T424" s="1"/>
+      <c r="U424" s="1"/>
+      <c r="V424" s="1"/>
+    </row>
+    <row r="425" spans="1:22">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -9918,8 +12482,13 @@
       <c r="O425" s="1"/>
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
-    </row>
-    <row r="426" spans="1:17">
+      <c r="R425" s="1"/>
+      <c r="S425" s="1"/>
+      <c r="T425" s="1"/>
+      <c r="U425" s="1"/>
+      <c r="V425" s="1"/>
+    </row>
+    <row r="426" spans="1:22">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -9937,8 +12506,13 @@
       <c r="O426" s="1"/>
       <c r="P426" s="1"/>
       <c r="Q426" s="1"/>
-    </row>
-    <row r="427" spans="1:17">
+      <c r="R426" s="1"/>
+      <c r="S426" s="1"/>
+      <c r="T426" s="1"/>
+      <c r="U426" s="1"/>
+      <c r="V426" s="1"/>
+    </row>
+    <row r="427" spans="1:22">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -9956,8 +12530,13 @@
       <c r="O427" s="1"/>
       <c r="P427" s="1"/>
       <c r="Q427" s="1"/>
-    </row>
-    <row r="428" spans="1:17">
+      <c r="R427" s="1"/>
+      <c r="S427" s="1"/>
+      <c r="T427" s="1"/>
+      <c r="U427" s="1"/>
+      <c r="V427" s="1"/>
+    </row>
+    <row r="428" spans="1:22">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -9975,8 +12554,13 @@
       <c r="O428" s="1"/>
       <c r="P428" s="1"/>
       <c r="Q428" s="1"/>
-    </row>
-    <row r="429" spans="1:17">
+      <c r="R428" s="1"/>
+      <c r="S428" s="1"/>
+      <c r="T428" s="1"/>
+      <c r="U428" s="1"/>
+      <c r="V428" s="1"/>
+    </row>
+    <row r="429" spans="1:22">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -9994,8 +12578,13 @@
       <c r="O429" s="1"/>
       <c r="P429" s="1"/>
       <c r="Q429" s="1"/>
-    </row>
-    <row r="430" spans="1:17">
+      <c r="R429" s="1"/>
+      <c r="S429" s="1"/>
+      <c r="T429" s="1"/>
+      <c r="U429" s="1"/>
+      <c r="V429" s="1"/>
+    </row>
+    <row r="430" spans="1:22">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -10013,8 +12602,13 @@
       <c r="O430" s="1"/>
       <c r="P430" s="1"/>
       <c r="Q430" s="1"/>
-    </row>
-    <row r="431" spans="1:17">
+      <c r="R430" s="1"/>
+      <c r="S430" s="1"/>
+      <c r="T430" s="1"/>
+      <c r="U430" s="1"/>
+      <c r="V430" s="1"/>
+    </row>
+    <row r="431" spans="1:22">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -10032,8 +12626,13 @@
       <c r="O431" s="1"/>
       <c r="P431" s="1"/>
       <c r="Q431" s="1"/>
-    </row>
-    <row r="432" spans="1:17">
+      <c r="R431" s="1"/>
+      <c r="S431" s="1"/>
+      <c r="T431" s="1"/>
+      <c r="U431" s="1"/>
+      <c r="V431" s="1"/>
+    </row>
+    <row r="432" spans="1:22">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -10051,8 +12650,13 @@
       <c r="O432" s="1"/>
       <c r="P432" s="1"/>
       <c r="Q432" s="1"/>
-    </row>
-    <row r="433" spans="1:17">
+      <c r="R432" s="1"/>
+      <c r="S432" s="1"/>
+      <c r="T432" s="1"/>
+      <c r="U432" s="1"/>
+      <c r="V432" s="1"/>
+    </row>
+    <row r="433" spans="1:22">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -10070,8 +12674,13 @@
       <c r="O433" s="1"/>
       <c r="P433" s="1"/>
       <c r="Q433" s="1"/>
-    </row>
-    <row r="434" spans="1:17">
+      <c r="R433" s="1"/>
+      <c r="S433" s="1"/>
+      <c r="T433" s="1"/>
+      <c r="U433" s="1"/>
+      <c r="V433" s="1"/>
+    </row>
+    <row r="434" spans="1:22">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -10089,8 +12698,13 @@
       <c r="O434" s="1"/>
       <c r="P434" s="1"/>
       <c r="Q434" s="1"/>
-    </row>
-    <row r="435" spans="1:17">
+      <c r="R434" s="1"/>
+      <c r="S434" s="1"/>
+      <c r="T434" s="1"/>
+      <c r="U434" s="1"/>
+      <c r="V434" s="1"/>
+    </row>
+    <row r="435" spans="1:22">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -10108,8 +12722,13 @@
       <c r="O435" s="1"/>
       <c r="P435" s="1"/>
       <c r="Q435" s="1"/>
-    </row>
-    <row r="436" spans="1:17">
+      <c r="R435" s="1"/>
+      <c r="S435" s="1"/>
+      <c r="T435" s="1"/>
+      <c r="U435" s="1"/>
+      <c r="V435" s="1"/>
+    </row>
+    <row r="436" spans="1:22">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -10127,8 +12746,13 @@
       <c r="O436" s="1"/>
       <c r="P436" s="1"/>
       <c r="Q436" s="1"/>
-    </row>
-    <row r="437" spans="1:17">
+      <c r="R436" s="1"/>
+      <c r="S436" s="1"/>
+      <c r="T436" s="1"/>
+      <c r="U436" s="1"/>
+      <c r="V436" s="1"/>
+    </row>
+    <row r="437" spans="1:22">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -10146,8 +12770,13 @@
       <c r="O437" s="1"/>
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
-    </row>
-    <row r="438" spans="1:17">
+      <c r="R437" s="1"/>
+      <c r="S437" s="1"/>
+      <c r="T437" s="1"/>
+      <c r="U437" s="1"/>
+      <c r="V437" s="1"/>
+    </row>
+    <row r="438" spans="1:22">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -10165,8 +12794,13 @@
       <c r="O438" s="1"/>
       <c r="P438" s="1"/>
       <c r="Q438" s="1"/>
-    </row>
-    <row r="439" spans="1:17">
+      <c r="R438" s="1"/>
+      <c r="S438" s="1"/>
+      <c r="T438" s="1"/>
+      <c r="U438" s="1"/>
+      <c r="V438" s="1"/>
+    </row>
+    <row r="439" spans="1:22">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -10184,8 +12818,13 @@
       <c r="O439" s="1"/>
       <c r="P439" s="1"/>
       <c r="Q439" s="1"/>
-    </row>
-    <row r="440" spans="1:17">
+      <c r="R439" s="1"/>
+      <c r="S439" s="1"/>
+      <c r="T439" s="1"/>
+      <c r="U439" s="1"/>
+      <c r="V439" s="1"/>
+    </row>
+    <row r="440" spans="1:22">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -10203,8 +12842,13 @@
       <c r="O440" s="1"/>
       <c r="P440" s="1"/>
       <c r="Q440" s="1"/>
-    </row>
-    <row r="441" spans="1:17">
+      <c r="R440" s="1"/>
+      <c r="S440" s="1"/>
+      <c r="T440" s="1"/>
+      <c r="U440" s="1"/>
+      <c r="V440" s="1"/>
+    </row>
+    <row r="441" spans="1:22">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -10222,8 +12866,13 @@
       <c r="O441" s="1"/>
       <c r="P441" s="1"/>
       <c r="Q441" s="1"/>
-    </row>
-    <row r="442" spans="1:17">
+      <c r="R441" s="1"/>
+      <c r="S441" s="1"/>
+      <c r="T441" s="1"/>
+      <c r="U441" s="1"/>
+      <c r="V441" s="1"/>
+    </row>
+    <row r="442" spans="1:22">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -10241,8 +12890,13 @@
       <c r="O442" s="1"/>
       <c r="P442" s="1"/>
       <c r="Q442" s="1"/>
-    </row>
-    <row r="443" spans="1:17">
+      <c r="R442" s="1"/>
+      <c r="S442" s="1"/>
+      <c r="T442" s="1"/>
+      <c r="U442" s="1"/>
+      <c r="V442" s="1"/>
+    </row>
+    <row r="443" spans="1:22">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -10260,8 +12914,13 @@
       <c r="O443" s="1"/>
       <c r="P443" s="1"/>
       <c r="Q443" s="1"/>
-    </row>
-    <row r="444" spans="1:17">
+      <c r="R443" s="1"/>
+      <c r="S443" s="1"/>
+      <c r="T443" s="1"/>
+      <c r="U443" s="1"/>
+      <c r="V443" s="1"/>
+    </row>
+    <row r="444" spans="1:22">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -10279,8 +12938,13 @@
       <c r="O444" s="1"/>
       <c r="P444" s="1"/>
       <c r="Q444" s="1"/>
-    </row>
-    <row r="445" spans="1:17">
+      <c r="R444" s="1"/>
+      <c r="S444" s="1"/>
+      <c r="T444" s="1"/>
+      <c r="U444" s="1"/>
+      <c r="V444" s="1"/>
+    </row>
+    <row r="445" spans="1:22">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -10298,8 +12962,13 @@
       <c r="O445" s="1"/>
       <c r="P445" s="1"/>
       <c r="Q445" s="1"/>
-    </row>
-    <row r="446" spans="1:17">
+      <c r="R445" s="1"/>
+      <c r="S445" s="1"/>
+      <c r="T445" s="1"/>
+      <c r="U445" s="1"/>
+      <c r="V445" s="1"/>
+    </row>
+    <row r="446" spans="1:22">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -10317,8 +12986,13 @@
       <c r="O446" s="1"/>
       <c r="P446" s="1"/>
       <c r="Q446" s="1"/>
-    </row>
-    <row r="447" spans="1:17">
+      <c r="R446" s="1"/>
+      <c r="S446" s="1"/>
+      <c r="T446" s="1"/>
+      <c r="U446" s="1"/>
+      <c r="V446" s="1"/>
+    </row>
+    <row r="447" spans="1:22">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -10336,8 +13010,13 @@
       <c r="O447" s="1"/>
       <c r="P447" s="1"/>
       <c r="Q447" s="1"/>
-    </row>
-    <row r="448" spans="1:17">
+      <c r="R447" s="1"/>
+      <c r="S447" s="1"/>
+      <c r="T447" s="1"/>
+      <c r="U447" s="1"/>
+      <c r="V447" s="1"/>
+    </row>
+    <row r="448" spans="1:22">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -10355,8 +13034,13 @@
       <c r="O448" s="1"/>
       <c r="P448" s="1"/>
       <c r="Q448" s="1"/>
-    </row>
-    <row r="449" spans="1:17">
+      <c r="R448" s="1"/>
+      <c r="S448" s="1"/>
+      <c r="T448" s="1"/>
+      <c r="U448" s="1"/>
+      <c r="V448" s="1"/>
+    </row>
+    <row r="449" spans="1:22">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -10374,8 +13058,13 @@
       <c r="O449" s="1"/>
       <c r="P449" s="1"/>
       <c r="Q449" s="1"/>
-    </row>
-    <row r="450" spans="1:17">
+      <c r="R449" s="1"/>
+      <c r="S449" s="1"/>
+      <c r="T449" s="1"/>
+      <c r="U449" s="1"/>
+      <c r="V449" s="1"/>
+    </row>
+    <row r="450" spans="1:22">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -10393,8 +13082,13 @@
       <c r="O450" s="1"/>
       <c r="P450" s="1"/>
       <c r="Q450" s="1"/>
-    </row>
-    <row r="451" spans="1:17">
+      <c r="R450" s="1"/>
+      <c r="S450" s="1"/>
+      <c r="T450" s="1"/>
+      <c r="U450" s="1"/>
+      <c r="V450" s="1"/>
+    </row>
+    <row r="451" spans="1:22">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -10412,8 +13106,13 @@
       <c r="O451" s="1"/>
       <c r="P451" s="1"/>
       <c r="Q451" s="1"/>
-    </row>
-    <row r="452" spans="1:17">
+      <c r="R451" s="1"/>
+      <c r="S451" s="1"/>
+      <c r="T451" s="1"/>
+      <c r="U451" s="1"/>
+      <c r="V451" s="1"/>
+    </row>
+    <row r="452" spans="1:22">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -10431,8 +13130,13 @@
       <c r="O452" s="1"/>
       <c r="P452" s="1"/>
       <c r="Q452" s="1"/>
-    </row>
-    <row r="453" spans="1:17">
+      <c r="R452" s="1"/>
+      <c r="S452" s="1"/>
+      <c r="T452" s="1"/>
+      <c r="U452" s="1"/>
+      <c r="V452" s="1"/>
+    </row>
+    <row r="453" spans="1:22">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -10450,8 +13154,13 @@
       <c r="O453" s="1"/>
       <c r="P453" s="1"/>
       <c r="Q453" s="1"/>
-    </row>
-    <row r="454" spans="1:17">
+      <c r="R453" s="1"/>
+      <c r="S453" s="1"/>
+      <c r="T453" s="1"/>
+      <c r="U453" s="1"/>
+      <c r="V453" s="1"/>
+    </row>
+    <row r="454" spans="1:22">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -10469,8 +13178,13 @@
       <c r="O454" s="1"/>
       <c r="P454" s="1"/>
       <c r="Q454" s="1"/>
-    </row>
-    <row r="455" spans="1:17">
+      <c r="R454" s="1"/>
+      <c r="S454" s="1"/>
+      <c r="T454" s="1"/>
+      <c r="U454" s="1"/>
+      <c r="V454" s="1"/>
+    </row>
+    <row r="455" spans="1:22">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -10488,8 +13202,13 @@
       <c r="O455" s="1"/>
       <c r="P455" s="1"/>
       <c r="Q455" s="1"/>
-    </row>
-    <row r="456" spans="1:17">
+      <c r="R455" s="1"/>
+      <c r="S455" s="1"/>
+      <c r="T455" s="1"/>
+      <c r="U455" s="1"/>
+      <c r="V455" s="1"/>
+    </row>
+    <row r="456" spans="1:22">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -10507,8 +13226,13 @@
       <c r="O456" s="1"/>
       <c r="P456" s="1"/>
       <c r="Q456" s="1"/>
-    </row>
-    <row r="457" spans="1:17">
+      <c r="R456" s="1"/>
+      <c r="S456" s="1"/>
+      <c r="T456" s="1"/>
+      <c r="U456" s="1"/>
+      <c r="V456" s="1"/>
+    </row>
+    <row r="457" spans="1:22">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -10526,8 +13250,13 @@
       <c r="O457" s="1"/>
       <c r="P457" s="1"/>
       <c r="Q457" s="1"/>
-    </row>
-    <row r="458" spans="1:17">
+      <c r="R457" s="1"/>
+      <c r="S457" s="1"/>
+      <c r="T457" s="1"/>
+      <c r="U457" s="1"/>
+      <c r="V457" s="1"/>
+    </row>
+    <row r="458" spans="1:22">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -10545,8 +13274,13 @@
       <c r="O458" s="1"/>
       <c r="P458" s="1"/>
       <c r="Q458" s="1"/>
-    </row>
-    <row r="459" spans="1:17">
+      <c r="R458" s="1"/>
+      <c r="S458" s="1"/>
+      <c r="T458" s="1"/>
+      <c r="U458" s="1"/>
+      <c r="V458" s="1"/>
+    </row>
+    <row r="459" spans="1:22">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -10564,8 +13298,13 @@
       <c r="O459" s="1"/>
       <c r="P459" s="1"/>
       <c r="Q459" s="1"/>
-    </row>
-    <row r="460" spans="1:17">
+      <c r="R459" s="1"/>
+      <c r="S459" s="1"/>
+      <c r="T459" s="1"/>
+      <c r="U459" s="1"/>
+      <c r="V459" s="1"/>
+    </row>
+    <row r="460" spans="1:22">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -10583,8 +13322,13 @@
       <c r="O460" s="1"/>
       <c r="P460" s="1"/>
       <c r="Q460" s="1"/>
-    </row>
-    <row r="461" spans="1:17">
+      <c r="R460" s="1"/>
+      <c r="S460" s="1"/>
+      <c r="T460" s="1"/>
+      <c r="U460" s="1"/>
+      <c r="V460" s="1"/>
+    </row>
+    <row r="461" spans="1:22">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -10602,8 +13346,13 @@
       <c r="O461" s="1"/>
       <c r="P461" s="1"/>
       <c r="Q461" s="1"/>
-    </row>
-    <row r="462" spans="1:17">
+      <c r="R461" s="1"/>
+      <c r="S461" s="1"/>
+      <c r="T461" s="1"/>
+      <c r="U461" s="1"/>
+      <c r="V461" s="1"/>
+    </row>
+    <row r="462" spans="1:22">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -10621,8 +13370,13 @@
       <c r="O462" s="1"/>
       <c r="P462" s="1"/>
       <c r="Q462" s="1"/>
-    </row>
-    <row r="463" spans="1:17">
+      <c r="R462" s="1"/>
+      <c r="S462" s="1"/>
+      <c r="T462" s="1"/>
+      <c r="U462" s="1"/>
+      <c r="V462" s="1"/>
+    </row>
+    <row r="463" spans="1:22">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -10640,8 +13394,13 @@
       <c r="O463" s="1"/>
       <c r="P463" s="1"/>
       <c r="Q463" s="1"/>
-    </row>
-    <row r="464" spans="1:17">
+      <c r="R463" s="1"/>
+      <c r="S463" s="1"/>
+      <c r="T463" s="1"/>
+      <c r="U463" s="1"/>
+      <c r="V463" s="1"/>
+    </row>
+    <row r="464" spans="1:22">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -10659,8 +13418,13 @@
       <c r="O464" s="1"/>
       <c r="P464" s="1"/>
       <c r="Q464" s="1"/>
-    </row>
-    <row r="465" spans="1:17">
+      <c r="R464" s="1"/>
+      <c r="S464" s="1"/>
+      <c r="T464" s="1"/>
+      <c r="U464" s="1"/>
+      <c r="V464" s="1"/>
+    </row>
+    <row r="465" spans="1:22">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -10678,8 +13442,13 @@
       <c r="O465" s="1"/>
       <c r="P465" s="1"/>
       <c r="Q465" s="1"/>
-    </row>
-    <row r="466" spans="1:17">
+      <c r="R465" s="1"/>
+      <c r="S465" s="1"/>
+      <c r="T465" s="1"/>
+      <c r="U465" s="1"/>
+      <c r="V465" s="1"/>
+    </row>
+    <row r="466" spans="1:22">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -10697,8 +13466,13 @@
       <c r="O466" s="1"/>
       <c r="P466" s="1"/>
       <c r="Q466" s="1"/>
-    </row>
-    <row r="467" spans="1:17">
+      <c r="R466" s="1"/>
+      <c r="S466" s="1"/>
+      <c r="T466" s="1"/>
+      <c r="U466" s="1"/>
+      <c r="V466" s="1"/>
+    </row>
+    <row r="467" spans="1:22">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -10716,8 +13490,13 @@
       <c r="O467" s="1"/>
       <c r="P467" s="1"/>
       <c r="Q467" s="1"/>
-    </row>
-    <row r="468" spans="1:17">
+      <c r="R467" s="1"/>
+      <c r="S467" s="1"/>
+      <c r="T467" s="1"/>
+      <c r="U467" s="1"/>
+      <c r="V467" s="1"/>
+    </row>
+    <row r="468" spans="1:22">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -10735,8 +13514,13 @@
       <c r="O468" s="1"/>
       <c r="P468" s="1"/>
       <c r="Q468" s="1"/>
-    </row>
-    <row r="469" spans="1:17">
+      <c r="R468" s="1"/>
+      <c r="S468" s="1"/>
+      <c r="T468" s="1"/>
+      <c r="U468" s="1"/>
+      <c r="V468" s="1"/>
+    </row>
+    <row r="469" spans="1:22">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -10754,8 +13538,13 @@
       <c r="O469" s="1"/>
       <c r="P469" s="1"/>
       <c r="Q469" s="1"/>
-    </row>
-    <row r="470" spans="1:17">
+      <c r="R469" s="1"/>
+      <c r="S469" s="1"/>
+      <c r="T469" s="1"/>
+      <c r="U469" s="1"/>
+      <c r="V469" s="1"/>
+    </row>
+    <row r="470" spans="1:22">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -10773,8 +13562,13 @@
       <c r="O470" s="1"/>
       <c r="P470" s="1"/>
       <c r="Q470" s="1"/>
-    </row>
-    <row r="471" spans="1:17">
+      <c r="R470" s="1"/>
+      <c r="S470" s="1"/>
+      <c r="T470" s="1"/>
+      <c r="U470" s="1"/>
+      <c r="V470" s="1"/>
+    </row>
+    <row r="471" spans="1:22">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -10792,8 +13586,13 @@
       <c r="O471" s="1"/>
       <c r="P471" s="1"/>
       <c r="Q471" s="1"/>
-    </row>
-    <row r="472" spans="1:17">
+      <c r="R471" s="1"/>
+      <c r="S471" s="1"/>
+      <c r="T471" s="1"/>
+      <c r="U471" s="1"/>
+      <c r="V471" s="1"/>
+    </row>
+    <row r="472" spans="1:22">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -10811,8 +13610,13 @@
       <c r="O472" s="1"/>
       <c r="P472" s="1"/>
       <c r="Q472" s="1"/>
-    </row>
-    <row r="473" spans="1:17">
+      <c r="R472" s="1"/>
+      <c r="S472" s="1"/>
+      <c r="T472" s="1"/>
+      <c r="U472" s="1"/>
+      <c r="V472" s="1"/>
+    </row>
+    <row r="473" spans="1:22">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -10830,8 +13634,13 @@
       <c r="O473" s="1"/>
       <c r="P473" s="1"/>
       <c r="Q473" s="1"/>
-    </row>
-    <row r="474" spans="1:17">
+      <c r="R473" s="1"/>
+      <c r="S473" s="1"/>
+      <c r="T473" s="1"/>
+      <c r="U473" s="1"/>
+      <c r="V473" s="1"/>
+    </row>
+    <row r="474" spans="1:22">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -10849,8 +13658,13 @@
       <c r="O474" s="1"/>
       <c r="P474" s="1"/>
       <c r="Q474" s="1"/>
-    </row>
-    <row r="475" spans="1:17">
+      <c r="R474" s="1"/>
+      <c r="S474" s="1"/>
+      <c r="T474" s="1"/>
+      <c r="U474" s="1"/>
+      <c r="V474" s="1"/>
+    </row>
+    <row r="475" spans="1:22">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -10868,8 +13682,13 @@
       <c r="O475" s="1"/>
       <c r="P475" s="1"/>
       <c r="Q475" s="1"/>
-    </row>
-    <row r="476" spans="1:17">
+      <c r="R475" s="1"/>
+      <c r="S475" s="1"/>
+      <c r="T475" s="1"/>
+      <c r="U475" s="1"/>
+      <c r="V475" s="1"/>
+    </row>
+    <row r="476" spans="1:22">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -10887,8 +13706,13 @@
       <c r="O476" s="1"/>
       <c r="P476" s="1"/>
       <c r="Q476" s="1"/>
-    </row>
-    <row r="477" spans="1:17">
+      <c r="R476" s="1"/>
+      <c r="S476" s="1"/>
+      <c r="T476" s="1"/>
+      <c r="U476" s="1"/>
+      <c r="V476" s="1"/>
+    </row>
+    <row r="477" spans="1:22">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -10906,8 +13730,13 @@
       <c r="O477" s="1"/>
       <c r="P477" s="1"/>
       <c r="Q477" s="1"/>
-    </row>
-    <row r="478" spans="1:17">
+      <c r="R477" s="1"/>
+      <c r="S477" s="1"/>
+      <c r="T477" s="1"/>
+      <c r="U477" s="1"/>
+      <c r="V477" s="1"/>
+    </row>
+    <row r="478" spans="1:22">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -10925,8 +13754,13 @@
       <c r="O478" s="1"/>
       <c r="P478" s="1"/>
       <c r="Q478" s="1"/>
-    </row>
-    <row r="479" spans="1:17">
+      <c r="R478" s="1"/>
+      <c r="S478" s="1"/>
+      <c r="T478" s="1"/>
+      <c r="U478" s="1"/>
+      <c r="V478" s="1"/>
+    </row>
+    <row r="479" spans="1:22">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -10944,8 +13778,13 @@
       <c r="O479" s="1"/>
       <c r="P479" s="1"/>
       <c r="Q479" s="1"/>
-    </row>
-    <row r="480" spans="1:17">
+      <c r="R479" s="1"/>
+      <c r="S479" s="1"/>
+      <c r="T479" s="1"/>
+      <c r="U479" s="1"/>
+      <c r="V479" s="1"/>
+    </row>
+    <row r="480" spans="1:22">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -10963,8 +13802,13 @@
       <c r="O480" s="1"/>
       <c r="P480" s="1"/>
       <c r="Q480" s="1"/>
-    </row>
-    <row r="481" spans="1:17">
+      <c r="R480" s="1"/>
+      <c r="S480" s="1"/>
+      <c r="T480" s="1"/>
+      <c r="U480" s="1"/>
+      <c r="V480" s="1"/>
+    </row>
+    <row r="481" spans="1:22">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -10982,8 +13826,13 @@
       <c r="O481" s="1"/>
       <c r="P481" s="1"/>
       <c r="Q481" s="1"/>
-    </row>
-    <row r="482" spans="1:17">
+      <c r="R481" s="1"/>
+      <c r="S481" s="1"/>
+      <c r="T481" s="1"/>
+      <c r="U481" s="1"/>
+      <c r="V481" s="1"/>
+    </row>
+    <row r="482" spans="1:22">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -11001,8 +13850,13 @@
       <c r="O482" s="1"/>
       <c r="P482" s="1"/>
       <c r="Q482" s="1"/>
-    </row>
-    <row r="483" spans="1:17">
+      <c r="R482" s="1"/>
+      <c r="S482" s="1"/>
+      <c r="T482" s="1"/>
+      <c r="U482" s="1"/>
+      <c r="V482" s="1"/>
+    </row>
+    <row r="483" spans="1:22">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -11020,8 +13874,13 @@
       <c r="O483" s="1"/>
       <c r="P483" s="1"/>
       <c r="Q483" s="1"/>
-    </row>
-    <row r="484" spans="1:17">
+      <c r="R483" s="1"/>
+      <c r="S483" s="1"/>
+      <c r="T483" s="1"/>
+      <c r="U483" s="1"/>
+      <c r="V483" s="1"/>
+    </row>
+    <row r="484" spans="1:22">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -11039,8 +13898,13 @@
       <c r="O484" s="1"/>
       <c r="P484" s="1"/>
       <c r="Q484" s="1"/>
-    </row>
-    <row r="485" spans="1:17">
+      <c r="R484" s="1"/>
+      <c r="S484" s="1"/>
+      <c r="T484" s="1"/>
+      <c r="U484" s="1"/>
+      <c r="V484" s="1"/>
+    </row>
+    <row r="485" spans="1:22">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -11058,8 +13922,13 @@
       <c r="O485" s="1"/>
       <c r="P485" s="1"/>
       <c r="Q485" s="1"/>
-    </row>
-    <row r="486" spans="1:17">
+      <c r="R485" s="1"/>
+      <c r="S485" s="1"/>
+      <c r="T485" s="1"/>
+      <c r="U485" s="1"/>
+      <c r="V485" s="1"/>
+    </row>
+    <row r="486" spans="1:22">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -11077,8 +13946,13 @@
       <c r="O486" s="1"/>
       <c r="P486" s="1"/>
       <c r="Q486" s="1"/>
-    </row>
-    <row r="487" spans="1:17">
+      <c r="R486" s="1"/>
+      <c r="S486" s="1"/>
+      <c r="T486" s="1"/>
+      <c r="U486" s="1"/>
+      <c r="V486" s="1"/>
+    </row>
+    <row r="487" spans="1:22">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -11096,8 +13970,13 @@
       <c r="O487" s="1"/>
       <c r="P487" s="1"/>
       <c r="Q487" s="1"/>
-    </row>
-    <row r="488" spans="1:17">
+      <c r="R487" s="1"/>
+      <c r="S487" s="1"/>
+      <c r="T487" s="1"/>
+      <c r="U487" s="1"/>
+      <c r="V487" s="1"/>
+    </row>
+    <row r="488" spans="1:22">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -11115,8 +13994,13 @@
       <c r="O488" s="1"/>
       <c r="P488" s="1"/>
       <c r="Q488" s="1"/>
-    </row>
-    <row r="489" spans="1:17">
+      <c r="R488" s="1"/>
+      <c r="S488" s="1"/>
+      <c r="T488" s="1"/>
+      <c r="U488" s="1"/>
+      <c r="V488" s="1"/>
+    </row>
+    <row r="489" spans="1:22">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -11134,8 +14018,13 @@
       <c r="O489" s="1"/>
       <c r="P489" s="1"/>
       <c r="Q489" s="1"/>
-    </row>
-    <row r="490" spans="1:17">
+      <c r="R489" s="1"/>
+      <c r="S489" s="1"/>
+      <c r="T489" s="1"/>
+      <c r="U489" s="1"/>
+      <c r="V489" s="1"/>
+    </row>
+    <row r="490" spans="1:22">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -11153,8 +14042,13 @@
       <c r="O490" s="1"/>
       <c r="P490" s="1"/>
       <c r="Q490" s="1"/>
-    </row>
-    <row r="491" spans="1:17">
+      <c r="R490" s="1"/>
+      <c r="S490" s="1"/>
+      <c r="T490" s="1"/>
+      <c r="U490" s="1"/>
+      <c r="V490" s="1"/>
+    </row>
+    <row r="491" spans="1:22">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -11172,8 +14066,13 @@
       <c r="O491" s="1"/>
       <c r="P491" s="1"/>
       <c r="Q491" s="1"/>
-    </row>
-    <row r="492" spans="1:17">
+      <c r="R491" s="1"/>
+      <c r="S491" s="1"/>
+      <c r="T491" s="1"/>
+      <c r="U491" s="1"/>
+      <c r="V491" s="1"/>
+    </row>
+    <row r="492" spans="1:22">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -11191,8 +14090,13 @@
       <c r="O492" s="1"/>
       <c r="P492" s="1"/>
       <c r="Q492" s="1"/>
-    </row>
-    <row r="493" spans="1:17">
+      <c r="R492" s="1"/>
+      <c r="S492" s="1"/>
+      <c r="T492" s="1"/>
+      <c r="U492" s="1"/>
+      <c r="V492" s="1"/>
+    </row>
+    <row r="493" spans="1:22">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -11210,8 +14114,13 @@
       <c r="O493" s="1"/>
       <c r="P493" s="1"/>
       <c r="Q493" s="1"/>
-    </row>
-    <row r="494" spans="1:17">
+      <c r="R493" s="1"/>
+      <c r="S493" s="1"/>
+      <c r="T493" s="1"/>
+      <c r="U493" s="1"/>
+      <c r="V493" s="1"/>
+    </row>
+    <row r="494" spans="1:22">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -11229,8 +14138,13 @@
       <c r="O494" s="1"/>
       <c r="P494" s="1"/>
       <c r="Q494" s="1"/>
-    </row>
-    <row r="495" spans="1:17">
+      <c r="R494" s="1"/>
+      <c r="S494" s="1"/>
+      <c r="T494" s="1"/>
+      <c r="U494" s="1"/>
+      <c r="V494" s="1"/>
+    </row>
+    <row r="495" spans="1:22">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -11248,8 +14162,13 @@
       <c r="O495" s="1"/>
       <c r="P495" s="1"/>
       <c r="Q495" s="1"/>
-    </row>
-    <row r="496" spans="1:17">
+      <c r="R495" s="1"/>
+      <c r="S495" s="1"/>
+      <c r="T495" s="1"/>
+      <c r="U495" s="1"/>
+      <c r="V495" s="1"/>
+    </row>
+    <row r="496" spans="1:22">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -11267,8 +14186,13 @@
       <c r="O496" s="1"/>
       <c r="P496" s="1"/>
       <c r="Q496" s="1"/>
-    </row>
-    <row r="497" spans="1:17">
+      <c r="R496" s="1"/>
+      <c r="S496" s="1"/>
+      <c r="T496" s="1"/>
+      <c r="U496" s="1"/>
+      <c r="V496" s="1"/>
+    </row>
+    <row r="497" spans="1:22">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -11286,8 +14210,13 @@
       <c r="O497" s="1"/>
       <c r="P497" s="1"/>
       <c r="Q497" s="1"/>
-    </row>
-    <row r="498" spans="1:17">
+      <c r="R497" s="1"/>
+      <c r="S497" s="1"/>
+      <c r="T497" s="1"/>
+      <c r="U497" s="1"/>
+      <c r="V497" s="1"/>
+    </row>
+    <row r="498" spans="1:22">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -11305,8 +14234,13 @@
       <c r="O498" s="1"/>
       <c r="P498" s="1"/>
       <c r="Q498" s="1"/>
-    </row>
-    <row r="499" spans="1:17">
+      <c r="R498" s="1"/>
+      <c r="S498" s="1"/>
+      <c r="T498" s="1"/>
+      <c r="U498" s="1"/>
+      <c r="V498" s="1"/>
+    </row>
+    <row r="499" spans="1:22">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -11324,6 +14258,11 @@
       <c r="O499" s="1"/>
       <c r="P499" s="1"/>
       <c r="Q499" s="1"/>
+      <c r="R499" s="1"/>
+      <c r="S499" s="1"/>
+      <c r="T499" s="1"/>
+      <c r="U499" s="1"/>
+      <c r="V499" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/炒股/交易运行状态/同仁堂.xlsx
+++ b/我的创作/炒股/交易运行状态/同仁堂.xlsx
@@ -83,12 +83,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,6 +96,20 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,28 +122,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -138,7 +130,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,14 +138,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,8 +159,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,16 +183,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,8 +212,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,16 +236,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,7 +252,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,25 +348,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,13 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,91 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,31 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,32 +455,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,32 +468,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -535,11 +488,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,148 +548,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -706,10 +706,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2099,7 +2099,7 @@
   <sheetPr/>
   <dimension ref="A1:V499"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>

--- a/我的创作/炒股/交易运行状态/同仁堂.xlsx
+++ b/我的创作/炒股/交易运行状态/同仁堂.xlsx
@@ -74,9 +74,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -86,13 +86,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,70 +103,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,8 +120,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,16 +149,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +177,52 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,25 +260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,25 +278,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,19 +326,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +338,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +380,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,61 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,8 +445,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,73 +534,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,152 +544,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,6 +707,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -824,7 +827,7 @@
             <v>21.88</v>
           </cell>
           <cell r="P4">
-            <v>25.14</v>
+            <v>26.5</v>
           </cell>
           <cell r="Q4">
             <v>22.1</v>
@@ -834,6 +837,12 @@
           </cell>
           <cell r="S4">
             <v>24</v>
+          </cell>
+          <cell r="T4">
+            <v>26.2</v>
+          </cell>
+          <cell r="U4">
+            <v>24.52</v>
           </cell>
         </row>
         <row r="4">
@@ -847,92 +856,89 @@
             <v>0.265771812080537</v>
           </cell>
           <cell r="AA4">
-            <v>0.120922832140016</v>
+            <v>0.166037735849057</v>
           </cell>
           <cell r="AB4">
             <v>0.0909090909090909</v>
           </cell>
-          <cell r="AC4" t="e">
-            <v>#DIV/0!</v>
+          <cell r="AC4">
+            <v>0.0641221374045801</v>
           </cell>
         </row>
         <row r="4">
           <cell r="AE4" t="str">
-            <v>4T</v>
+            <v>5T</v>
           </cell>
           <cell r="AF4" t="str">
-            <v>减少不明显，空头依然较强</v>
-          </cell>
-          <cell r="AG4" t="str">
-            <v>形态清晰</v>
-          </cell>
-          <cell r="AH4" t="str">
-            <v>可以</v>
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+          <cell r="AG4">
+            <v>28.15</v>
+          </cell>
+          <cell r="AH4">
+            <v>21.87</v>
           </cell>
           <cell r="AI4">
-            <v>28.15</v>
+            <v>6.28</v>
           </cell>
           <cell r="AJ4">
-            <v>21.87</v>
+            <v>26.2</v>
           </cell>
           <cell r="AK4">
-            <v>6.28</v>
+            <v>24.68</v>
           </cell>
           <cell r="AL4">
+            <v>32.49</v>
+          </cell>
+          <cell r="AM4">
+            <v>152</v>
+          </cell>
+          <cell r="AN4">
+            <v>200</v>
+          </cell>
+          <cell r="AO4">
+            <v>4.13815789473685</v>
+          </cell>
+          <cell r="AP4">
+            <v>0.0580152671755725</v>
+          </cell>
+          <cell r="AQ4">
+            <v>0.240076335877863</v>
+          </cell>
+          <cell r="AR4">
+            <v>150.88</v>
+          </cell>
+          <cell r="AS4" t="str">
+            <v>不宜入场</v>
+          </cell>
+          <cell r="AT4">
+            <v>44523</v>
+          </cell>
+          <cell r="AU4">
             <v>26.2</v>
           </cell>
-          <cell r="AM4">
-            <v>24.68</v>
-          </cell>
-          <cell r="AN4">
-            <v>32.49</v>
-          </cell>
-          <cell r="AO4">
-            <v>152</v>
-          </cell>
-          <cell r="AP4">
+          <cell r="AV4">
             <v>200</v>
           </cell>
-          <cell r="AQ4">
-            <v>4.13815789473685</v>
-          </cell>
-          <cell r="AR4">
-            <v>0.0580152671755725</v>
-          </cell>
-          <cell r="AS4">
-            <v>0.240076335877863</v>
-          </cell>
-          <cell r="AT4">
-            <v>150.88</v>
-          </cell>
-          <cell r="AU4">
-            <v>44523</v>
-          </cell>
-          <cell r="AV4">
-            <v>26.2</v>
-          </cell>
           <cell r="AW4">
-            <v>200</v>
+            <v>5</v>
           </cell>
           <cell r="AX4">
-            <v>5</v>
+            <v>0.1048</v>
           </cell>
           <cell r="AY4">
-            <v>0.1048</v>
+            <v>5245.1048</v>
           </cell>
           <cell r="AZ4">
-            <v>5245.1048</v>
+            <v>309.1048</v>
           </cell>
           <cell r="BA4">
-            <v>309.1048</v>
+            <v>26.5</v>
           </cell>
           <cell r="BB4">
-            <v>26.5</v>
+            <v>25.21</v>
           </cell>
           <cell r="BC4">
-            <v>25.21</v>
-          </cell>
-          <cell r="BD4">
             <v>0.232558139534884</v>
           </cell>
         </row>
@@ -1019,78 +1025,75 @@
             <v>4T</v>
           </cell>
           <cell r="AF5" t="str">
-            <v>减少一般，空头仍然较强</v>
-          </cell>
-          <cell r="AG5" t="str">
-            <v>不是很清晰</v>
-          </cell>
-          <cell r="AH5" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</v>
+          </cell>
+          <cell r="AG5">
+            <v>35.48</v>
+          </cell>
+          <cell r="AH5">
+            <v>31.36</v>
+          </cell>
+          <cell r="AI5">
+            <v>4.12</v>
+          </cell>
+          <cell r="AJ5">
+            <v>34.12</v>
+          </cell>
+          <cell r="AK5">
+            <v>32.53</v>
+          </cell>
+          <cell r="AL5">
+            <v>39.33</v>
+          </cell>
+          <cell r="AM5">
+            <v>159</v>
+          </cell>
+          <cell r="AN5">
+            <v>100</v>
+          </cell>
+          <cell r="AO5">
+            <v>3.27672955974844</v>
+          </cell>
+          <cell r="AP5">
+            <v>0.0466002344665884</v>
+          </cell>
+          <cell r="AQ5">
+            <v>0.152696365767878</v>
+          </cell>
+          <cell r="AR5">
+            <v>37.41</v>
+          </cell>
+          <cell r="AS5" t="str">
             <v>可以</v>
           </cell>
-          <cell r="AI5">
-            <v>35.48</v>
-          </cell>
-          <cell r="AJ5">
-            <v>31.36</v>
-          </cell>
-          <cell r="AK5">
-            <v>4.12</v>
-          </cell>
-          <cell r="AL5">
-            <v>34.12</v>
-          </cell>
-          <cell r="AM5">
-            <v>32.53</v>
-          </cell>
-          <cell r="AN5">
-            <v>39.33</v>
-          </cell>
-          <cell r="AO5">
-            <v>159</v>
-          </cell>
-          <cell r="AP5">
+          <cell r="AT5">
+            <v>44523</v>
+          </cell>
+          <cell r="AU5">
+            <v>33.73</v>
+          </cell>
+          <cell r="AV5">
             <v>100</v>
           </cell>
-          <cell r="AQ5">
-            <v>3.27672955974844</v>
-          </cell>
-          <cell r="AR5">
-            <v>0.0466002344665884</v>
-          </cell>
-          <cell r="AS5">
-            <v>0.152696365767878</v>
-          </cell>
-          <cell r="AT5">
-            <v>37.41</v>
-          </cell>
-          <cell r="AU5">
-            <v>44523</v>
-          </cell>
-          <cell r="AV5">
-            <v>33.73</v>
-          </cell>
           <cell r="AW5">
-            <v>100</v>
+            <v>5</v>
           </cell>
           <cell r="AX5">
-            <v>5</v>
+            <v>0.06746</v>
           </cell>
           <cell r="AY5">
-            <v>0.06746</v>
+            <v>3378.06746</v>
           </cell>
           <cell r="AZ5">
-            <v>3378.06746</v>
+            <v>125.06746</v>
           </cell>
           <cell r="BA5">
-            <v>125.06746</v>
+            <v>35.36</v>
           </cell>
           <cell r="BB5">
-            <v>35.36</v>
+            <v>33.1</v>
           </cell>
           <cell r="BC5">
-            <v>33.1</v>
-          </cell>
-          <cell r="BD5">
             <v>0.721238938053099</v>
           </cell>
         </row>
@@ -1145,9 +1148,6 @@
           <cell r="Q6">
             <v>30.89</v>
           </cell>
-          <cell r="R6">
-            <v>32.65</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="X6" t="str">
@@ -1162,8 +1162,9 @@
           <cell r="AA6">
             <v>0.124184859654097</v>
           </cell>
-        </row>
-        <row r="6">
+          <cell r="AB6" t="e">
+            <v>#DIV/0!</v>
+          </cell>
           <cell r="AC6" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -1173,78 +1174,75 @@
             <v>3T</v>
           </cell>
           <cell r="AF6" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
-          <cell r="AG6" t="str">
-            <v>不是很清晰</v>
-          </cell>
-          <cell r="AH6" t="str">
+            <v>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</v>
+          </cell>
+          <cell r="AG6">
+            <v>36.21</v>
+          </cell>
+          <cell r="AH6">
+            <v>27.35</v>
+          </cell>
+          <cell r="AI6">
+            <v>8.86</v>
+          </cell>
+          <cell r="AJ6">
+            <v>32.65</v>
+          </cell>
+          <cell r="AK6">
+            <v>30.89</v>
+          </cell>
+          <cell r="AL6">
+            <v>36.22</v>
+          </cell>
+          <cell r="AM6">
+            <v>176</v>
+          </cell>
+          <cell r="AN6">
+            <v>100</v>
+          </cell>
+          <cell r="AO6">
+            <v>2.02840909090909</v>
+          </cell>
+          <cell r="AP6">
+            <v>0.0539050535987748</v>
+          </cell>
+          <cell r="AQ6">
+            <v>0.109341500765697</v>
+          </cell>
+          <cell r="AR6">
+            <v>28.82</v>
+          </cell>
+          <cell r="AS6" t="str">
             <v>可以</v>
           </cell>
-          <cell r="AI6">
-            <v>36.21</v>
-          </cell>
-          <cell r="AJ6">
-            <v>27.35</v>
-          </cell>
-          <cell r="AK6">
-            <v>8.86</v>
-          </cell>
-          <cell r="AL6">
-            <v>32.65</v>
-          </cell>
-          <cell r="AM6">
-            <v>30.89</v>
-          </cell>
-          <cell r="AN6">
-            <v>36.22</v>
-          </cell>
-          <cell r="AO6">
-            <v>176</v>
-          </cell>
-          <cell r="AP6">
+          <cell r="AT6">
+            <v>44522</v>
+          </cell>
+          <cell r="AU6">
+            <v>32.7</v>
+          </cell>
+          <cell r="AV6">
             <v>100</v>
           </cell>
-          <cell r="AQ6">
-            <v>2.02840909090909</v>
-          </cell>
-          <cell r="AR6">
-            <v>0.0539050535987748</v>
-          </cell>
-          <cell r="AS6">
-            <v>0.109341500765697</v>
-          </cell>
-          <cell r="AT6">
-            <v>28.82</v>
-          </cell>
-          <cell r="AU6">
-            <v>44522</v>
-          </cell>
-          <cell r="AV6">
-            <v>32.7</v>
-          </cell>
           <cell r="AW6">
-            <v>100</v>
+            <v>5</v>
           </cell>
           <cell r="AX6">
-            <v>5</v>
+            <v>0.0654</v>
           </cell>
           <cell r="AY6">
-            <v>0.0654</v>
+            <v>3275.0654</v>
           </cell>
           <cell r="AZ6">
-            <v>3275.0654</v>
+            <v>186.0654</v>
           </cell>
           <cell r="BA6">
-            <v>186.0654</v>
+            <v>33.9</v>
           </cell>
           <cell r="BB6">
-            <v>33.9</v>
+            <v>32.49</v>
           </cell>
           <cell r="BC6">
-            <v>32.49</v>
-          </cell>
-          <cell r="BD6">
             <v>0.851063829787233</v>
           </cell>
         </row>
@@ -1313,151 +1311,175 @@
           <cell r="AA7">
             <v>0.0550161812297734</v>
           </cell>
+          <cell r="AB7" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AC7" t="e">
+            <v>#DIV/0!</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="AE7" t="str">
             <v>3T</v>
           </cell>
           <cell r="AF7" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
-          <cell r="AG7" t="str">
-            <v>清晰</v>
-          </cell>
-          <cell r="AH7" t="str">
-            <v>可以</v>
+            <v>由于价格收缩不明显，成交量收缩情况不予考虑</v>
+          </cell>
+          <cell r="AG7">
+            <v>32.43</v>
+          </cell>
+          <cell r="AH7">
+            <v>26.16</v>
           </cell>
           <cell r="AI7">
-            <v>32.43</v>
+            <v>6.27</v>
           </cell>
           <cell r="AJ7">
-            <v>26.16</v>
+            <v>30.66</v>
           </cell>
           <cell r="AK7">
-            <v>6.27</v>
+            <v>29.35</v>
           </cell>
           <cell r="AL7">
-            <v>30.66</v>
+            <v>38.71</v>
           </cell>
           <cell r="AM7">
-            <v>29.35</v>
+            <v>131</v>
           </cell>
           <cell r="AN7">
-            <v>38.71</v>
+            <v>200</v>
           </cell>
           <cell r="AO7">
-            <v>131</v>
+            <v>6.14503816793894</v>
           </cell>
           <cell r="AP7">
-            <v>200</v>
+            <v>0.042726679712981</v>
           </cell>
           <cell r="AQ7">
-            <v>6.14503816793894</v>
+            <v>0.262557077625571</v>
           </cell>
           <cell r="AR7">
-            <v>0.042726679712981</v>
-          </cell>
-          <cell r="AS7">
-            <v>0.262557077625571</v>
+            <v>38.46</v>
+          </cell>
+          <cell r="AS7" t="str">
+            <v>不宜入场</v>
           </cell>
           <cell r="AT7">
-            <v>38.46</v>
+            <v>44524</v>
           </cell>
           <cell r="AU7">
-            <v>44524</v>
+            <v>30.54</v>
           </cell>
           <cell r="AV7">
-            <v>30.54</v>
+            <v>100</v>
           </cell>
           <cell r="AW7">
+            <v>5</v>
+          </cell>
+          <cell r="AX7">
+            <v>0.06108</v>
+          </cell>
+          <cell r="AY7">
+            <v>3059.06108</v>
+          </cell>
+          <cell r="AZ7">
+            <v>124.06108</v>
+          </cell>
+          <cell r="BA7">
+            <v>30.72</v>
+          </cell>
+          <cell r="BB7">
+            <v>29.33</v>
+          </cell>
+          <cell r="BC7">
+            <v>0.129496402877698</v>
+          </cell>
+          <cell r="BD7">
+            <v>44525</v>
+          </cell>
+          <cell r="BE7">
+            <v>30.15</v>
+          </cell>
+          <cell r="BF7">
             <v>100</v>
           </cell>
-          <cell r="AX7">
+          <cell r="BG7">
             <v>5</v>
           </cell>
-          <cell r="AY7">
-            <v>0.06108</v>
-          </cell>
-          <cell r="AZ7">
-            <v>3059.06108</v>
-          </cell>
-          <cell r="BA7">
-            <v>124.06108</v>
-          </cell>
-          <cell r="BB7">
-            <v>30.72</v>
-          </cell>
-          <cell r="BC7">
-            <v>29.33</v>
-          </cell>
-          <cell r="BD7">
-            <v>0.129496402877698</v>
+          <cell r="BH7">
+            <v>3.075</v>
+          </cell>
+          <cell r="BI7">
+            <v>3006.925</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>000006</v>
+            <v>000010</v>
           </cell>
           <cell r="B8">
-            <v>44522</v>
+            <v>44524</v>
           </cell>
           <cell r="C8" t="str">
-            <v>000722(湖南发展)</v>
+            <v>603663(三祥新材)</v>
           </cell>
           <cell r="D8">
-            <v>7.01</v>
+            <v>18.26</v>
           </cell>
           <cell r="E8">
-            <v>7.12</v>
+            <v>19.01</v>
           </cell>
           <cell r="F8">
-            <v>7.44</v>
+            <v>21.05</v>
           </cell>
           <cell r="G8">
-            <v>7.74</v>
+            <v>23.2</v>
           </cell>
           <cell r="H8">
-            <v>5.47</v>
+            <v>13.04</v>
           </cell>
           <cell r="I8">
-            <v>9.59</v>
+            <v>26.64</v>
           </cell>
           <cell r="J8">
-            <v>0.414990859232176</v>
+            <v>0.779141104294479</v>
           </cell>
           <cell r="K8">
-            <v>0.192909280500521</v>
+            <v>0.129129129129129</v>
           </cell>
         </row>
         <row r="8">
           <cell r="M8">
-            <v>6.06</v>
+            <v>18.5</v>
           </cell>
           <cell r="N8">
-            <v>8.34</v>
+            <v>22.39</v>
           </cell>
           <cell r="O8">
-            <v>6.68</v>
+            <v>18.85</v>
           </cell>
           <cell r="P8">
-            <v>7.95</v>
+            <v>23.56</v>
           </cell>
           <cell r="Q8">
-            <v>7.31</v>
+            <v>20.89</v>
           </cell>
         </row>
         <row r="8">
           <cell r="X8" t="str">
-            <v>24w</v>
+            <v>12w</v>
           </cell>
           <cell r="Y8">
-            <v>0.368091762252346</v>
+            <v>0.305555555555556</v>
           </cell>
           <cell r="Z8">
-            <v>0.199040767386091</v>
+            <v>0.158106297454221</v>
           </cell>
           <cell r="AA8">
-            <v>0.0805031446540881</v>
+            <v>0.113327674023769</v>
+          </cell>
+          <cell r="AB8" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="8">
@@ -1465,366 +1487,694 @@
             <v>3T</v>
           </cell>
           <cell r="AF8" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
-          <cell r="AG8" t="str">
-            <v>略清晰</v>
-          </cell>
-          <cell r="AH8" t="str">
+            <v>成</v>
+          </cell>
+          <cell r="AG8">
+            <v>25.19</v>
+          </cell>
+          <cell r="AH8">
+            <v>17.73</v>
+          </cell>
+          <cell r="AI8">
+            <v>7.46</v>
+          </cell>
+          <cell r="AJ8">
+            <v>23.56</v>
+          </cell>
+          <cell r="AK8">
+            <v>22.12</v>
+          </cell>
+          <cell r="AL8">
+            <v>26.91</v>
+          </cell>
+          <cell r="AM8">
+            <v>144</v>
+          </cell>
+          <cell r="AN8">
+            <v>200</v>
+          </cell>
+          <cell r="AO8">
+            <v>2.32638888888889</v>
+          </cell>
+          <cell r="AP8">
+            <v>0.0611205432937181</v>
+          </cell>
+          <cell r="AQ8">
+            <v>0.142190152801358</v>
+          </cell>
+          <cell r="AR8">
+            <v>53.49</v>
+          </cell>
+          <cell r="AS8" t="str">
             <v>可以</v>
-          </cell>
-          <cell r="AI8">
-            <v>8.43</v>
-          </cell>
-          <cell r="AJ8">
-            <v>6.78</v>
-          </cell>
-          <cell r="AK8">
-            <v>1.65</v>
-          </cell>
-          <cell r="AL8">
-            <v>8.03</v>
-          </cell>
-          <cell r="AM8">
-            <v>7.66</v>
-          </cell>
-          <cell r="AN8">
-            <v>9.31</v>
-          </cell>
-          <cell r="AO8">
-            <v>36.9999999999999</v>
-          </cell>
-          <cell r="AP8">
-            <v>800</v>
-          </cell>
-          <cell r="AQ8">
-            <v>3.45945945945947</v>
-          </cell>
-          <cell r="AR8">
-            <v>0.046077210460772</v>
-          </cell>
-          <cell r="AS8">
-            <v>0.159402241594023</v>
-          </cell>
-          <cell r="AT8">
-            <v>32.3</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>000007</v>
+            <v>000014</v>
           </cell>
           <cell r="B9">
-            <v>44523</v>
+            <v>44524</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>600392(盛和资源)</v>
+          </cell>
+          <cell r="D9">
+            <v>20.14</v>
+          </cell>
+          <cell r="E9">
+            <v>20.65</v>
+          </cell>
+          <cell r="F9">
+            <v>20.97</v>
+          </cell>
+          <cell r="G9">
+            <v>21.52</v>
+          </cell>
+          <cell r="H9">
+            <v>7.07</v>
+          </cell>
+          <cell r="I9">
+            <v>29.28</v>
+          </cell>
+          <cell r="J9">
+            <v>2.04384724186704</v>
+          </cell>
+          <cell r="K9">
+            <v>0.265027322404372</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="M9">
+            <v>18.34</v>
+          </cell>
+          <cell r="N9">
+            <v>21.65</v>
+          </cell>
+          <cell r="O9">
+            <v>18.61</v>
+          </cell>
+          <cell r="P9">
+            <v>21.14</v>
+          </cell>
+          <cell r="Q9">
+            <v>18.86</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="X9" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Y9">
+            <v>0.373633879781421</v>
+          </cell>
+          <cell r="Z9">
+            <v>0.140415704387991</v>
+          </cell>
+          <cell r="AA9">
+            <v>0.107852412488174</v>
+          </cell>
+          <cell r="AB9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AE9" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF9" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AM9">
+            <v>0</v>
+          </cell>
+          <cell r="AN9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AO9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AS9" t="str">
+            <v>不宜入场</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>000008</v>
+            <v>000015</v>
+          </cell>
+          <cell r="B10">
+            <v>44524</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>600399(抚顺特钢)</v>
+          </cell>
+          <cell r="D10">
+            <v>19.9</v>
+          </cell>
+          <cell r="E10">
+            <v>20.73</v>
+          </cell>
+          <cell r="F10">
+            <v>22.88</v>
+          </cell>
+          <cell r="G10">
+            <v>23.53</v>
+          </cell>
+          <cell r="H10">
+            <v>7.25</v>
+          </cell>
+          <cell r="I10">
+            <v>29.3</v>
+          </cell>
+          <cell r="J10">
+            <v>2.24551724137931</v>
+          </cell>
+          <cell r="K10">
+            <v>0.196928327645051</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>19.05</v>
+          </cell>
+          <cell r="N10">
+            <v>22.91</v>
+          </cell>
+          <cell r="O10">
+            <v>19.73</v>
+          </cell>
+          <cell r="P10">
+            <v>25.5</v>
+          </cell>
+          <cell r="Q10">
+            <v>23.12</v>
+          </cell>
+          <cell r="R10">
+            <v>26.45</v>
+          </cell>
+          <cell r="S10">
+            <v>23.48</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="X10" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Y10">
+            <v>0.349829351535836</v>
+          </cell>
+          <cell r="Z10">
+            <v>0.138804015713662</v>
+          </cell>
+          <cell r="AA10">
+            <v>0.0933333333333333</v>
+          </cell>
+          <cell r="AB10">
+            <v>0.112287334593573</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AE10" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF10" t="str">
+            <v>略明显</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AJ10">
+            <v>25.15</v>
+          </cell>
+          <cell r="AK10">
+            <v>23.48</v>
+          </cell>
+          <cell r="AL10">
+            <v>27.83</v>
+          </cell>
+          <cell r="AM10">
+            <v>167</v>
+          </cell>
+          <cell r="AN10">
+            <v>100</v>
+          </cell>
+          <cell r="AO10">
+            <v>1.60479041916168</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>000009</v>
+            <v>000017</v>
+          </cell>
+          <cell r="B11">
+            <v>44524</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>601677(明泰铝业)</v>
+          </cell>
+          <cell r="D11">
+            <v>26.7</v>
+          </cell>
+          <cell r="E11">
+            <v>28.65</v>
+          </cell>
+          <cell r="F11">
+            <v>33.16</v>
+          </cell>
+          <cell r="G11">
+            <v>36.11</v>
+          </cell>
+          <cell r="H11">
+            <v>11.38</v>
+          </cell>
+          <cell r="I11">
+            <v>41.75</v>
+          </cell>
+          <cell r="J11">
+            <v>2.17311072056239</v>
+          </cell>
+          <cell r="K11">
+            <v>0.135089820359281</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="M11">
+            <v>28.85</v>
+          </cell>
+          <cell r="N11">
+            <v>35.46</v>
+          </cell>
+          <cell r="O11">
+            <v>29.05</v>
+          </cell>
+          <cell r="P11">
+            <v>34.35</v>
+          </cell>
+          <cell r="Q11">
+            <v>31.5</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="X11" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Y11">
+            <v>0.308982035928144</v>
+          </cell>
+          <cell r="Z11">
+            <v>0.180767061477721</v>
+          </cell>
+          <cell r="AA11">
+            <v>0.0829694323144105</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AE11" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF11" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AJ11">
+            <v>37.13</v>
+          </cell>
+          <cell r="AK11">
+            <v>35.6</v>
+          </cell>
+          <cell r="AL11">
+            <v>38.61</v>
+          </cell>
+          <cell r="AM11">
+            <v>153</v>
+          </cell>
+          <cell r="AN11">
+            <v>100</v>
+          </cell>
+          <cell r="AO11">
+            <v>0.967320261437906</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AS11" t="str">
+            <v>可以</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>000010</v>
+            <v>000018</v>
+          </cell>
+          <cell r="B12">
+            <v>44524</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>002223(鱼跃医疗)</v>
+          </cell>
+          <cell r="D12">
+            <v>32.91</v>
+          </cell>
+          <cell r="E12">
+            <v>33.52</v>
+          </cell>
+          <cell r="F12">
+            <v>34.71</v>
+          </cell>
+          <cell r="G12">
+            <v>36.09</v>
+          </cell>
+          <cell r="H12">
+            <v>25.12</v>
+          </cell>
+          <cell r="I12">
+            <v>41.77</v>
+          </cell>
+          <cell r="J12">
+            <v>0.436703821656051</v>
+          </cell>
+          <cell r="K12">
+            <v>0.135982762748384</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="M12">
+            <v>30.46</v>
+          </cell>
+          <cell r="N12">
+            <v>36.94</v>
+          </cell>
+          <cell r="O12">
+            <v>33.59</v>
+          </cell>
+          <cell r="P12">
+            <v>37.1</v>
+          </cell>
+          <cell r="Q12">
+            <v>34.44</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="X12" t="str">
+            <v>16w</v>
+          </cell>
+          <cell r="Y12">
+            <v>0.270768494134546</v>
+          </cell>
+          <cell r="Z12">
+            <v>0.0906876015159717</v>
+          </cell>
+          <cell r="AA12">
+            <v>0.0716981132075473</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AE12" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF12" t="str">
+            <v>不是很明显</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AJ12">
+            <v>37.09</v>
+          </cell>
+          <cell r="AK12">
+            <v>35.25</v>
+          </cell>
+          <cell r="AL12">
+            <v>38.8</v>
+          </cell>
+          <cell r="AM12">
+            <v>184</v>
+          </cell>
+          <cell r="AN12">
+            <v>100</v>
+          </cell>
+          <cell r="AO12">
+            <v>0.929347826086951</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AS12" t="str">
+            <v>可以</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>000011</v>
+            <v>000019</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>000012</v>
+            <v>000020</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>000013</v>
+            <v>000021</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>000014</v>
+            <v>000022</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>000015</v>
+            <v>000023</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>000016</v>
+            <v>000024</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>000017</v>
+            <v>000025</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>000018</v>
+            <v>000026</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>000019</v>
+            <v>000027</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>000020</v>
+            <v>000028</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>000021</v>
+            <v>000029</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>000022</v>
+            <v>000030</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>000023</v>
+            <v>000031</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>000024</v>
+            <v>000032</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>000025</v>
+            <v>000033</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>000026</v>
+            <v>000034</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>000027</v>
+            <v>000035</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>000028</v>
+            <v>000036</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>000029</v>
+            <v>000037</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>000030</v>
+            <v>000038</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>000031</v>
+            <v>000039</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>000032</v>
+            <v>000040</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>000033</v>
+            <v>000041</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>000034</v>
+            <v>000042</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>000035</v>
+            <v>000043</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>000036</v>
+            <v>000044</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>000037</v>
+            <v>000045</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>000038</v>
+            <v>000046</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>000039</v>
+            <v>000047</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>000040</v>
+            <v>000048</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>000041</v>
+            <v>000049</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>000042</v>
+            <v>000050</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>000043</v>
+            <v>000051</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>000044</v>
+            <v>000052</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>000045</v>
+            <v>000053</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>000046</v>
+            <v>000054</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>000047</v>
+            <v>000055</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>000048</v>
+            <v>000056</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>000049</v>
+            <v>000057</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>000050</v>
+            <v>000058</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>000051</v>
+            <v>000059</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>000052</v>
+            <v>000060</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>000053</v>
+            <v>000061</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>000054</v>
+            <v>000062</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>000055</v>
+            <v>000063</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>000056</v>
+            <v>000064</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>000057</v>
+            <v>000065</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>000058</v>
+            <v>000066</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>000059</v>
+            <v>000067</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>000060</v>
+            <v>000068</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>000061</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>000062</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>000063</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>000064</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>000065</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>000066</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>000067</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>000068</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
             <v>000069</v>
           </cell>
         </row>
@@ -2095,8 +2445,8 @@
   <sheetPr/>
   <dimension ref="A1:T499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2107,7 +2457,7 @@
     <col min="4" max="4" width="8.17857142857143" customWidth="1"/>
     <col min="5" max="5" width="9.96428571428571" customWidth="1"/>
     <col min="6" max="6" width="13.5357142857143" customWidth="1"/>
-    <col min="7" max="7" width="12.3392857142857" customWidth="1"/>
+    <col min="7" max="7" width="29.0089285714286" customWidth="1"/>
     <col min="8" max="8" width="23.3571428571429" customWidth="1"/>
     <col min="9" max="9" width="30.0625" customWidth="1"/>
     <col min="10" max="10" width="40.4732142857143" customWidth="1"/>
@@ -2136,7 +2486,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2187,11 +2537,11 @@
         <v>32.53</v>
       </c>
       <c r="G2" s="4">
-        <f>F2/(1-VLOOKUP([1]入场指标!A5,[1]入场指标!A4:BL10000,44,FALSE))</f>
+        <f>F2/(1-VLOOKUP([1]入场指标!A5,[1]入场指标!A4:BL10000,42,FALSE))</f>
         <v>34.12</v>
       </c>
       <c r="H2" s="4">
-        <f>G2+G2*VLOOKUP([1]入场指标!A5,[1]入场指标!A4:BL1000,44,FALSE)*2</f>
+        <f>G2+G2*VLOOKUP([1]入场指标!A5,[1]入场指标!A4:BL1000,42,FALSE)*2</f>
         <v>37.3</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -2240,11 +2590,11 @@
         <v>32.53</v>
       </c>
       <c r="G3" s="4">
-        <f>F3/(1-VLOOKUP([1]入场指标!A5,[1]入场指标!A5:BL10001,44,FALSE))</f>
+        <f>F2/(1-VLOOKUP([1]入场指标!A5,[1]入场指标!A5:BL10001,42,FALSE))</f>
         <v>34.12</v>
       </c>
       <c r="H3" s="4">
-        <f>G3+G3*VLOOKUP([1]入场指标!A5,[1]入场指标!A5:BL1001,44,FALSE)*2</f>
+        <f>G3+G3*VLOOKUP([1]入场指标!A5,[1]入场指标!A5:BL1001,42,FALSE)*2</f>
         <v>37.3</v>
       </c>
       <c r="I3" s="5" t="s">

--- a/我的创作/炒股/交易运行状态/同仁堂.xlsx
+++ b/我的创作/炒股/交易运行状态/同仁堂.xlsx
@@ -2446,7 +2446,7 @@
   <dimension ref="A1:T499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/炒股/交易运行状态/同仁堂.xlsx
+++ b/我的创作/炒股/交易运行状态/同仁堂.xlsx
@@ -74,11 +74,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,83 +90,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,14 +113,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,8 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,15 +190,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +205,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,7 +254,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,19 +272,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,13 +332,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,25 +356,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,79 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,8 +445,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,6 +456,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,6 +480,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,129 +539,90 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,61 +631,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/我的创作/炒股/交易运行状态/同仁堂.xlsx
+++ b/我的创作/炒股/交易运行状态/同仁堂.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="10720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,11 +74,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,32 +103,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,11 +118,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,25 +133,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,7 +158,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +174,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,8 +219,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,19 +254,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,19 +278,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,60 +326,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,7 +338,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,49 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,35 +451,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,17 +481,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,11 +533,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,142 +544,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,7 +780,7 @@
       <sheetName val="账户动态"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="4">
           <cell r="A4" t="str">
             <v>000001</v>
@@ -2179,7 +2179,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2445,8 +2445,8 @@
   <sheetPr/>
   <dimension ref="A1:T499"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2627,19 +2627,48 @@
       <c r="A4" s="3">
         <v>44525</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="B4" s="4">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4">
+        <v>34.6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>37.6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>34.6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>32.53</v>
+      </c>
+      <c r="G4" s="4">
+        <f>F4/(1-VLOOKUP([1]入场指标!A5,[1]入场指标!A5:BL10002,42,FALSE))</f>
+        <v>34.12</v>
+      </c>
+      <c r="H4" s="4">
+        <f>G3+G3*VLOOKUP([1]入场指标!A5,[1]入场指标!A5:BL1001,42,FALSE)*2</f>
+        <v>37.3</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="5" t="str">
+        <f>IF(B4&gt;(D4-(D4-C4)/3),"上部",IF(B4&gt;(E4+(D4-C4)/3),"中部","下部"))</f>
+        <v>上部</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
